--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.948129313046825</v>
+        <v>0.9481293130468265</v>
       </c>
       <c r="D2">
-        <v>0.9601412139917724</v>
+        <v>0.9601412139917739</v>
       </c>
       <c r="E2">
-        <v>0.9615640442707049</v>
+        <v>0.9615640442707062</v>
       </c>
       <c r="F2">
-        <v>0.9613568587903114</v>
+        <v>0.9613568587903122</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03744473030004</v>
       </c>
       <c r="J2">
-        <v>0.9719804549838599</v>
+        <v>0.9719804549838613</v>
       </c>
       <c r="K2">
-        <v>0.9721852658295154</v>
+        <v>0.9721852658295168</v>
       </c>
       <c r="L2">
-        <v>0.9735861588993889</v>
+        <v>0.9735861588993902</v>
       </c>
       <c r="M2">
-        <v>0.9733821626501745</v>
+        <v>0.9733821626501753</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.958533734190759</v>
+        <v>0.9585337341907607</v>
       </c>
       <c r="D3">
-        <v>0.969169064462281</v>
+        <v>0.9691690644622828</v>
       </c>
       <c r="E3">
-        <v>0.9702071200221319</v>
+        <v>0.9702071200221333</v>
       </c>
       <c r="F3">
-        <v>0.9723008610414628</v>
+        <v>0.9723008610414637</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039961578304285</v>
+        <v>1.039961578304286</v>
       </c>
       <c r="J3">
-        <v>0.9802223900432535</v>
+        <v>0.9802223900432552</v>
       </c>
       <c r="K3">
-        <v>0.9802122476813615</v>
+        <v>0.9802122476813631</v>
       </c>
       <c r="L3">
-        <v>0.9812359540299177</v>
+        <v>0.9812359540299188</v>
       </c>
       <c r="M3">
-        <v>0.9833008703778607</v>
+        <v>0.9833008703778616</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9649643143891685</v>
+        <v>0.9649643143891707</v>
       </c>
       <c r="D4">
-        <v>0.9747564297619025</v>
+        <v>0.9747564297619047</v>
       </c>
       <c r="E4">
-        <v>0.9755588595463226</v>
+        <v>0.9755588595463245</v>
       </c>
       <c r="F4">
-        <v>0.9790488673748499</v>
+        <v>0.9790488673748515</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041483518389176</v>
+        <v>1.041483518389177</v>
       </c>
       <c r="J4">
-        <v>0.9853087762280502</v>
+        <v>0.9853087762280524</v>
       </c>
       <c r="K4">
-        <v>0.985169382917901</v>
+        <v>0.9851693829179031</v>
       </c>
       <c r="L4">
-        <v>0.985961501568938</v>
+        <v>0.98596150156894</v>
       </c>
       <c r="M4">
-        <v>0.989406908774482</v>
+        <v>0.9894069087744837</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9676013521666597</v>
+        <v>0.9676013521666592</v>
       </c>
       <c r="D5">
-        <v>0.9770493318776559</v>
+        <v>0.9770493318776552</v>
       </c>
       <c r="E5">
-        <v>0.9777556390356101</v>
+        <v>0.9777556390356099</v>
       </c>
       <c r="F5">
-        <v>0.9818121555024892</v>
+        <v>0.9818121555024895</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042099338449111</v>
       </c>
       <c r="J5">
-        <v>0.9873926376485184</v>
+        <v>0.9873926376485181</v>
       </c>
       <c r="K5">
-        <v>0.9872010962814907</v>
+        <v>0.9872010962814901</v>
       </c>
       <c r="L5">
-        <v>0.9878986074830396</v>
+        <v>0.9878986074830393</v>
       </c>
       <c r="M5">
-        <v>0.9919049113257932</v>
+        <v>0.9919049113257933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9680403860960223</v>
+        <v>0.9680403860960222</v>
       </c>
       <c r="D6">
-        <v>0.9774311638367723</v>
+        <v>0.9774311638367721</v>
       </c>
       <c r="E6">
-        <v>0.9781214967236475</v>
+        <v>0.9781214967236473</v>
       </c>
       <c r="F6">
-        <v>0.982271976021351</v>
+        <v>0.9822719760213507</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042201370347661</v>
       </c>
       <c r="J6">
-        <v>0.9877394564602036</v>
+        <v>0.9877394564602034</v>
       </c>
       <c r="K6">
-        <v>0.9875392831606036</v>
+        <v>0.9875392831606034</v>
       </c>
       <c r="L6">
-        <v>0.9882210644871768</v>
+        <v>0.9882210644871767</v>
       </c>
       <c r="M6">
-        <v>0.9923204444803378</v>
+        <v>0.9923204444803377</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9649998042642234</v>
+        <v>0.9649998042642243</v>
       </c>
       <c r="D7">
-        <v>0.9747872818500162</v>
+        <v>0.9747872818500168</v>
       </c>
       <c r="E7">
-        <v>0.9755884160276214</v>
+        <v>0.975588416027622</v>
       </c>
       <c r="F7">
-        <v>0.979086072001361</v>
+        <v>0.9790860720013622</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041491839458905</v>
       </c>
       <c r="J7">
-        <v>0.9853368292257692</v>
+        <v>0.98533682922577</v>
       </c>
       <c r="K7">
-        <v>0.9851967307120754</v>
+        <v>0.9851967307120763</v>
       </c>
       <c r="L7">
-        <v>0.9859875746873014</v>
+        <v>0.9859875746873021</v>
       </c>
       <c r="M7">
-        <v>0.9894405512360388</v>
+        <v>0.9894405512360401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9517118163351593</v>
+        <v>0.9517118163351591</v>
       </c>
       <c r="D8">
         <v>0.9632479947413768</v>
       </c>
       <c r="E8">
-        <v>0.9645378551455631</v>
+        <v>0.9645378551455628</v>
       </c>
       <c r="F8">
         <v>0.9651285416122342</v>
@@ -667,16 +667,16 @@
         <v>1.03831837371387</v>
       </c>
       <c r="J8">
-        <v>0.974819912690553</v>
+        <v>0.9748199126905528</v>
       </c>
       <c r="K8">
-        <v>0.9749499342893376</v>
+        <v>0.9749499342893375</v>
       </c>
       <c r="L8">
-        <v>0.9762206196218396</v>
+        <v>0.9762206196218393</v>
       </c>
       <c r="M8">
-        <v>0.9768025466857233</v>
+        <v>0.9768025466857232</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9256702191901146</v>
+        <v>0.9256702191901145</v>
       </c>
       <c r="D9">
-        <v>0.9407073591309959</v>
+        <v>0.9407073591309958</v>
       </c>
       <c r="E9">
-        <v>0.9429747698886584</v>
+        <v>0.9429747698886581</v>
       </c>
       <c r="F9">
-        <v>0.9376427557918499</v>
+        <v>0.9376427557918504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031828106762877</v>
+        <v>1.031828106762878</v>
       </c>
       <c r="J9">
-        <v>0.9541513866884779</v>
+        <v>0.954151386688478</v>
       </c>
       <c r="K9">
-        <v>0.9548417155624246</v>
+        <v>0.9548417155624244</v>
       </c>
       <c r="L9">
-        <v>0.9570661596947551</v>
+        <v>0.9570661596947549</v>
       </c>
       <c r="M9">
-        <v>0.9518356176734002</v>
+        <v>0.9518356176734005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9059937377538798</v>
+        <v>0.905993737753878</v>
       </c>
       <c r="D10">
-        <v>0.9237451202659783</v>
+        <v>0.923745120265976</v>
       </c>
       <c r="E10">
-        <v>0.9267672071859978</v>
+        <v>0.9267672071859958</v>
       </c>
       <c r="F10">
-        <v>0.9167884457562522</v>
+        <v>0.9167884457562505</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026756051299348</v>
       </c>
       <c r="J10">
-        <v>0.9385063830981877</v>
+        <v>0.9385063830981858</v>
       </c>
       <c r="K10">
-        <v>0.9396426538429895</v>
+        <v>0.9396426538429874</v>
       </c>
       <c r="L10">
-        <v>0.9425978038883764</v>
+        <v>0.9425978038883747</v>
       </c>
       <c r="M10">
-        <v>0.9328423026199372</v>
+        <v>0.9328423026199356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8967571769895982</v>
+        <v>0.8967571769895974</v>
       </c>
       <c r="D11">
-        <v>0.9158044628840514</v>
+        <v>0.9158044628840505</v>
       </c>
       <c r="E11">
-        <v>0.9191853421943834</v>
+        <v>0.9191853421943824</v>
       </c>
       <c r="F11">
-        <v>0.9069796168843771</v>
+        <v>0.9069796168843766</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024340467556679</v>
       </c>
       <c r="J11">
-        <v>0.9311589989660077</v>
+        <v>0.9311589989660067</v>
       </c>
       <c r="K11">
-        <v>0.9325103431656325</v>
+        <v>0.9325103431656316</v>
       </c>
       <c r="L11">
-        <v>0.9358111405404252</v>
+        <v>0.9358111405404246</v>
       </c>
       <c r="M11">
-        <v>0.9238983147486792</v>
+        <v>0.9238983147486787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8931996849243516</v>
+        <v>0.8931996849243511</v>
       </c>
       <c r="D12">
-        <v>0.9127499496448496</v>
+        <v>0.9127499496448489</v>
       </c>
       <c r="E12">
-        <v>0.9162697751557757</v>
+        <v>0.9162697751557749</v>
       </c>
       <c r="F12">
-        <v>0.9031989425278484</v>
+        <v>0.903198942527848</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023405472901149</v>
       </c>
       <c r="J12">
-        <v>0.9283290211349122</v>
+        <v>0.9283290211349118</v>
       </c>
       <c r="K12">
-        <v>0.9297641014592142</v>
+        <v>0.9297641014592137</v>
       </c>
       <c r="L12">
-        <v>0.933198447649736</v>
+        <v>0.9331984476497355</v>
       </c>
       <c r="M12">
-        <v>0.9204495731940947</v>
+        <v>0.9204495731940943</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939688698628228</v>
+        <v>0.8939688698628232</v>
       </c>
       <c r="D13">
-        <v>0.9134101983212628</v>
+        <v>0.9134101983212634</v>
       </c>
       <c r="E13">
-        <v>0.9168999461041897</v>
+        <v>0.91689994610419</v>
       </c>
       <c r="F13">
         <v>0.9040165050768804</v>
@@ -854,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023607830704298</v>
+        <v>1.023607830704297</v>
       </c>
       <c r="J13">
-        <v>0.9289409038986886</v>
+        <v>0.928940903898689</v>
       </c>
       <c r="K13">
-        <v>0.930357837992941</v>
+        <v>0.9303578379929415</v>
       </c>
       <c r="L13">
-        <v>0.9337632894293336</v>
+        <v>0.9337632894293341</v>
       </c>
       <c r="M13">
         <v>0.9211954162195081</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8964658246746586</v>
+        <v>0.8964658246746614</v>
       </c>
       <c r="D14">
-        <v>0.9155542220616776</v>
+        <v>0.9155542220616802</v>
       </c>
       <c r="E14">
-        <v>0.9189464650920868</v>
+        <v>0.9189464650920891</v>
       </c>
       <c r="F14">
-        <v>0.9066700412852753</v>
+        <v>0.9066700412852775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02426398259628</v>
+        <v>1.024263982596281</v>
       </c>
       <c r="J14">
-        <v>0.9309272284264342</v>
+        <v>0.9309272284264368</v>
       </c>
       <c r="K14">
-        <v>0.9322854120857493</v>
+        <v>0.9322854120857518</v>
       </c>
       <c r="L14">
-        <v>0.9355971382128755</v>
+        <v>0.9355971382128779</v>
       </c>
       <c r="M14">
-        <v>0.9236159463021468</v>
+        <v>0.9236159463021488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8979868483718434</v>
+        <v>0.8979868483718437</v>
       </c>
       <c r="D15">
-        <v>0.9168607799554177</v>
+        <v>0.9168607799554181</v>
       </c>
       <c r="E15">
-        <v>0.9201937289350528</v>
+        <v>0.9201937289350532</v>
       </c>
       <c r="F15">
-        <v>0.9082860899254382</v>
+        <v>0.9082860899254386</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024663094493994</v>
       </c>
       <c r="J15">
-        <v>0.9321371997362649</v>
+        <v>0.9321371997362653</v>
       </c>
       <c r="K15">
-        <v>0.933459714095616</v>
+        <v>0.9334597140956166</v>
       </c>
       <c r="L15">
-        <v>0.9367144031301987</v>
+        <v>0.9367144031301989</v>
       </c>
       <c r="M15">
-        <v>0.9250899122916638</v>
+        <v>0.9250899122916643</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9065901323948203</v>
+        <v>0.9065901323948209</v>
       </c>
       <c r="D16">
-        <v>0.9242583288553073</v>
+        <v>0.924258328855308</v>
       </c>
       <c r="E16">
-        <v>0.9272573471120383</v>
+        <v>0.927257347112039</v>
       </c>
       <c r="F16">
-        <v>0.9174214074344401</v>
+        <v>0.9174214074344405</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026911362636832</v>
       </c>
       <c r="J16">
-        <v>0.9389807585862671</v>
+        <v>0.9389807585862674</v>
       </c>
       <c r="K16">
-        <v>0.9401032620967317</v>
+        <v>0.9401032620967323</v>
       </c>
       <c r="L16">
-        <v>0.943036149781142</v>
+        <v>0.9430361497811426</v>
       </c>
       <c r="M16">
-        <v>0.9334192558677754</v>
+        <v>0.9334192558677759</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9117829846717874</v>
+        <v>0.9117829846717882</v>
       </c>
       <c r="D17">
-        <v>0.92872933643863</v>
+        <v>0.928729336438631</v>
       </c>
       <c r="E17">
-        <v>0.9315280022778643</v>
+        <v>0.9315280022778651</v>
       </c>
       <c r="F17">
-        <v>0.9229305234367084</v>
+        <v>0.9229305234367098</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.028259895202288</v>
       </c>
       <c r="J17">
-        <v>0.9431108534461207</v>
+        <v>0.9431108534461218</v>
       </c>
       <c r="K17">
-        <v>0.9441141226699954</v>
+        <v>0.9441141226699963</v>
       </c>
       <c r="L17">
-        <v>0.9468534644469156</v>
+        <v>0.9468534644469165</v>
       </c>
       <c r="M17">
-        <v>0.9384397485302608</v>
+        <v>0.9384397485302618</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9147442583206122</v>
+        <v>0.9147442583206116</v>
       </c>
       <c r="D18">
-        <v>0.9312809289364166</v>
+        <v>0.9312809289364157</v>
       </c>
       <c r="E18">
-        <v>0.9339657526104101</v>
+        <v>0.9339657526104095</v>
       </c>
       <c r="F18">
-        <v>0.9260703606955162</v>
+        <v>0.9260703606955155</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029025684939177</v>
       </c>
       <c r="J18">
-        <v>0.9454657497398211</v>
+        <v>0.9454657497398202</v>
       </c>
       <c r="K18">
-        <v>0.9464015487894682</v>
+        <v>0.9464015487894676</v>
       </c>
       <c r="L18">
-        <v>0.9490307596548919</v>
+        <v>0.9490307596548915</v>
       </c>
       <c r="M18">
-        <v>0.9413001289612126</v>
+        <v>0.9413001289612121</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9157430044695415</v>
+        <v>0.9157430044695408</v>
       </c>
       <c r="D19">
-        <v>0.9321418195497838</v>
+        <v>0.9321418195497829</v>
       </c>
       <c r="E19">
-        <v>0.9347883155192227</v>
+        <v>0.9347883155192223</v>
       </c>
       <c r="F19">
-        <v>0.9271290238285576</v>
+        <v>0.9271290238285569</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029283400285492</v>
       </c>
       <c r="J19">
-        <v>0.946259917869319</v>
+        <v>0.9462599178693181</v>
       </c>
       <c r="K19">
-        <v>0.9471730492918193</v>
+        <v>0.9471730492918186</v>
       </c>
       <c r="L19">
-        <v>0.949765156548641</v>
+        <v>0.9497651565486406</v>
       </c>
       <c r="M19">
-        <v>0.9422643979727656</v>
+        <v>0.942264397972765</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112329575923089</v>
+        <v>0.9112329575923092</v>
       </c>
       <c r="D20">
-        <v>0.9282555592857294</v>
+        <v>0.9282555592857298</v>
       </c>
       <c r="E20">
-        <v>0.9310754031361541</v>
+        <v>0.9310754031361542</v>
       </c>
       <c r="F20">
-        <v>0.9223471834485653</v>
+        <v>0.9223471834485654</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028117391265377</v>
       </c>
       <c r="J20">
-        <v>0.9426734256849052</v>
+        <v>0.9426734256849053</v>
       </c>
       <c r="K20">
-        <v>0.9436892692694755</v>
+        <v>0.9436892692694757</v>
       </c>
       <c r="L20">
-        <v>0.9464490861853422</v>
+        <v>0.9464490861853424</v>
       </c>
       <c r="M20">
-        <v>0.9379082476141286</v>
+        <v>0.9379082476141288</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8957342071445449</v>
+        <v>0.8957342071445475</v>
       </c>
       <c r="D21">
-        <v>0.9149259039515774</v>
+        <v>0.9149259039515795</v>
       </c>
       <c r="E21">
-        <v>0.9183466949116709</v>
+        <v>0.9183466949116731</v>
       </c>
       <c r="F21">
-        <v>0.9058926192680984</v>
+        <v>0.9058926192681007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024071848669732</v>
+        <v>1.024071848669733</v>
       </c>
       <c r="J21">
-        <v>0.9303452269909701</v>
+        <v>0.9303452269909723</v>
       </c>
       <c r="K21">
-        <v>0.9317205998255986</v>
+        <v>0.9317205998256011</v>
       </c>
       <c r="L21">
-        <v>0.9350597760872296</v>
+        <v>0.9350597760872319</v>
       </c>
       <c r="M21">
-        <v>0.9229068263836008</v>
+        <v>0.9229068263836029</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8852433797356007</v>
+        <v>0.8852433797356001</v>
       </c>
       <c r="D22">
-        <v>0.9059265169657164</v>
+        <v>0.9059265169657159</v>
       </c>
       <c r="E22">
-        <v>0.9097586009657843</v>
+        <v>0.9097586009657834</v>
       </c>
       <c r="F22">
-        <v>0.8947385230904077</v>
+        <v>0.8947385230904067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021306530667961</v>
+        <v>1.02130653066796</v>
       </c>
       <c r="J22">
-        <v>0.9220001179545562</v>
+        <v>0.9220001179545554</v>
       </c>
       <c r="K22">
-        <v>0.9236241971491105</v>
+        <v>0.9236241971491097</v>
       </c>
       <c r="L22">
-        <v>0.9273580415755227</v>
+        <v>0.927358041575522</v>
       </c>
       <c r="M22">
-        <v>0.9127295638923085</v>
+        <v>0.9127295638923075</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8908832750074989</v>
+        <v>0.8908832750074981</v>
       </c>
       <c r="D23">
-        <v>0.9107622217667289</v>
+        <v>0.9107622217667282</v>
       </c>
       <c r="E23">
-        <v>0.9143727443918462</v>
+        <v>0.9143727443918456</v>
       </c>
       <c r="F23">
-        <v>0.9007364490222267</v>
+        <v>0.900736449022226</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022795443821263</v>
       </c>
       <c r="J23">
-        <v>0.9264863481762394</v>
+        <v>0.9264863481762386</v>
       </c>
       <c r="K23">
-        <v>0.9279762114470503</v>
+        <v>0.9279762114470496</v>
       </c>
       <c r="L23">
-        <v>0.9314976386217492</v>
+        <v>0.9314976386217484</v>
       </c>
       <c r="M23">
-        <v>0.9182029074041945</v>
+        <v>0.9182029074041937</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.911481698767677</v>
+        <v>0.911481698767678</v>
       </c>
       <c r="D24">
-        <v>0.9284698115540729</v>
+        <v>0.9284698115540739</v>
       </c>
       <c r="E24">
-        <v>0.9312800767030455</v>
+        <v>0.9312800767030467</v>
       </c>
       <c r="F24">
-        <v>0.9226109954576593</v>
+        <v>0.9226109954576601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028181846547954</v>
+        <v>1.028181846547955</v>
       </c>
       <c r="J24">
-        <v>0.9428712466289662</v>
+        <v>0.9428712466289672</v>
       </c>
       <c r="K24">
-        <v>0.9438814020219137</v>
+        <v>0.9438814020219148</v>
       </c>
       <c r="L24">
-        <v>0.9466319586268322</v>
+        <v>0.9466319586268335</v>
       </c>
       <c r="M24">
-        <v>0.9381486187626868</v>
+        <v>0.9381486187626876</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9327636395641488</v>
+        <v>0.9327636395641478</v>
       </c>
       <c r="D25">
-        <v>0.9468371482815241</v>
+        <v>0.9468371482815237</v>
       </c>
       <c r="E25">
-        <v>0.9488358151343909</v>
+        <v>0.9488358151343902</v>
       </c>
       <c r="F25">
-        <v>0.9451442496554446</v>
+        <v>0.9451442496554442</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03362529283207</v>
       </c>
       <c r="J25">
-        <v>0.9597868443852896</v>
+        <v>0.9597868443852889</v>
       </c>
       <c r="K25">
-        <v>0.9603209074065775</v>
+        <v>0.9603209074065769</v>
       </c>
       <c r="L25">
-        <v>0.9622839566084261</v>
+        <v>0.9622839566084255</v>
       </c>
       <c r="M25">
-        <v>0.9586583305188662</v>
+        <v>0.9586583305188656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9481293130468265</v>
+        <v>0.948129313046825</v>
       </c>
       <c r="D2">
-        <v>0.9601412139917739</v>
+        <v>0.9601412139917724</v>
       </c>
       <c r="E2">
-        <v>0.9615640442707062</v>
+        <v>0.9615640442707049</v>
       </c>
       <c r="F2">
-        <v>0.9613568587903122</v>
+        <v>0.9613568587903114</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03744473030004</v>
       </c>
       <c r="J2">
-        <v>0.9719804549838613</v>
+        <v>0.9719804549838599</v>
       </c>
       <c r="K2">
-        <v>0.9721852658295168</v>
+        <v>0.9721852658295154</v>
       </c>
       <c r="L2">
-        <v>0.9735861588993902</v>
+        <v>0.9735861588993889</v>
       </c>
       <c r="M2">
-        <v>0.9733821626501753</v>
+        <v>0.9733821626501745</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9585337341907607</v>
+        <v>0.958533734190759</v>
       </c>
       <c r="D3">
-        <v>0.9691690644622828</v>
+        <v>0.969169064462281</v>
       </c>
       <c r="E3">
-        <v>0.9702071200221333</v>
+        <v>0.9702071200221319</v>
       </c>
       <c r="F3">
-        <v>0.9723008610414637</v>
+        <v>0.9723008610414628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039961578304286</v>
+        <v>1.039961578304285</v>
       </c>
       <c r="J3">
-        <v>0.9802223900432552</v>
+        <v>0.9802223900432535</v>
       </c>
       <c r="K3">
-        <v>0.9802122476813631</v>
+        <v>0.9802122476813615</v>
       </c>
       <c r="L3">
-        <v>0.9812359540299188</v>
+        <v>0.9812359540299177</v>
       </c>
       <c r="M3">
-        <v>0.9833008703778616</v>
+        <v>0.9833008703778607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9649643143891707</v>
+        <v>0.9649643143891685</v>
       </c>
       <c r="D4">
-        <v>0.9747564297619047</v>
+        <v>0.9747564297619025</v>
       </c>
       <c r="E4">
-        <v>0.9755588595463245</v>
+        <v>0.9755588595463226</v>
       </c>
       <c r="F4">
-        <v>0.9790488673748515</v>
+        <v>0.9790488673748499</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041483518389177</v>
+        <v>1.041483518389176</v>
       </c>
       <c r="J4">
-        <v>0.9853087762280524</v>
+        <v>0.9853087762280502</v>
       </c>
       <c r="K4">
-        <v>0.9851693829179031</v>
+        <v>0.985169382917901</v>
       </c>
       <c r="L4">
-        <v>0.98596150156894</v>
+        <v>0.985961501568938</v>
       </c>
       <c r="M4">
-        <v>0.9894069087744837</v>
+        <v>0.989406908774482</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9676013521666592</v>
+        <v>0.9676013521666597</v>
       </c>
       <c r="D5">
-        <v>0.9770493318776552</v>
+        <v>0.9770493318776559</v>
       </c>
       <c r="E5">
-        <v>0.9777556390356099</v>
+        <v>0.9777556390356101</v>
       </c>
       <c r="F5">
-        <v>0.9818121555024895</v>
+        <v>0.9818121555024892</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042099338449111</v>
       </c>
       <c r="J5">
-        <v>0.9873926376485181</v>
+        <v>0.9873926376485184</v>
       </c>
       <c r="K5">
-        <v>0.9872010962814901</v>
+        <v>0.9872010962814907</v>
       </c>
       <c r="L5">
-        <v>0.9878986074830393</v>
+        <v>0.9878986074830396</v>
       </c>
       <c r="M5">
-        <v>0.9919049113257933</v>
+        <v>0.9919049113257932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9680403860960222</v>
+        <v>0.9680403860960223</v>
       </c>
       <c r="D6">
-        <v>0.9774311638367721</v>
+        <v>0.9774311638367723</v>
       </c>
       <c r="E6">
-        <v>0.9781214967236473</v>
+        <v>0.9781214967236475</v>
       </c>
       <c r="F6">
-        <v>0.9822719760213507</v>
+        <v>0.982271976021351</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.042201370347661</v>
       </c>
       <c r="J6">
-        <v>0.9877394564602034</v>
+        <v>0.9877394564602036</v>
       </c>
       <c r="K6">
-        <v>0.9875392831606034</v>
+        <v>0.9875392831606036</v>
       </c>
       <c r="L6">
-        <v>0.9882210644871767</v>
+        <v>0.9882210644871768</v>
       </c>
       <c r="M6">
-        <v>0.9923204444803377</v>
+        <v>0.9923204444803378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9649998042642243</v>
+        <v>0.9649998042642234</v>
       </c>
       <c r="D7">
-        <v>0.9747872818500168</v>
+        <v>0.9747872818500162</v>
       </c>
       <c r="E7">
-        <v>0.975588416027622</v>
+        <v>0.9755884160276214</v>
       </c>
       <c r="F7">
-        <v>0.9790860720013622</v>
+        <v>0.979086072001361</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041491839458905</v>
       </c>
       <c r="J7">
-        <v>0.98533682922577</v>
+        <v>0.9853368292257692</v>
       </c>
       <c r="K7">
-        <v>0.9851967307120763</v>
+        <v>0.9851967307120754</v>
       </c>
       <c r="L7">
-        <v>0.9859875746873021</v>
+        <v>0.9859875746873014</v>
       </c>
       <c r="M7">
-        <v>0.9894405512360401</v>
+        <v>0.9894405512360388</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9517118163351591</v>
+        <v>0.9517118163351593</v>
       </c>
       <c r="D8">
         <v>0.9632479947413768</v>
       </c>
       <c r="E8">
-        <v>0.9645378551455628</v>
+        <v>0.9645378551455631</v>
       </c>
       <c r="F8">
         <v>0.9651285416122342</v>
@@ -667,16 +667,16 @@
         <v>1.03831837371387</v>
       </c>
       <c r="J8">
-        <v>0.9748199126905528</v>
+        <v>0.974819912690553</v>
       </c>
       <c r="K8">
-        <v>0.9749499342893375</v>
+        <v>0.9749499342893376</v>
       </c>
       <c r="L8">
-        <v>0.9762206196218393</v>
+        <v>0.9762206196218396</v>
       </c>
       <c r="M8">
-        <v>0.9768025466857232</v>
+        <v>0.9768025466857233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9256702191901145</v>
+        <v>0.9256702191901146</v>
       </c>
       <c r="D9">
-        <v>0.9407073591309958</v>
+        <v>0.9407073591309959</v>
       </c>
       <c r="E9">
-        <v>0.9429747698886581</v>
+        <v>0.9429747698886584</v>
       </c>
       <c r="F9">
-        <v>0.9376427557918504</v>
+        <v>0.9376427557918499</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031828106762878</v>
+        <v>1.031828106762877</v>
       </c>
       <c r="J9">
-        <v>0.954151386688478</v>
+        <v>0.9541513866884779</v>
       </c>
       <c r="K9">
-        <v>0.9548417155624244</v>
+        <v>0.9548417155624246</v>
       </c>
       <c r="L9">
-        <v>0.9570661596947549</v>
+        <v>0.9570661596947551</v>
       </c>
       <c r="M9">
-        <v>0.9518356176734005</v>
+        <v>0.9518356176734002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.905993737753878</v>
+        <v>0.9059937377538798</v>
       </c>
       <c r="D10">
-        <v>0.923745120265976</v>
+        <v>0.9237451202659783</v>
       </c>
       <c r="E10">
-        <v>0.9267672071859958</v>
+        <v>0.9267672071859978</v>
       </c>
       <c r="F10">
-        <v>0.9167884457562505</v>
+        <v>0.9167884457562522</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026756051299348</v>
       </c>
       <c r="J10">
-        <v>0.9385063830981858</v>
+        <v>0.9385063830981877</v>
       </c>
       <c r="K10">
-        <v>0.9396426538429874</v>
+        <v>0.9396426538429895</v>
       </c>
       <c r="L10">
-        <v>0.9425978038883747</v>
+        <v>0.9425978038883764</v>
       </c>
       <c r="M10">
-        <v>0.9328423026199356</v>
+        <v>0.9328423026199372</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8967571769895974</v>
+        <v>0.8967571769895982</v>
       </c>
       <c r="D11">
-        <v>0.9158044628840505</v>
+        <v>0.9158044628840514</v>
       </c>
       <c r="E11">
-        <v>0.9191853421943824</v>
+        <v>0.9191853421943834</v>
       </c>
       <c r="F11">
-        <v>0.9069796168843766</v>
+        <v>0.9069796168843771</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024340467556679</v>
       </c>
       <c r="J11">
-        <v>0.9311589989660067</v>
+        <v>0.9311589989660077</v>
       </c>
       <c r="K11">
-        <v>0.9325103431656316</v>
+        <v>0.9325103431656325</v>
       </c>
       <c r="L11">
-        <v>0.9358111405404246</v>
+        <v>0.9358111405404252</v>
       </c>
       <c r="M11">
-        <v>0.9238983147486787</v>
+        <v>0.9238983147486792</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8931996849243511</v>
+        <v>0.8931996849243516</v>
       </c>
       <c r="D12">
-        <v>0.9127499496448489</v>
+        <v>0.9127499496448496</v>
       </c>
       <c r="E12">
-        <v>0.9162697751557749</v>
+        <v>0.9162697751557757</v>
       </c>
       <c r="F12">
-        <v>0.903198942527848</v>
+        <v>0.9031989425278484</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.023405472901149</v>
       </c>
       <c r="J12">
-        <v>0.9283290211349118</v>
+        <v>0.9283290211349122</v>
       </c>
       <c r="K12">
-        <v>0.9297641014592137</v>
+        <v>0.9297641014592142</v>
       </c>
       <c r="L12">
-        <v>0.9331984476497355</v>
+        <v>0.933198447649736</v>
       </c>
       <c r="M12">
-        <v>0.9204495731940943</v>
+        <v>0.9204495731940947</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939688698628232</v>
+        <v>0.8939688698628228</v>
       </c>
       <c r="D13">
-        <v>0.9134101983212634</v>
+        <v>0.9134101983212628</v>
       </c>
       <c r="E13">
-        <v>0.91689994610419</v>
+        <v>0.9168999461041897</v>
       </c>
       <c r="F13">
         <v>0.9040165050768804</v>
@@ -854,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023607830704297</v>
+        <v>1.023607830704298</v>
       </c>
       <c r="J13">
-        <v>0.928940903898689</v>
+        <v>0.9289409038986886</v>
       </c>
       <c r="K13">
-        <v>0.9303578379929415</v>
+        <v>0.930357837992941</v>
       </c>
       <c r="L13">
-        <v>0.9337632894293341</v>
+        <v>0.9337632894293336</v>
       </c>
       <c r="M13">
         <v>0.9211954162195081</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8964658246746614</v>
+        <v>0.8964658246746586</v>
       </c>
       <c r="D14">
-        <v>0.9155542220616802</v>
+        <v>0.9155542220616776</v>
       </c>
       <c r="E14">
-        <v>0.9189464650920891</v>
+        <v>0.9189464650920868</v>
       </c>
       <c r="F14">
-        <v>0.9066700412852775</v>
+        <v>0.9066700412852753</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024263982596281</v>
+        <v>1.02426398259628</v>
       </c>
       <c r="J14">
-        <v>0.9309272284264368</v>
+        <v>0.9309272284264342</v>
       </c>
       <c r="K14">
-        <v>0.9322854120857518</v>
+        <v>0.9322854120857493</v>
       </c>
       <c r="L14">
-        <v>0.9355971382128779</v>
+        <v>0.9355971382128755</v>
       </c>
       <c r="M14">
-        <v>0.9236159463021488</v>
+        <v>0.9236159463021468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8979868483718437</v>
+        <v>0.8979868483718434</v>
       </c>
       <c r="D15">
-        <v>0.9168607799554181</v>
+        <v>0.9168607799554177</v>
       </c>
       <c r="E15">
-        <v>0.9201937289350532</v>
+        <v>0.9201937289350528</v>
       </c>
       <c r="F15">
-        <v>0.9082860899254386</v>
+        <v>0.9082860899254382</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024663094493994</v>
       </c>
       <c r="J15">
-        <v>0.9321371997362653</v>
+        <v>0.9321371997362649</v>
       </c>
       <c r="K15">
-        <v>0.9334597140956166</v>
+        <v>0.933459714095616</v>
       </c>
       <c r="L15">
-        <v>0.9367144031301989</v>
+        <v>0.9367144031301987</v>
       </c>
       <c r="M15">
-        <v>0.9250899122916643</v>
+        <v>0.9250899122916638</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9065901323948209</v>
+        <v>0.9065901323948203</v>
       </c>
       <c r="D16">
-        <v>0.924258328855308</v>
+        <v>0.9242583288553073</v>
       </c>
       <c r="E16">
-        <v>0.927257347112039</v>
+        <v>0.9272573471120383</v>
       </c>
       <c r="F16">
-        <v>0.9174214074344405</v>
+        <v>0.9174214074344401</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.026911362636832</v>
       </c>
       <c r="J16">
-        <v>0.9389807585862674</v>
+        <v>0.9389807585862671</v>
       </c>
       <c r="K16">
-        <v>0.9401032620967323</v>
+        <v>0.9401032620967317</v>
       </c>
       <c r="L16">
-        <v>0.9430361497811426</v>
+        <v>0.943036149781142</v>
       </c>
       <c r="M16">
-        <v>0.9334192558677759</v>
+        <v>0.9334192558677754</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9117829846717882</v>
+        <v>0.9117829846717874</v>
       </c>
       <c r="D17">
-        <v>0.928729336438631</v>
+        <v>0.92872933643863</v>
       </c>
       <c r="E17">
-        <v>0.9315280022778651</v>
+        <v>0.9315280022778643</v>
       </c>
       <c r="F17">
-        <v>0.9229305234367098</v>
+        <v>0.9229305234367084</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.028259895202288</v>
       </c>
       <c r="J17">
-        <v>0.9431108534461218</v>
+        <v>0.9431108534461207</v>
       </c>
       <c r="K17">
-        <v>0.9441141226699963</v>
+        <v>0.9441141226699954</v>
       </c>
       <c r="L17">
-        <v>0.9468534644469165</v>
+        <v>0.9468534644469156</v>
       </c>
       <c r="M17">
-        <v>0.9384397485302618</v>
+        <v>0.9384397485302608</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9147442583206116</v>
+        <v>0.9147442583206122</v>
       </c>
       <c r="D18">
-        <v>0.9312809289364157</v>
+        <v>0.9312809289364166</v>
       </c>
       <c r="E18">
-        <v>0.9339657526104095</v>
+        <v>0.9339657526104101</v>
       </c>
       <c r="F18">
-        <v>0.9260703606955155</v>
+        <v>0.9260703606955162</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029025684939177</v>
       </c>
       <c r="J18">
-        <v>0.9454657497398202</v>
+        <v>0.9454657497398211</v>
       </c>
       <c r="K18">
-        <v>0.9464015487894676</v>
+        <v>0.9464015487894682</v>
       </c>
       <c r="L18">
-        <v>0.9490307596548915</v>
+        <v>0.9490307596548919</v>
       </c>
       <c r="M18">
-        <v>0.9413001289612121</v>
+        <v>0.9413001289612126</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9157430044695408</v>
+        <v>0.9157430044695415</v>
       </c>
       <c r="D19">
-        <v>0.9321418195497829</v>
+        <v>0.9321418195497838</v>
       </c>
       <c r="E19">
-        <v>0.9347883155192223</v>
+        <v>0.9347883155192227</v>
       </c>
       <c r="F19">
-        <v>0.9271290238285569</v>
+        <v>0.9271290238285576</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029283400285492</v>
       </c>
       <c r="J19">
-        <v>0.9462599178693181</v>
+        <v>0.946259917869319</v>
       </c>
       <c r="K19">
-        <v>0.9471730492918186</v>
+        <v>0.9471730492918193</v>
       </c>
       <c r="L19">
-        <v>0.9497651565486406</v>
+        <v>0.949765156548641</v>
       </c>
       <c r="M19">
-        <v>0.942264397972765</v>
+        <v>0.9422643979727656</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112329575923092</v>
+        <v>0.9112329575923089</v>
       </c>
       <c r="D20">
-        <v>0.9282555592857298</v>
+        <v>0.9282555592857294</v>
       </c>
       <c r="E20">
-        <v>0.9310754031361542</v>
+        <v>0.9310754031361541</v>
       </c>
       <c r="F20">
-        <v>0.9223471834485654</v>
+        <v>0.9223471834485653</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028117391265377</v>
       </c>
       <c r="J20">
-        <v>0.9426734256849053</v>
+        <v>0.9426734256849052</v>
       </c>
       <c r="K20">
-        <v>0.9436892692694757</v>
+        <v>0.9436892692694755</v>
       </c>
       <c r="L20">
-        <v>0.9464490861853424</v>
+        <v>0.9464490861853422</v>
       </c>
       <c r="M20">
-        <v>0.9379082476141288</v>
+        <v>0.9379082476141286</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8957342071445475</v>
+        <v>0.8957342071445449</v>
       </c>
       <c r="D21">
-        <v>0.9149259039515795</v>
+        <v>0.9149259039515774</v>
       </c>
       <c r="E21">
-        <v>0.9183466949116731</v>
+        <v>0.9183466949116709</v>
       </c>
       <c r="F21">
-        <v>0.9058926192681007</v>
+        <v>0.9058926192680984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024071848669733</v>
+        <v>1.024071848669732</v>
       </c>
       <c r="J21">
-        <v>0.9303452269909723</v>
+        <v>0.9303452269909701</v>
       </c>
       <c r="K21">
-        <v>0.9317205998256011</v>
+        <v>0.9317205998255986</v>
       </c>
       <c r="L21">
-        <v>0.9350597760872319</v>
+        <v>0.9350597760872296</v>
       </c>
       <c r="M21">
-        <v>0.9229068263836029</v>
+        <v>0.9229068263836008</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8852433797356001</v>
+        <v>0.8852433797356007</v>
       </c>
       <c r="D22">
-        <v>0.9059265169657159</v>
+        <v>0.9059265169657164</v>
       </c>
       <c r="E22">
-        <v>0.9097586009657834</v>
+        <v>0.9097586009657843</v>
       </c>
       <c r="F22">
-        <v>0.8947385230904067</v>
+        <v>0.8947385230904077</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02130653066796</v>
+        <v>1.021306530667961</v>
       </c>
       <c r="J22">
-        <v>0.9220001179545554</v>
+        <v>0.9220001179545562</v>
       </c>
       <c r="K22">
-        <v>0.9236241971491097</v>
+        <v>0.9236241971491105</v>
       </c>
       <c r="L22">
-        <v>0.927358041575522</v>
+        <v>0.9273580415755227</v>
       </c>
       <c r="M22">
-        <v>0.9127295638923075</v>
+        <v>0.9127295638923085</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8908832750074981</v>
+        <v>0.8908832750074989</v>
       </c>
       <c r="D23">
-        <v>0.9107622217667282</v>
+        <v>0.9107622217667289</v>
       </c>
       <c r="E23">
-        <v>0.9143727443918456</v>
+        <v>0.9143727443918462</v>
       </c>
       <c r="F23">
-        <v>0.900736449022226</v>
+        <v>0.9007364490222267</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022795443821263</v>
       </c>
       <c r="J23">
-        <v>0.9264863481762386</v>
+        <v>0.9264863481762394</v>
       </c>
       <c r="K23">
-        <v>0.9279762114470496</v>
+        <v>0.9279762114470503</v>
       </c>
       <c r="L23">
-        <v>0.9314976386217484</v>
+        <v>0.9314976386217492</v>
       </c>
       <c r="M23">
-        <v>0.9182029074041937</v>
+        <v>0.9182029074041945</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.911481698767678</v>
+        <v>0.911481698767677</v>
       </c>
       <c r="D24">
-        <v>0.9284698115540739</v>
+        <v>0.9284698115540729</v>
       </c>
       <c r="E24">
-        <v>0.9312800767030467</v>
+        <v>0.9312800767030455</v>
       </c>
       <c r="F24">
-        <v>0.9226109954576601</v>
+        <v>0.9226109954576593</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028181846547955</v>
+        <v>1.028181846547954</v>
       </c>
       <c r="J24">
-        <v>0.9428712466289672</v>
+        <v>0.9428712466289662</v>
       </c>
       <c r="K24">
-        <v>0.9438814020219148</v>
+        <v>0.9438814020219137</v>
       </c>
       <c r="L24">
-        <v>0.9466319586268335</v>
+        <v>0.9466319586268322</v>
       </c>
       <c r="M24">
-        <v>0.9381486187626876</v>
+        <v>0.9381486187626868</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9327636395641478</v>
+        <v>0.9327636395641488</v>
       </c>
       <c r="D25">
-        <v>0.9468371482815237</v>
+        <v>0.9468371482815241</v>
       </c>
       <c r="E25">
-        <v>0.9488358151343902</v>
+        <v>0.9488358151343909</v>
       </c>
       <c r="F25">
-        <v>0.9451442496554442</v>
+        <v>0.9451442496554446</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03362529283207</v>
       </c>
       <c r="J25">
-        <v>0.9597868443852889</v>
+        <v>0.9597868443852896</v>
       </c>
       <c r="K25">
-        <v>0.9603209074065769</v>
+        <v>0.9603209074065775</v>
       </c>
       <c r="L25">
-        <v>0.9622839566084255</v>
+        <v>0.9622839566084261</v>
       </c>
       <c r="M25">
-        <v>0.9586583305188656</v>
+        <v>0.9586583305188662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.948129313046825</v>
+        <v>0.9481652503555312</v>
       </c>
       <c r="D2">
-        <v>0.9601412139917724</v>
+        <v>0.9601745113748924</v>
       </c>
       <c r="E2">
-        <v>0.9615640442707049</v>
+        <v>0.9615954753727098</v>
       </c>
       <c r="F2">
-        <v>0.9613568587903114</v>
+        <v>0.9613844237867346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03744473030004</v>
+        <v>1.037451827098685</v>
       </c>
       <c r="J2">
-        <v>0.9719804549838599</v>
+        <v>0.9720151464387587</v>
       </c>
       <c r="K2">
-        <v>0.9721852658295154</v>
+        <v>0.9722180488845934</v>
       </c>
       <c r="L2">
-        <v>0.9735861588993889</v>
+        <v>0.9736171063318816</v>
       </c>
       <c r="M2">
-        <v>0.9733821626501745</v>
+        <v>0.9734093032340749</v>
+      </c>
+      <c r="N2">
+        <v>0.9834393689048644</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.958533734190759</v>
+        <v>0.9585623904343954</v>
       </c>
       <c r="D3">
-        <v>0.969169064462281</v>
+        <v>0.9691956900866439</v>
       </c>
       <c r="E3">
-        <v>0.9702071200221319</v>
+        <v>0.9702322666352992</v>
       </c>
       <c r="F3">
-        <v>0.9723008610414628</v>
+        <v>0.9723227363594323</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039961578304285</v>
+        <v>1.039967225109588</v>
       </c>
       <c r="J3">
-        <v>0.9802223900432535</v>
+        <v>0.9802501689835262</v>
       </c>
       <c r="K3">
-        <v>0.9802122476813615</v>
+        <v>0.9802385047710435</v>
       </c>
       <c r="L3">
-        <v>0.9812359540299177</v>
+        <v>0.9812607535175412</v>
       </c>
       <c r="M3">
-        <v>0.9833008703778607</v>
+        <v>0.9833224453624303</v>
+      </c>
+      <c r="N3">
+        <v>0.9890312129268727</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9649643143891685</v>
+        <v>0.9649886141401582</v>
       </c>
       <c r="D4">
-        <v>0.9747564297619025</v>
+        <v>0.9747790501403243</v>
       </c>
       <c r="E4">
-        <v>0.9755588595463226</v>
+        <v>0.9755802342964536</v>
       </c>
       <c r="F4">
-        <v>0.9790488673748499</v>
+        <v>0.9790673650838828</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041483518389176</v>
+        <v>1.041488301256104</v>
       </c>
       <c r="J4">
-        <v>0.9853087762280502</v>
+        <v>0.9853323911189478</v>
       </c>
       <c r="K4">
-        <v>0.985169382917901</v>
+        <v>0.9851917123362014</v>
       </c>
       <c r="L4">
-        <v>0.985961501568938</v>
+        <v>0.9859826019458762</v>
       </c>
       <c r="M4">
-        <v>0.989406908774482</v>
+        <v>0.9894251711497211</v>
+      </c>
+      <c r="N4">
+        <v>0.9924812735736183</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9676013521666597</v>
+        <v>0.967623894883525</v>
       </c>
       <c r="D5">
-        <v>0.9770493318776559</v>
+        <v>0.9770703341240374</v>
       </c>
       <c r="E5">
-        <v>0.9777556390356101</v>
+        <v>0.9777754901564674</v>
       </c>
       <c r="F5">
-        <v>0.9818121555024892</v>
+        <v>0.9818292965408491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042099338449111</v>
+        <v>1.042103773597168</v>
       </c>
       <c r="J5">
-        <v>0.9873926376485184</v>
+        <v>0.9874145671336768</v>
       </c>
       <c r="K5">
-        <v>0.9872010962814907</v>
+        <v>0.9872218367489989</v>
       </c>
       <c r="L5">
-        <v>0.9878986074830396</v>
+        <v>0.9879182116178059</v>
       </c>
       <c r="M5">
-        <v>0.9919049113257932</v>
+        <v>0.9919218412833634</v>
+      </c>
+      <c r="N5">
+        <v>0.9938945179527765</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9680403860960223</v>
+        <v>0.9680626378934523</v>
       </c>
       <c r="D6">
-        <v>0.9774311638367723</v>
+        <v>0.9774518980111445</v>
       </c>
       <c r="E6">
-        <v>0.9781214967236475</v>
+        <v>0.9781410954412273</v>
       </c>
       <c r="F6">
-        <v>0.982271976021351</v>
+        <v>0.9822888927357155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042201370347661</v>
+        <v>1.04220574796064</v>
       </c>
       <c r="J6">
-        <v>0.9877394564602036</v>
+        <v>0.9877611065529561</v>
       </c>
       <c r="K6">
-        <v>0.9875392831606036</v>
+        <v>0.9875597602694308</v>
       </c>
       <c r="L6">
-        <v>0.9882210644871768</v>
+        <v>0.9882404206432812</v>
       </c>
       <c r="M6">
-        <v>0.9923204444803378</v>
+        <v>0.992337154020676</v>
+      </c>
+      <c r="N6">
+        <v>0.9941297117163934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9649998042642234</v>
+        <v>0.9650240802576376</v>
       </c>
       <c r="D7">
-        <v>0.9747872818500162</v>
+        <v>0.9748098803595072</v>
       </c>
       <c r="E7">
-        <v>0.9755884160276214</v>
+        <v>0.9756097701851594</v>
       </c>
       <c r="F7">
-        <v>0.979086072001361</v>
+        <v>0.9791045513451013</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041491839458905</v>
+        <v>1.041496617621505</v>
       </c>
       <c r="J7">
-        <v>0.9853368292257692</v>
+        <v>0.9853604213505945</v>
       </c>
       <c r="K7">
-        <v>0.9851967307120754</v>
+        <v>0.9852190386641617</v>
       </c>
       <c r="L7">
-        <v>0.9859875746873014</v>
+        <v>0.9860086548495263</v>
       </c>
       <c r="M7">
-        <v>0.9894405512360388</v>
+        <v>0.989458795581446</v>
+      </c>
+      <c r="N7">
+        <v>0.9925002996203911</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9517118163351593</v>
+        <v>0.951745212518482</v>
       </c>
       <c r="D8">
-        <v>0.9632479947413768</v>
+        <v>0.963278966854722</v>
       </c>
       <c r="E8">
-        <v>0.9645378551455631</v>
+        <v>0.9645670957573986</v>
       </c>
       <c r="F8">
-        <v>0.9651285416122342</v>
+        <v>0.9651541144835645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03831837371387</v>
+        <v>1.038324963561978</v>
       </c>
       <c r="J8">
-        <v>0.974819912690553</v>
+        <v>0.9748521982789266</v>
       </c>
       <c r="K8">
-        <v>0.9749499342893376</v>
+        <v>0.9749804452059238</v>
       </c>
       <c r="L8">
-        <v>0.9762206196218396</v>
+        <v>0.9762494262982224</v>
       </c>
       <c r="M8">
-        <v>0.9768025466857233</v>
+        <v>0.9768277406397797</v>
+      </c>
+      <c r="N8">
+        <v>0.9853660068273895</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9256702191901146</v>
+        <v>0.9257230113294799</v>
       </c>
       <c r="D9">
-        <v>0.9407073591309959</v>
+        <v>0.9407559908160866</v>
       </c>
       <c r="E9">
-        <v>0.9429747698886584</v>
+        <v>0.9430206505584219</v>
       </c>
       <c r="F9">
-        <v>0.9376427557918499</v>
+        <v>0.9376837097985546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031828106762877</v>
+        <v>1.031838591590866</v>
       </c>
       <c r="J9">
-        <v>0.9541513866884779</v>
+        <v>0.9542018594337516</v>
       </c>
       <c r="K9">
-        <v>0.9548417155624246</v>
+        <v>0.9548894228520366</v>
       </c>
       <c r="L9">
-        <v>0.9570661596947551</v>
+        <v>0.9571111737292567</v>
       </c>
       <c r="M9">
-        <v>0.9518356176734002</v>
+        <v>0.9518757865388423</v>
+      </c>
+      <c r="N9">
+        <v>0.9713389806033669</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9059937377538798</v>
+        <v>0.9060628595079773</v>
       </c>
       <c r="D10">
-        <v>0.9237451202659783</v>
+        <v>0.9238084598231393</v>
       </c>
       <c r="E10">
-        <v>0.9267672071859978</v>
+        <v>0.9268269516435983</v>
       </c>
       <c r="F10">
-        <v>0.9167884457562522</v>
+        <v>0.9168426614891506</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026756051299348</v>
+        <v>1.026769861228558</v>
       </c>
       <c r="J10">
-        <v>0.9385063830981877</v>
+        <v>0.9385718646462943</v>
       </c>
       <c r="K10">
-        <v>0.9396426538429895</v>
+        <v>0.9397045844961318</v>
       </c>
       <c r="L10">
-        <v>0.9425978038883764</v>
+        <v>0.9426562309047356</v>
       </c>
       <c r="M10">
-        <v>0.9328423026199372</v>
+        <v>0.93289528783288</v>
+      </c>
+      <c r="N10">
+        <v>0.9607187146758523</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8967571769895982</v>
+        <v>0.8968345775449938</v>
       </c>
       <c r="D11">
-        <v>0.9158044628840514</v>
+        <v>0.9158752036990513</v>
       </c>
       <c r="E11">
-        <v>0.9191853421943834</v>
+        <v>0.9192520640675705</v>
       </c>
       <c r="F11">
-        <v>0.9069796168843771</v>
+        <v>0.9070406625736609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024340467556679</v>
+        <v>1.02435597864506</v>
       </c>
       <c r="J11">
-        <v>0.9311589989660077</v>
+        <v>0.9312319901558448</v>
       </c>
       <c r="K11">
-        <v>0.9325103431656325</v>
+        <v>0.9325794002386077</v>
       </c>
       <c r="L11">
-        <v>0.9358111405404252</v>
+        <v>0.9358762899334521</v>
       </c>
       <c r="M11">
-        <v>0.9238983147486792</v>
+        <v>0.923957869137601</v>
+      </c>
+      <c r="N11">
+        <v>0.9557310412493639</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8931996849243516</v>
+        <v>0.8932803929104564</v>
       </c>
       <c r="D12">
-        <v>0.9127499496448496</v>
+        <v>0.912823637073737</v>
       </c>
       <c r="E12">
-        <v>0.9162697751557757</v>
+        <v>0.9163392749962926</v>
       </c>
       <c r="F12">
-        <v>0.9031989425278484</v>
+        <v>0.9032627363590926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023405472901149</v>
+        <v>1.023421666364818</v>
       </c>
       <c r="J12">
-        <v>0.9283290211349122</v>
+        <v>0.9284049945895233</v>
       </c>
       <c r="K12">
-        <v>0.9297641014592142</v>
+        <v>0.9298359902927225</v>
       </c>
       <c r="L12">
-        <v>0.933198447649736</v>
+        <v>0.9332662685623995</v>
       </c>
       <c r="M12">
-        <v>0.9204495731940947</v>
+        <v>0.9205117651257333</v>
+      </c>
+      <c r="N12">
+        <v>0.9538099993702396</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8939688698628228</v>
+        <v>0.8940488568523436</v>
       </c>
       <c r="D13">
-        <v>0.9134101983212628</v>
+        <v>0.9134832439026719</v>
       </c>
       <c r="E13">
-        <v>0.9168999461041897</v>
+        <v>0.9169688408293769</v>
       </c>
       <c r="F13">
-        <v>0.9040165050768804</v>
+        <v>0.9040796988930395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023607830704298</v>
+        <v>1.023623875284199</v>
       </c>
       <c r="J13">
-        <v>0.9289409038986886</v>
+        <v>0.929016228094342</v>
       </c>
       <c r="K13">
-        <v>0.930357837992941</v>
+        <v>0.9304291102540772</v>
       </c>
       <c r="L13">
-        <v>0.9337632894293336</v>
+        <v>0.9338305286455774</v>
       </c>
       <c r="M13">
-        <v>0.9211954162195081</v>
+        <v>0.9212570325547544</v>
+      </c>
+      <c r="N13">
+        <v>0.9542253534234795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8964658246746586</v>
+        <v>0.8965434935211157</v>
       </c>
       <c r="D14">
-        <v>0.9155542220616776</v>
+        <v>0.9156252021153698</v>
       </c>
       <c r="E14">
-        <v>0.9189464650920868</v>
+        <v>0.9190134125097904</v>
       </c>
       <c r="F14">
-        <v>0.9066700412852753</v>
+        <v>0.9067313094855614</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02426398259628</v>
+        <v>1.024279548979873</v>
       </c>
       <c r="J14">
-        <v>0.9309272284264342</v>
+        <v>0.9310004619054703</v>
       </c>
       <c r="K14">
-        <v>0.9322854120857493</v>
+        <v>0.9323546991855368</v>
       </c>
       <c r="L14">
-        <v>0.9355971382128755</v>
+        <v>0.9356625046099415</v>
       </c>
       <c r="M14">
-        <v>0.9236159463021468</v>
+        <v>0.9236757143658778</v>
+      </c>
+      <c r="N14">
+        <v>0.9555737096520415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8979868483718434</v>
+        <v>0.898063121562545</v>
       </c>
       <c r="D15">
-        <v>0.9168607799554177</v>
+        <v>0.9169305150655336</v>
       </c>
       <c r="E15">
-        <v>0.9201937289350528</v>
+        <v>0.9202595026740251</v>
       </c>
       <c r="F15">
-        <v>0.9082860899254382</v>
+        <v>0.9083462014174516</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024663094493994</v>
+        <v>1.024678373342753</v>
       </c>
       <c r="J15">
-        <v>0.9321371997362649</v>
+        <v>0.9322091720927685</v>
       </c>
       <c r="K15">
-        <v>0.933459714095616</v>
+        <v>0.9335278039673157</v>
       </c>
       <c r="L15">
-        <v>0.9367144031301987</v>
+        <v>0.9367786400916358</v>
       </c>
       <c r="M15">
-        <v>0.9250899122916638</v>
+        <v>0.9251485693508046</v>
+      </c>
+      <c r="N15">
+        <v>0.9563950706619357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9065901323948203</v>
+        <v>0.9066587340932666</v>
       </c>
       <c r="D16">
-        <v>0.9242583288553073</v>
+        <v>0.9243212022492471</v>
       </c>
       <c r="E16">
-        <v>0.9272573471120383</v>
+        <v>0.9273166521168875</v>
       </c>
       <c r="F16">
-        <v>0.9174214074344401</v>
+        <v>0.9174751964860299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026911362636832</v>
+        <v>1.026925066039913</v>
       </c>
       <c r="J16">
-        <v>0.9389807585862671</v>
+        <v>0.9390457662157869</v>
       </c>
       <c r="K16">
-        <v>0.9401032620967317</v>
+        <v>0.9401647432255228</v>
       </c>
       <c r="L16">
-        <v>0.943036149781142</v>
+        <v>0.9430941527998921</v>
       </c>
       <c r="M16">
-        <v>0.9334192558677754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9334718300059631</v>
+      </c>
+      <c r="N16">
+        <v>0.9610407414978682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9117829846717874</v>
+        <v>0.9118471281660478</v>
       </c>
       <c r="D17">
-        <v>0.92872933643863</v>
+        <v>0.9287882075950632</v>
       </c>
       <c r="E17">
-        <v>0.9315280022778643</v>
+        <v>0.9315835344619824</v>
       </c>
       <c r="F17">
-        <v>0.9229305234367084</v>
+        <v>0.9229806663313107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028259895202288</v>
+        <v>1.028272687078449</v>
       </c>
       <c r="J17">
-        <v>0.9431108534461207</v>
+        <v>0.9431717875798037</v>
       </c>
       <c r="K17">
-        <v>0.9441141226699954</v>
+        <v>0.9441717410424949</v>
       </c>
       <c r="L17">
-        <v>0.9468534644469156</v>
+        <v>0.9469078242735884</v>
       </c>
       <c r="M17">
-        <v>0.9384397485302608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.938488806494976</v>
+      </c>
+      <c r="N17">
+        <v>0.9638444289790727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9147442583206122</v>
+        <v>0.9148059137625375</v>
       </c>
       <c r="D18">
-        <v>0.9312809289364166</v>
+        <v>0.9313375617959488</v>
       </c>
       <c r="E18">
-        <v>0.9339657526104101</v>
+        <v>0.9340191748853104</v>
       </c>
       <c r="F18">
-        <v>0.9260703606955162</v>
+        <v>0.9261184778083553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029025684939177</v>
+        <v>1.029037969425813</v>
       </c>
       <c r="J18">
-        <v>0.9454657497398211</v>
+        <v>0.9455244020085786</v>
       </c>
       <c r="K18">
-        <v>0.9464015487894682</v>
+        <v>0.9464570041955382</v>
       </c>
       <c r="L18">
-        <v>0.9490307596548919</v>
+        <v>0.9490830796355937</v>
       </c>
       <c r="M18">
-        <v>0.9413001289612126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9413472307046215</v>
+      </c>
+      <c r="N18">
+        <v>0.9654430244563482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9157430044695415</v>
+        <v>0.9158038293430512</v>
       </c>
       <c r="D19">
-        <v>0.9321418195497838</v>
+        <v>0.9321977044608944</v>
       </c>
       <c r="E19">
-        <v>0.9347883155192227</v>
+        <v>0.9348410327628005</v>
       </c>
       <c r="F19">
-        <v>0.9271290238285576</v>
+        <v>0.9271764661459159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029283400285492</v>
+        <v>1.029295515606729</v>
       </c>
       <c r="J19">
-        <v>0.946259917869319</v>
+        <v>0.9463178070259525</v>
       </c>
       <c r="K19">
-        <v>0.9471730492918193</v>
+        <v>0.9472277814868839</v>
       </c>
       <c r="L19">
-        <v>0.949765156548641</v>
+        <v>0.9498167945142658</v>
       </c>
       <c r="M19">
-        <v>0.9422643979727656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9423108476630822</v>
+      </c>
+      <c r="N19">
+        <v>0.9659821335104652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112329575923089</v>
+        <v>0.9112975674795114</v>
       </c>
       <c r="D20">
-        <v>0.9282555592857294</v>
+        <v>0.9283148496412967</v>
       </c>
       <c r="E20">
-        <v>0.9310754031361541</v>
+        <v>0.9311313304814494</v>
       </c>
       <c r="F20">
-        <v>0.9223471834485653</v>
+        <v>0.9223977068082606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028117391265377</v>
+        <v>1.028130278359045</v>
       </c>
       <c r="J20">
-        <v>0.9426734256849052</v>
+        <v>0.942734786878224</v>
       </c>
       <c r="K20">
-        <v>0.9436892692694755</v>
+        <v>0.9437472925176172</v>
       </c>
       <c r="L20">
-        <v>0.9464490861853422</v>
+        <v>0.9465038278555683</v>
       </c>
       <c r="M20">
-        <v>0.9379082476141286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9379576727661426</v>
+      </c>
+      <c r="N20">
+        <v>0.9635474847423452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8957342071445449</v>
+        <v>0.8958125517084735</v>
       </c>
       <c r="D21">
-        <v>0.9149259039515774</v>
+        <v>0.9149974863819714</v>
       </c>
       <c r="E21">
-        <v>0.9183466949116709</v>
+        <v>0.9184142102269784</v>
       </c>
       <c r="F21">
-        <v>0.9058926192680984</v>
+        <v>0.9059544482073157</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024071848669732</v>
+        <v>1.024087554364973</v>
       </c>
       <c r="J21">
-        <v>0.9303452269909701</v>
+        <v>0.930419070404754</v>
       </c>
       <c r="K21">
-        <v>0.9317205998255986</v>
+        <v>0.9317904660185159</v>
       </c>
       <c r="L21">
-        <v>0.9350597760872296</v>
+        <v>0.9351256887975146</v>
       </c>
       <c r="M21">
-        <v>0.9229068263836008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9229671328252913</v>
+      </c>
+      <c r="N21">
+        <v>0.9551786336688854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8852433797356007</v>
+        <v>0.8853317452522655</v>
       </c>
       <c r="D22">
-        <v>0.9059265169657164</v>
+        <v>0.9060070044922559</v>
       </c>
       <c r="E22">
-        <v>0.9097586009657843</v>
+        <v>0.9098345118187667</v>
       </c>
       <c r="F22">
-        <v>0.8947385230904077</v>
+        <v>0.894808721447983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021306530667961</v>
+        <v>1.021324309773099</v>
       </c>
       <c r="J22">
-        <v>0.9220001179545562</v>
+        <v>0.9220829582377524</v>
       </c>
       <c r="K22">
-        <v>0.9236241971491105</v>
+        <v>0.9237026097274089</v>
       </c>
       <c r="L22">
-        <v>0.9273580415755227</v>
+        <v>0.9274320176703184</v>
       </c>
       <c r="M22">
-        <v>0.9127295638923085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9127978905027021</v>
+      </c>
+      <c r="N22">
+        <v>0.9495139979851978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8908832750074989</v>
+        <v>0.8909661743574429</v>
       </c>
       <c r="D23">
-        <v>0.9107622217667289</v>
+        <v>0.9108378583164356</v>
       </c>
       <c r="E23">
-        <v>0.9143727443918462</v>
+        <v>0.9144440818168511</v>
       </c>
       <c r="F23">
-        <v>0.9007364490222267</v>
+        <v>0.9008020697068115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022795443821263</v>
+        <v>1.02281209023721</v>
       </c>
       <c r="J23">
-        <v>0.9264863481762394</v>
+        <v>0.9265642920656438</v>
       </c>
       <c r="K23">
-        <v>0.9279762114470503</v>
+        <v>0.9280499717809502</v>
       </c>
       <c r="L23">
-        <v>0.9314976386217492</v>
+        <v>0.9315672252210851</v>
       </c>
       <c r="M23">
-        <v>0.9182029074041945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9182668509212336</v>
+      </c>
+      <c r="N23">
+        <v>0.9525591817681585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.911481698767677</v>
+        <v>0.911546097568424</v>
       </c>
       <c r="D24">
-        <v>0.9284698115540729</v>
+        <v>0.9285289121975036</v>
       </c>
       <c r="E24">
-        <v>0.9312800767030455</v>
+        <v>0.9313358252145202</v>
       </c>
       <c r="F24">
-        <v>0.9226109954576593</v>
+        <v>0.9226613465929489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028181846547954</v>
+        <v>1.028194690542667</v>
       </c>
       <c r="J24">
-        <v>0.9428712466289662</v>
+        <v>0.9429324145644269</v>
       </c>
       <c r="K24">
-        <v>0.9438814020219137</v>
+        <v>0.9439392420484999</v>
       </c>
       <c r="L24">
-        <v>0.9466319586268322</v>
+        <v>0.9466865274978471</v>
       </c>
       <c r="M24">
-        <v>0.9381486187626868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9381978777090459</v>
+      </c>
+      <c r="N24">
+        <v>0.9636817738987915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9327636395641488</v>
+        <v>0.9328109234652903</v>
       </c>
       <c r="D25">
-        <v>0.9468371482815241</v>
+        <v>0.9468807857503123</v>
       </c>
       <c r="E25">
-        <v>0.9488358151343909</v>
+        <v>0.9488769890658785</v>
       </c>
       <c r="F25">
-        <v>0.9451442496554446</v>
+        <v>0.9451807944281663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03362529283207</v>
+        <v>1.033634665489853</v>
       </c>
       <c r="J25">
-        <v>0.9597868443852896</v>
+        <v>0.9598321929882874</v>
       </c>
       <c r="K25">
-        <v>0.9603209074065775</v>
+        <v>0.9603637651400144</v>
       </c>
       <c r="L25">
-        <v>0.9622839566084261</v>
+        <v>0.962324398838411</v>
       </c>
       <c r="M25">
-        <v>0.9586583305188662</v>
+        <v>0.9586942192428989</v>
+      </c>
+      <c r="N25">
+        <v>0.9751641352549563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9481652503555312</v>
+        <v>0.9686131377130297</v>
       </c>
       <c r="D2">
-        <v>0.9601745113748924</v>
+        <v>0.9773316003285611</v>
       </c>
       <c r="E2">
-        <v>0.9615954753727098</v>
+        <v>0.9865399752337564</v>
       </c>
       <c r="F2">
-        <v>0.9613844237867346</v>
+        <v>0.9924554111211698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037451827098685</v>
+        <v>1.042872127307075</v>
       </c>
       <c r="J2">
-        <v>0.9720151464387587</v>
+        <v>0.9917749397809638</v>
       </c>
       <c r="K2">
-        <v>0.9722180488845934</v>
+        <v>0.9891160439387719</v>
       </c>
       <c r="L2">
-        <v>0.9736171063318816</v>
+        <v>0.9981900701793133</v>
       </c>
       <c r="M2">
-        <v>0.9734093032340749</v>
+        <v>1.004020864456234</v>
       </c>
       <c r="N2">
-        <v>0.9834393689048644</v>
+        <v>0.9931833739536282</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9585623904343954</v>
+        <v>0.9819184250396553</v>
       </c>
       <c r="D3">
-        <v>0.9691956900866439</v>
+        <v>0.9898640469471316</v>
       </c>
       <c r="E3">
-        <v>0.9702322666352992</v>
+        <v>0.9980527263500576</v>
       </c>
       <c r="F3">
-        <v>0.9723227363594323</v>
+        <v>1.004541163836312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039967225109588</v>
+        <v>1.045858920148184</v>
       </c>
       <c r="J3">
-        <v>0.9802501689835262</v>
+        <v>1.002914450046217</v>
       </c>
       <c r="K3">
-        <v>0.9802385047710435</v>
+        <v>1.000628283315111</v>
       </c>
       <c r="L3">
-        <v>0.9812607535175412</v>
+        <v>1.008710583690366</v>
       </c>
       <c r="M3">
-        <v>0.9833224453624303</v>
+        <v>1.015116267511281</v>
       </c>
       <c r="N3">
-        <v>0.9890312129268727</v>
+        <v>1.004338703601178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9649886141401582</v>
+        <v>0.99007758128379</v>
       </c>
       <c r="D4">
-        <v>0.9747790501403243</v>
+        <v>0.9975562908982429</v>
       </c>
       <c r="E4">
-        <v>0.9755802342964536</v>
+        <v>1.005121031244314</v>
       </c>
       <c r="F4">
-        <v>0.9790673650838828</v>
+        <v>1.011956881800838</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041488301256104</v>
+        <v>1.04766038727938</v>
       </c>
       <c r="J4">
-        <v>0.9853323911189478</v>
+        <v>1.009738554844009</v>
       </c>
       <c r="K4">
-        <v>0.9851917123362014</v>
+        <v>1.007684299089671</v>
       </c>
       <c r="L4">
-        <v>0.9859826019458762</v>
+        <v>1.015158040373654</v>
       </c>
       <c r="M4">
-        <v>0.9894251711497211</v>
+        <v>1.021913108327963</v>
       </c>
       <c r="N4">
-        <v>0.9924812735736183</v>
+        <v>1.011172499410518</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.967623894883525</v>
+        <v>0.9934104322926754</v>
       </c>
       <c r="D5">
-        <v>0.9770703341240374</v>
+        <v>1.000699898282182</v>
       </c>
       <c r="E5">
-        <v>0.9777754901564674</v>
+        <v>1.008010012954267</v>
       </c>
       <c r="F5">
-        <v>0.9818292965408491</v>
+        <v>1.014986770404556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042103773597168</v>
+        <v>1.048388721460681</v>
       </c>
       <c r="J5">
-        <v>0.9874145671336768</v>
+        <v>1.012524223994084</v>
       </c>
       <c r="K5">
-        <v>0.9872218367489989</v>
+        <v>1.010565495142228</v>
       </c>
       <c r="L5">
-        <v>0.9879182116178059</v>
+        <v>1.017790516236508</v>
       </c>
       <c r="M5">
-        <v>0.9919218412833634</v>
+        <v>1.024687470304932</v>
       </c>
       <c r="N5">
-        <v>0.9938945179527765</v>
+        <v>1.013962124530307</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9680626378934523</v>
+        <v>0.9939646040908801</v>
       </c>
       <c r="D6">
-        <v>0.9774518980111445</v>
+        <v>1.001222685326051</v>
       </c>
       <c r="E6">
-        <v>0.9781410954412273</v>
+        <v>1.00849047385497</v>
       </c>
       <c r="F6">
-        <v>0.9822888927357155</v>
+        <v>1.01549060014541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04220574796064</v>
+        <v>1.048509374128557</v>
       </c>
       <c r="J6">
-        <v>0.9877611065529561</v>
+        <v>1.012987299819922</v>
       </c>
       <c r="K6">
-        <v>0.9875597602694308</v>
+        <v>1.011044501462028</v>
       </c>
       <c r="L6">
-        <v>0.9882404206432812</v>
+        <v>1.01822815742913</v>
       </c>
       <c r="M6">
-        <v>0.992337154020676</v>
+        <v>1.025148652844402</v>
       </c>
       <c r="N6">
-        <v>0.9941297117163934</v>
+        <v>1.014425857976933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9650240802576376</v>
+        <v>0.9901224845081871</v>
       </c>
       <c r="D7">
-        <v>0.9748098803595072</v>
+        <v>0.9975986388184888</v>
       </c>
       <c r="E7">
-        <v>0.9756097701851594</v>
+        <v>1.005159947762137</v>
       </c>
       <c r="F7">
-        <v>0.9791045513451013</v>
+        <v>1.011997700803711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041496617621505</v>
+        <v>1.047670230380588</v>
       </c>
       <c r="J7">
-        <v>0.9853604213505945</v>
+        <v>1.009776093463804</v>
       </c>
       <c r="K7">
-        <v>0.9852190386641617</v>
+        <v>1.007723121578264</v>
       </c>
       <c r="L7">
-        <v>0.9860086548495263</v>
+        <v>1.015193512463859</v>
       </c>
       <c r="M7">
-        <v>0.989458795581446</v>
+        <v>1.021950495430001</v>
       </c>
       <c r="N7">
-        <v>0.9925002996203911</v>
+        <v>1.011210091339459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.951745212518482</v>
+        <v>0.9732098756410624</v>
       </c>
       <c r="D8">
-        <v>0.963278966854722</v>
+        <v>0.9816596938137379</v>
       </c>
       <c r="E8">
-        <v>0.9645670957573986</v>
+        <v>0.990515430493454</v>
       </c>
       <c r="F8">
-        <v>0.9651541144835645</v>
+        <v>0.9966296435042019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038324963561978</v>
+        <v>1.043910267926468</v>
       </c>
       <c r="J8">
-        <v>0.9748521982789266</v>
+        <v>0.9956248100648208</v>
       </c>
       <c r="K8">
-        <v>0.9749804452059238</v>
+        <v>0.99309396396709</v>
       </c>
       <c r="L8">
-        <v>0.9762494262982224</v>
+        <v>1.001825427731534</v>
       </c>
       <c r="M8">
-        <v>0.9768277406397797</v>
+        <v>1.007855462790867</v>
       </c>
       <c r="N8">
-        <v>0.9853660068273895</v>
+        <v>0.9970387114948746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9257230113294799</v>
+        <v>0.9393662162669489</v>
       </c>
       <c r="D9">
-        <v>0.9407559908160866</v>
+        <v>0.9498370643835925</v>
       </c>
       <c r="E9">
-        <v>0.9430206505584219</v>
+        <v>0.9613001183925343</v>
       </c>
       <c r="F9">
-        <v>0.9376837097985546</v>
+        <v>0.9659356321938457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031838591590866</v>
+        <v>1.036145611895555</v>
       </c>
       <c r="J9">
-        <v>0.9542018594337516</v>
+        <v>0.9672580847520296</v>
       </c>
       <c r="K9">
-        <v>0.9548894228520366</v>
+        <v>0.9638000459713352</v>
       </c>
       <c r="L9">
-        <v>0.9571111737292567</v>
+        <v>0.9750539145069499</v>
       </c>
       <c r="M9">
-        <v>0.9518757865388423</v>
+        <v>0.9796066655625965</v>
       </c>
       <c r="N9">
-        <v>0.9713389806033669</v>
+        <v>0.9686317021784305</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9060628595079773</v>
+        <v>0.9129791336818104</v>
       </c>
       <c r="D10">
-        <v>0.9238084598231393</v>
+        <v>0.9251007050595412</v>
       </c>
       <c r="E10">
-        <v>0.9268269516435983</v>
+        <v>0.9386188301938818</v>
       </c>
       <c r="F10">
-        <v>0.9168426614891506</v>
+        <v>0.9420859583842617</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026769861228558</v>
+        <v>1.029954956549503</v>
       </c>
       <c r="J10">
-        <v>0.9385718646462943</v>
+        <v>0.9451279406387882</v>
       </c>
       <c r="K10">
-        <v>0.9397045844961318</v>
+        <v>0.9409681415095609</v>
       </c>
       <c r="L10">
-        <v>0.9426562309047356</v>
+        <v>0.9541924327893938</v>
       </c>
       <c r="M10">
-        <v>0.93289528783288</v>
+        <v>0.9575859964560512</v>
       </c>
       <c r="N10">
-        <v>0.9607187146758523</v>
+        <v>0.9464701307221854</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8968345775449938</v>
+        <v>0.9002719640916852</v>
       </c>
       <c r="D11">
-        <v>0.9158752036990513</v>
+        <v>0.9132144594212193</v>
       </c>
       <c r="E11">
-        <v>0.9192520640675705</v>
+        <v>0.9277309714452182</v>
       </c>
       <c r="F11">
-        <v>0.9070406625736609</v>
+        <v>0.9306338280245594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02435597864506</v>
+        <v>1.026951071467344</v>
       </c>
       <c r="J11">
-        <v>0.9312319901558448</v>
+        <v>0.9344746719519065</v>
       </c>
       <c r="K11">
-        <v>0.9325794002386077</v>
+        <v>0.9299822270085925</v>
       </c>
       <c r="L11">
-        <v>0.9358762899334521</v>
+        <v>0.9441578282171623</v>
       </c>
       <c r="M11">
-        <v>0.923957869137601</v>
+        <v>0.9469942161885696</v>
       </c>
       <c r="N11">
-        <v>0.9557310412493639</v>
+        <v>0.935801733171821</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8932803929104564</v>
+        <v>0.8953123312387022</v>
       </c>
       <c r="D12">
-        <v>0.912823637073737</v>
+        <v>0.9085801190932588</v>
       </c>
       <c r="E12">
-        <v>0.9163392749962926</v>
+        <v>0.9234880297744555</v>
       </c>
       <c r="F12">
-        <v>0.9032627363590926</v>
+        <v>0.9261706710887743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023421666364818</v>
+        <v>1.025776437711007</v>
       </c>
       <c r="J12">
-        <v>0.9284049945895233</v>
+        <v>0.9303181464474172</v>
       </c>
       <c r="K12">
-        <v>0.9298359902927225</v>
+        <v>0.9256966904304341</v>
       </c>
       <c r="L12">
-        <v>0.9332662685623995</v>
+        <v>0.9402441379275347</v>
       </c>
       <c r="M12">
-        <v>0.9205117651257333</v>
+        <v>0.942863564361211</v>
       </c>
       <c r="N12">
-        <v>0.9538099993702396</v>
+        <v>0.9316393049243551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8940488568523436</v>
+        <v>0.8963879904659942</v>
       </c>
       <c r="D13">
-        <v>0.9134832439026719</v>
+        <v>0.9095849893524567</v>
       </c>
       <c r="E13">
-        <v>0.9169688408293769</v>
+        <v>0.9244079267272294</v>
       </c>
       <c r="F13">
-        <v>0.9040796988930395</v>
+        <v>0.9271383227080797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023623875284199</v>
+        <v>1.026031271698556</v>
       </c>
       <c r="J13">
-        <v>0.929016228094342</v>
+        <v>0.9312195421204176</v>
       </c>
       <c r="K13">
-        <v>0.9304291102540772</v>
+        <v>0.9266260290659865</v>
       </c>
       <c r="L13">
-        <v>0.9338305286455774</v>
+        <v>0.9410928012312135</v>
       </c>
       <c r="M13">
-        <v>0.9212570325547544</v>
+        <v>0.9437592533264989</v>
       </c>
       <c r="N13">
-        <v>0.9542253534234795</v>
+        <v>0.932541980682603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8965434935211157</v>
+        <v>0.8998672252444881</v>
       </c>
       <c r="D14">
-        <v>0.9156252021153698</v>
+        <v>0.912836161846278</v>
       </c>
       <c r="E14">
-        <v>0.9190134125097904</v>
+        <v>0.9273845771020467</v>
       </c>
       <c r="F14">
-        <v>0.9067313094855614</v>
+        <v>0.9302694603831072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024279548979873</v>
+        <v>1.026855249808369</v>
       </c>
       <c r="J14">
-        <v>0.9310004619054703</v>
+        <v>0.9341354364283881</v>
       </c>
       <c r="K14">
-        <v>0.9323546991855368</v>
+        <v>0.9296324466935594</v>
       </c>
       <c r="L14">
-        <v>0.9356625046099415</v>
+        <v>0.9438383807452387</v>
       </c>
       <c r="M14">
-        <v>0.9236757143658778</v>
+        <v>0.9466570506725103</v>
       </c>
       <c r="N14">
-        <v>0.9555737096520415</v>
+        <v>0.9354620158949484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.898063121562545</v>
+        <v>0.9019774293748768</v>
       </c>
       <c r="D15">
-        <v>0.9169305150655336</v>
+        <v>0.9148087104811309</v>
       </c>
       <c r="E15">
-        <v>0.9202595026740251</v>
+        <v>0.9291908625254389</v>
       </c>
       <c r="F15">
-        <v>0.9083462014174516</v>
+        <v>0.9321694565978677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024678373342753</v>
+        <v>1.027354758535348</v>
       </c>
       <c r="J15">
-        <v>0.9322091720927685</v>
+        <v>0.9359041878588462</v>
       </c>
       <c r="K15">
-        <v>0.9335278039673157</v>
+        <v>0.9314562090476124</v>
       </c>
       <c r="L15">
-        <v>0.9367786400916358</v>
+        <v>0.945504018696914</v>
       </c>
       <c r="M15">
-        <v>0.9251485693508046</v>
+        <v>0.948415088554827</v>
       </c>
       <c r="N15">
-        <v>0.9563950706619357</v>
+        <v>0.9372332791553167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9066587340932666</v>
+        <v>0.9137918306591898</v>
       </c>
       <c r="D16">
-        <v>0.9243212022492471</v>
+        <v>0.9258614953445627</v>
       </c>
       <c r="E16">
-        <v>0.9273166521168875</v>
+        <v>0.9393159745564424</v>
       </c>
       <c r="F16">
-        <v>0.9174751964860299</v>
+        <v>0.9428191782067304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026925066039913</v>
+        <v>1.030146706068516</v>
       </c>
       <c r="J16">
-        <v>0.9390457662157869</v>
+        <v>0.9458094226271344</v>
       </c>
       <c r="K16">
-        <v>0.9401647432255228</v>
+        <v>0.9416710066961238</v>
       </c>
       <c r="L16">
-        <v>0.9430941527998921</v>
+        <v>0.9548345186742045</v>
       </c>
       <c r="M16">
-        <v>0.9334718300059631</v>
+        <v>0.9582637639737075</v>
       </c>
       <c r="N16">
-        <v>0.9610407414978682</v>
+        <v>0.947152580493122</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9118471281660478</v>
+        <v>0.9208313830463815</v>
       </c>
       <c r="D17">
-        <v>0.9287882075950632</v>
+        <v>0.9324543445061091</v>
       </c>
       <c r="E17">
-        <v>0.9315835344619824</v>
+        <v>0.9453585100292755</v>
       </c>
       <c r="F17">
-        <v>0.9229806663313107</v>
+        <v>0.9491740429880454</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028272687078449</v>
+        <v>1.031805266660284</v>
       </c>
       <c r="J17">
-        <v>0.9431717875798037</v>
+        <v>0.9517128904533512</v>
       </c>
       <c r="K17">
-        <v>0.9441717410424949</v>
+        <v>0.9477602745363728</v>
       </c>
       <c r="L17">
-        <v>0.9469078242735884</v>
+        <v>0.9603975968618389</v>
       </c>
       <c r="M17">
-        <v>0.938488806494976</v>
+        <v>0.9641360578965756</v>
       </c>
       <c r="N17">
-        <v>0.9638444289790727</v>
+        <v>0.9530644319207893</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9148059137625375</v>
+        <v>0.9248176885467605</v>
       </c>
       <c r="D18">
-        <v>0.9313375617959488</v>
+        <v>0.9361899694796997</v>
       </c>
       <c r="E18">
-        <v>0.9340191748853104</v>
+        <v>0.9487832655357948</v>
       </c>
       <c r="F18">
-        <v>0.9261184778083553</v>
+        <v>0.9527754963954395</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029037969425813</v>
+        <v>1.032742329412812</v>
       </c>
       <c r="J18">
-        <v>0.9455244020085786</v>
+        <v>0.9550561487617484</v>
       </c>
       <c r="K18">
-        <v>0.9464570041955382</v>
+        <v>0.9512092232796769</v>
       </c>
       <c r="L18">
-        <v>0.9490830796355937</v>
+        <v>0.9635487835638878</v>
       </c>
       <c r="M18">
-        <v>0.9413472307046215</v>
+        <v>0.9674624142099559</v>
       </c>
       <c r="N18">
-        <v>0.9654430244563482</v>
+        <v>0.9564124380394614</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9158038293430512</v>
+        <v>0.9261577727402119</v>
       </c>
       <c r="D19">
-        <v>0.9321977044608944</v>
+        <v>0.9374461448766074</v>
       </c>
       <c r="E19">
-        <v>0.9348410327628005</v>
+        <v>0.9499350541644209</v>
       </c>
       <c r="F19">
-        <v>0.9271764661459159</v>
+        <v>0.953986651700245</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029295515606729</v>
+        <v>1.033056952898154</v>
       </c>
       <c r="J19">
-        <v>0.9463178070259525</v>
+        <v>0.9561800865506636</v>
       </c>
       <c r="K19">
-        <v>0.9472277814868839</v>
+        <v>0.9523687715311119</v>
       </c>
       <c r="L19">
-        <v>0.9498167945142658</v>
+        <v>0.9646082629388295</v>
       </c>
       <c r="M19">
-        <v>0.9423108476630822</v>
+        <v>0.9685807843050939</v>
       </c>
       <c r="N19">
-        <v>0.9659821335104652</v>
+        <v>0.9575379719489545</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9112975674795114</v>
+        <v>0.9200887784657823</v>
       </c>
       <c r="D20">
-        <v>0.9283148496412967</v>
+        <v>0.9317586190726245</v>
       </c>
       <c r="E20">
-        <v>0.9311313304814494</v>
+        <v>0.9447207556349819</v>
       </c>
       <c r="F20">
-        <v>0.9223977068082606</v>
+        <v>0.9485033566821701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028130278359045</v>
+        <v>1.031630520792063</v>
       </c>
       <c r="J20">
-        <v>0.942734786878224</v>
+        <v>0.9510900967301087</v>
       </c>
       <c r="K20">
-        <v>0.9437472925176172</v>
+        <v>0.947117830665456</v>
       </c>
       <c r="L20">
-        <v>0.9465038278555683</v>
+        <v>0.9598106384051102</v>
       </c>
       <c r="M20">
-        <v>0.9379576727661426</v>
+        <v>0.9635164709137154</v>
       </c>
       <c r="N20">
-        <v>0.9635474847423452</v>
+        <v>0.9524407537590245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8958125517084735</v>
+        <v>0.8988497617048702</v>
       </c>
       <c r="D21">
-        <v>0.9149974863819714</v>
+        <v>0.9118852501956529</v>
       </c>
       <c r="E21">
-        <v>0.9184142102269784</v>
+        <v>0.9265138954187021</v>
       </c>
       <c r="F21">
-        <v>0.9059544482073157</v>
+        <v>0.9293535974479284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024087554364973</v>
+        <v>1.026614335418545</v>
       </c>
       <c r="J21">
-        <v>0.930419070404754</v>
+        <v>0.9332826670809335</v>
       </c>
       <c r="K21">
-        <v>0.9317904660185159</v>
+        <v>0.9287531822296206</v>
       </c>
       <c r="L21">
-        <v>0.9351256887975146</v>
+        <v>0.9430353787860276</v>
       </c>
       <c r="M21">
-        <v>0.9229671328252913</v>
+        <v>0.9458095171835961</v>
       </c>
       <c r="N21">
-        <v>0.9551786336688854</v>
+        <v>0.9346080355172066</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8853317452522655</v>
+        <v>0.884070738942433</v>
       </c>
       <c r="D22">
-        <v>0.9060070044922559</v>
+        <v>0.8980864348412338</v>
       </c>
       <c r="E22">
-        <v>0.9098345118187667</v>
+        <v>0.9138853394329487</v>
       </c>
       <c r="F22">
-        <v>0.894808721447983</v>
+        <v>0.9160692747462265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021324309773099</v>
+        <v>1.023111575221749</v>
       </c>
       <c r="J22">
-        <v>0.9220829582377524</v>
+        <v>0.9209009531333098</v>
       </c>
       <c r="K22">
-        <v>0.9237026097274089</v>
+        <v>0.9159886499886052</v>
       </c>
       <c r="L22">
-        <v>0.9274320176703184</v>
+        <v>0.9313802301074848</v>
       </c>
       <c r="M22">
-        <v>0.9127978905027021</v>
+        <v>0.9335093500180229</v>
       </c>
       <c r="N22">
-        <v>0.9495139979851978</v>
+        <v>0.922208738115575</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8909661743574429</v>
+        <v>0.8920615338994724</v>
       </c>
       <c r="D23">
-        <v>0.9108378583164356</v>
+        <v>0.9055440692722607</v>
       </c>
       <c r="E23">
-        <v>0.9144440818168511</v>
+        <v>0.9207090754839747</v>
       </c>
       <c r="F23">
-        <v>0.9008020697068115</v>
+        <v>0.9232474249045592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02281209023721</v>
+        <v>1.025006083505353</v>
       </c>
       <c r="J23">
-        <v>0.9265642920656438</v>
+        <v>0.9275943014359572</v>
       </c>
       <c r="K23">
-        <v>0.9280499717809502</v>
+        <v>0.9228885205007573</v>
       </c>
       <c r="L23">
-        <v>0.9315672252210851</v>
+        <v>0.9376798790917364</v>
       </c>
       <c r="M23">
-        <v>0.9182668509212336</v>
+        <v>0.94015729571409</v>
       </c>
       <c r="N23">
-        <v>0.9525591817681585</v>
+        <v>0.9289115917405496</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.911546097568424</v>
+        <v>0.9204246962252478</v>
       </c>
       <c r="D24">
-        <v>0.9285289121975036</v>
+        <v>0.9320733239612325</v>
       </c>
       <c r="E24">
-        <v>0.9313358252145202</v>
+        <v>0.9450092349351985</v>
       </c>
       <c r="F24">
-        <v>0.9226613465929489</v>
+        <v>0.9488067332939116</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028194690542667</v>
+        <v>1.031709573980252</v>
       </c>
       <c r="J24">
-        <v>0.9429324145644269</v>
+        <v>0.9513718171181812</v>
       </c>
       <c r="K24">
-        <v>0.9439392420484999</v>
+        <v>0.947408438322632</v>
       </c>
       <c r="L24">
-        <v>0.9466865274978471</v>
+        <v>0.9600761465639759</v>
       </c>
       <c r="M24">
-        <v>0.9381978777090459</v>
+        <v>0.9637967384184731</v>
       </c>
       <c r="N24">
-        <v>0.9636817738987915</v>
+        <v>0.952722874222362</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9328109234652903</v>
+        <v>0.9486908770792847</v>
       </c>
       <c r="D25">
-        <v>0.9468807857503123</v>
+        <v>0.9585946435711211</v>
       </c>
       <c r="E25">
-        <v>0.9488769890658785</v>
+        <v>0.9693365429521758</v>
       </c>
       <c r="F25">
-        <v>0.9451807944281663</v>
+        <v>0.9743824862334481</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033634665489853</v>
+        <v>1.038309687742623</v>
       </c>
       <c r="J25">
-        <v>0.9598321929882874</v>
+        <v>0.9750775911809084</v>
       </c>
       <c r="K25">
-        <v>0.9603637651400144</v>
+        <v>0.9718716355849587</v>
       </c>
       <c r="L25">
-        <v>0.962324398838411</v>
+        <v>0.9824302825527668</v>
       </c>
       <c r="M25">
-        <v>0.9586942192428989</v>
+        <v>0.9873919399989483</v>
       </c>
       <c r="N25">
-        <v>0.9751641352549563</v>
+        <v>0.9764623132033481</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9686131377130297</v>
+        <v>0.9764729210510597</v>
       </c>
       <c r="D2">
-        <v>0.9773316003285611</v>
+        <v>0.9891610181309478</v>
       </c>
       <c r="E2">
-        <v>0.9865399752337564</v>
+        <v>0.9900130122081109</v>
       </c>
       <c r="F2">
-        <v>0.9924554111211698</v>
+        <v>0.986546092711846</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042872127307075</v>
+        <v>1.035793398352211</v>
       </c>
       <c r="J2">
-        <v>0.9917749397809638</v>
+        <v>0.9993808394444974</v>
       </c>
       <c r="K2">
-        <v>0.9891160439387719</v>
+        <v>1.000773451499406</v>
       </c>
       <c r="L2">
-        <v>0.9981900701793133</v>
+        <v>1.001613257690906</v>
       </c>
       <c r="M2">
-        <v>1.004020864456234</v>
+        <v>0.998196099460628</v>
       </c>
       <c r="N2">
-        <v>0.9931833739536282</v>
+        <v>1.000800074867093</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9819184250396553</v>
+        <v>0.9854773771566783</v>
       </c>
       <c r="D3">
-        <v>0.9898640469471316</v>
+        <v>0.9976657019491826</v>
       </c>
       <c r="E3">
-        <v>0.9980527263500576</v>
+        <v>0.9984167194399758</v>
       </c>
       <c r="F3">
-        <v>1.004541163836312</v>
+        <v>0.9971629809781339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045858920148184</v>
+        <v>1.039245857382454</v>
       </c>
       <c r="J3">
-        <v>1.002914450046217</v>
+        <v>1.006371928135429</v>
       </c>
       <c r="K3">
-        <v>1.000628283315111</v>
+        <v>1.008328537944902</v>
       </c>
       <c r="L3">
-        <v>1.008710583690366</v>
+        <v>1.009069898801931</v>
       </c>
       <c r="M3">
-        <v>1.015116267511281</v>
+        <v>1.007832291159193</v>
       </c>
       <c r="N3">
-        <v>1.004338703601178</v>
+        <v>1.007801091705855</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.99007758128379</v>
+        <v>0.9909824710448638</v>
       </c>
       <c r="D4">
-        <v>0.9975562908982429</v>
+        <v>1.002848023692329</v>
       </c>
       <c r="E4">
-        <v>1.005121031244314</v>
+        <v>1.003537024578775</v>
       </c>
       <c r="F4">
-        <v>1.011956881800838</v>
+        <v>1.003584400793621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04766038727938</v>
+        <v>1.041264409451779</v>
       </c>
       <c r="J4">
-        <v>1.009738554844009</v>
+        <v>1.01061969316238</v>
       </c>
       <c r="K4">
-        <v>1.007684299089671</v>
+        <v>1.01291219668261</v>
       </c>
       <c r="L4">
-        <v>1.015158040373654</v>
+        <v>1.013592947458517</v>
       </c>
       <c r="M4">
-        <v>1.021913108327963</v>
+        <v>1.013639756905862</v>
       </c>
       <c r="N4">
-        <v>1.011172499410518</v>
+        <v>1.01205488904637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9934104322926754</v>
+        <v>0.9932280715595719</v>
       </c>
       <c r="D5">
-        <v>1.000699898282182</v>
+        <v>1.004958172115143</v>
       </c>
       <c r="E5">
-        <v>1.008010012954267</v>
+        <v>1.00562181481366</v>
       </c>
       <c r="F5">
-        <v>1.014986770404556</v>
+        <v>1.006188351657074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048388721460681</v>
+        <v>1.042066515816238</v>
       </c>
       <c r="J5">
-        <v>1.012524223994084</v>
+        <v>1.012346483501338</v>
       </c>
       <c r="K5">
-        <v>1.010565495142228</v>
+        <v>1.014774014336297</v>
       </c>
       <c r="L5">
-        <v>1.017790516236508</v>
+        <v>1.015429949795421</v>
       </c>
       <c r="M5">
-        <v>1.024687470304932</v>
+        <v>1.01598991708333</v>
       </c>
       <c r="N5">
-        <v>1.013962124530307</v>
+        <v>1.013784131625675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9939646040908801</v>
+        <v>0.9936012952159207</v>
       </c>
       <c r="D6">
-        <v>1.001222685326051</v>
+        <v>1.005308668727142</v>
       </c>
       <c r="E6">
-        <v>1.00849047385497</v>
+        <v>1.005968093424391</v>
       </c>
       <c r="F6">
-        <v>1.01549060014541</v>
+        <v>1.006620256350186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048509374128557</v>
+        <v>1.042198594295511</v>
       </c>
       <c r="J6">
-        <v>1.012987299819922</v>
+        <v>1.012633140794179</v>
       </c>
       <c r="K6">
-        <v>1.011044501462028</v>
+        <v>1.015083000194387</v>
       </c>
       <c r="L6">
-        <v>1.01822815742913</v>
+        <v>1.015734806141868</v>
       </c>
       <c r="M6">
-        <v>1.025148652844402</v>
+        <v>1.016379446343493</v>
       </c>
       <c r="N6">
-        <v>1.014425857976933</v>
+        <v>1.014071196004752</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9901224845081871</v>
+        <v>0.9910127373407634</v>
       </c>
       <c r="D7">
-        <v>0.9975986388184888</v>
+        <v>1.002876479035411</v>
       </c>
       <c r="E7">
-        <v>1.005159947762137</v>
+        <v>1.003565138377292</v>
       </c>
       <c r="F7">
-        <v>1.011997700803711</v>
+        <v>1.003619556887583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047670230380588</v>
+        <v>1.041275304012226</v>
       </c>
       <c r="J7">
-        <v>1.009776093463804</v>
+        <v>1.010642990026743</v>
       </c>
       <c r="K7">
-        <v>1.007723121578264</v>
+        <v>1.012937321182278</v>
       </c>
       <c r="L7">
-        <v>1.015193512463859</v>
+        <v>1.013617737849531</v>
       </c>
       <c r="M7">
-        <v>1.021950495430001</v>
+        <v>1.013671505614</v>
       </c>
       <c r="N7">
-        <v>1.011210091339459</v>
+        <v>1.012078218994952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9732098756410624</v>
+        <v>0.979588071876783</v>
       </c>
       <c r="D8">
-        <v>0.9816596938137379</v>
+        <v>0.992107216658118</v>
       </c>
       <c r="E8">
-        <v>0.990515430493454</v>
+        <v>0.9929243428997119</v>
       </c>
       <c r="F8">
-        <v>0.9966296435042019</v>
+        <v>0.9902348814917893</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043910267926468</v>
+        <v>1.037008215924901</v>
       </c>
       <c r="J8">
-        <v>0.9956248100648208</v>
+        <v>1.001805417278711</v>
       </c>
       <c r="K8">
-        <v>0.99309396396709</v>
+        <v>1.003395172899012</v>
       </c>
       <c r="L8">
-        <v>1.001825427731534</v>
+        <v>1.00420101923354</v>
       </c>
       <c r="M8">
-        <v>1.007855462790867</v>
+        <v>1.001548772675172</v>
       </c>
       <c r="N8">
-        <v>0.9970387114948746</v>
+        <v>1.003228095879935</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9393662162669489</v>
+        <v>0.9565019874728821</v>
       </c>
       <c r="D9">
-        <v>0.9498370643835925</v>
+        <v>0.9701721183181294</v>
       </c>
       <c r="E9">
-        <v>0.9613001183925343</v>
+        <v>0.9712458785235435</v>
       </c>
       <c r="F9">
-        <v>0.9659356321938457</v>
+        <v>0.9625015208736264</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036145611895555</v>
+        <v>1.027527043057569</v>
       </c>
       <c r="J9">
-        <v>0.9672580847520296</v>
+        <v>0.9836901489817524</v>
       </c>
       <c r="K9">
-        <v>0.9638000459713352</v>
+        <v>0.9837684094995789</v>
       </c>
       <c r="L9">
-        <v>0.9750539145069499</v>
+        <v>0.984823360062097</v>
       </c>
       <c r="M9">
-        <v>0.9796066655625965</v>
+        <v>0.9762337676722569</v>
       </c>
       <c r="N9">
-        <v>0.9686317021784305</v>
+        <v>0.9850871018241436</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9129791336818104</v>
+        <v>0.9380971414333912</v>
       </c>
       <c r="D10">
-        <v>0.9251007050595412</v>
+        <v>0.952506175309348</v>
       </c>
       <c r="E10">
-        <v>0.9386188301938818</v>
+        <v>0.9537811584160873</v>
       </c>
       <c r="F10">
-        <v>0.9420859583842617</v>
+        <v>0.9397149613571534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029954956549503</v>
+        <v>1.019218663161757</v>
       </c>
       <c r="J10">
-        <v>0.9451279406387882</v>
+        <v>0.9690019072579462</v>
       </c>
       <c r="K10">
-        <v>0.9409681415095609</v>
+        <v>0.9677893717204943</v>
       </c>
       <c r="L10">
-        <v>0.9541924327893938</v>
+        <v>0.9690382517537317</v>
       </c>
       <c r="M10">
-        <v>0.9575859964560512</v>
+        <v>0.9552652288345412</v>
       </c>
       <c r="N10">
-        <v>0.9464701307221854</v>
+        <v>0.9703780011123248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9002719640916852</v>
+        <v>0.9289938988998923</v>
       </c>
       <c r="D11">
-        <v>0.9132144594212193</v>
+        <v>0.9437017506065835</v>
       </c>
       <c r="E11">
-        <v>0.9277309714452182</v>
+        <v>0.9450748735774231</v>
       </c>
       <c r="F11">
-        <v>0.9306338280245594</v>
+        <v>0.9282035441278765</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026951071467344</v>
+        <v>1.014868658511398</v>
       </c>
       <c r="J11">
-        <v>0.9344746719519065</v>
+        <v>0.9616510112085205</v>
       </c>
       <c r="K11">
-        <v>0.9299822270085925</v>
+        <v>0.9597696441689696</v>
       </c>
       <c r="L11">
-        <v>0.9441578282171623</v>
+        <v>0.961112657000748</v>
       </c>
       <c r="M11">
-        <v>0.9469942161885696</v>
+        <v>0.9446195422388177</v>
       </c>
       <c r="N11">
-        <v>0.935801733171821</v>
+        <v>0.9630166659473497</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8953123312387022</v>
+        <v>0.9253769423999415</v>
       </c>
       <c r="D12">
-        <v>0.9085801190932588</v>
+        <v>0.940189901331229</v>
       </c>
       <c r="E12">
-        <v>0.9234880297744555</v>
+        <v>0.9416017176072135</v>
       </c>
       <c r="F12">
-        <v>0.9261706710887743</v>
+        <v>0.9235819344327606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025776437711007</v>
+        <v>1.013095023207316</v>
       </c>
       <c r="J12">
-        <v>0.9303181464474172</v>
+        <v>0.958713394988594</v>
       </c>
       <c r="K12">
-        <v>0.9256966904304341</v>
+        <v>0.9565602614960057</v>
       </c>
       <c r="L12">
-        <v>0.9402441379275347</v>
+        <v>0.9579403061404151</v>
       </c>
       <c r="M12">
-        <v>0.942863564361211</v>
+        <v>0.9403358214625686</v>
       </c>
       <c r="N12">
-        <v>0.9316393049243551</v>
+        <v>0.960074877975441</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8963879904659942</v>
+        <v>0.9261649999818417</v>
       </c>
       <c r="D13">
-        <v>0.9095849893524567</v>
+        <v>0.9409557495970868</v>
       </c>
       <c r="E13">
-        <v>0.9244079267272294</v>
+        <v>0.9423591509919753</v>
       </c>
       <c r="F13">
-        <v>0.9271383227080797</v>
+        <v>0.924591284765431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026031271698556</v>
+        <v>1.013483691735659</v>
       </c>
       <c r="J13">
-        <v>0.9312195421204176</v>
+        <v>0.9593542856566508</v>
       </c>
       <c r="K13">
-        <v>0.9266260290659865</v>
+        <v>0.9572606664349258</v>
       </c>
       <c r="L13">
-        <v>0.9410928012312135</v>
+        <v>0.9586326614694077</v>
       </c>
       <c r="M13">
-        <v>0.9437592533264989</v>
+        <v>0.9412718493110535</v>
       </c>
       <c r="N13">
-        <v>0.932541980682603</v>
+        <v>0.9607166787817579</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8998672252444881</v>
+        <v>0.9287002630592547</v>
       </c>
       <c r="D14">
-        <v>0.912836161846278</v>
+        <v>0.9434169472054401</v>
       </c>
       <c r="E14">
-        <v>0.9273845771020467</v>
+        <v>0.9447932181323522</v>
       </c>
       <c r="F14">
-        <v>0.9302694603831072</v>
+        <v>0.9278293898025317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026855249808369</v>
+        <v>1.014725641848487</v>
       </c>
       <c r="J14">
-        <v>0.9341354364283881</v>
+        <v>0.9614128942728997</v>
       </c>
       <c r="K14">
-        <v>0.9296324466935594</v>
+        <v>0.9595095956148545</v>
       </c>
       <c r="L14">
-        <v>0.9438383807452387</v>
+        <v>0.9608556229572225</v>
       </c>
       <c r="M14">
-        <v>0.9466570506725103</v>
+        <v>0.9442729482962046</v>
       </c>
       <c r="N14">
-        <v>0.9354620158949484</v>
+        <v>0.9627782108583675</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9019774293748768</v>
+        <v>0.9302284186462321</v>
       </c>
       <c r="D15">
-        <v>0.9148087104811309</v>
+        <v>0.9448985686662684</v>
       </c>
       <c r="E15">
-        <v>0.9291908625254389</v>
+        <v>0.9462584442135101</v>
       </c>
       <c r="F15">
-        <v>0.9321694565978677</v>
+        <v>0.9297745985343385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027354758535348</v>
+        <v>1.01546807089936</v>
       </c>
       <c r="J15">
-        <v>0.9359041878588462</v>
+        <v>0.9626514138681621</v>
       </c>
       <c r="K15">
-        <v>0.9314562090476124</v>
+        <v>0.9608620029364879</v>
       </c>
       <c r="L15">
-        <v>0.945504018696914</v>
+        <v>0.9621923265663987</v>
       </c>
       <c r="M15">
-        <v>0.948415088554827</v>
+        <v>0.9460744760211101</v>
       </c>
       <c r="N15">
-        <v>0.9372332791553167</v>
+        <v>0.9640184892935155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9137918306591898</v>
+        <v>0.9386727091734565</v>
       </c>
       <c r="D16">
-        <v>0.9258614953445627</v>
+        <v>0.953061280598276</v>
       </c>
       <c r="E16">
-        <v>0.9393159745564424</v>
+        <v>0.9543300249088381</v>
       </c>
       <c r="F16">
-        <v>0.9428191782067304</v>
+        <v>0.9404372099756386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030146706068516</v>
+        <v>1.019488302680795</v>
       </c>
       <c r="J16">
-        <v>0.9458094226271344</v>
+        <v>0.9694647003609836</v>
       </c>
       <c r="K16">
-        <v>0.9416710066961238</v>
+        <v>0.9682937497757935</v>
       </c>
       <c r="L16">
-        <v>0.9548345186742045</v>
+        <v>0.9695366357269356</v>
       </c>
       <c r="M16">
-        <v>0.9582637639737075</v>
+        <v>0.9559320036161947</v>
       </c>
       <c r="N16">
-        <v>0.947152580493122</v>
+        <v>0.9708414514346516</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9208313830463815</v>
+        <v>0.9436310268939059</v>
       </c>
       <c r="D17">
-        <v>0.9324543445061091</v>
+        <v>0.9578359744176355</v>
       </c>
       <c r="E17">
-        <v>0.9453585100292755</v>
+        <v>0.9590508200723442</v>
       </c>
       <c r="F17">
-        <v>0.9491740429880454</v>
+        <v>0.9466326366062151</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031805266660284</v>
+        <v>1.021784862838586</v>
       </c>
       <c r="J17">
-        <v>0.9517128904533512</v>
+        <v>0.9734420651858723</v>
       </c>
       <c r="K17">
-        <v>0.9477602745363728</v>
+        <v>0.9726260136525382</v>
       </c>
       <c r="L17">
-        <v>0.9603975968618389</v>
+        <v>0.9738170654026589</v>
       </c>
       <c r="M17">
-        <v>0.9641360578965756</v>
+        <v>0.9616458956896694</v>
       </c>
       <c r="N17">
-        <v>0.9530644319207893</v>
+        <v>0.9748244645738018</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9248176885467605</v>
+        <v>0.9464194228756946</v>
       </c>
       <c r="D18">
-        <v>0.9361899694796997</v>
+        <v>0.960515473085792</v>
       </c>
       <c r="E18">
-        <v>0.9487832655357948</v>
+        <v>0.9616998920268308</v>
       </c>
       <c r="F18">
-        <v>0.9527754963954395</v>
+        <v>0.9500962645576698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032742329412812</v>
+        <v>1.023055738120406</v>
       </c>
       <c r="J18">
-        <v>0.9550561487617484</v>
+        <v>0.9756714917401346</v>
       </c>
       <c r="K18">
-        <v>0.9512092232796769</v>
+        <v>0.9750524402949291</v>
       </c>
       <c r="L18">
-        <v>0.9635487835638878</v>
+        <v>0.9762141914969433</v>
       </c>
       <c r="M18">
-        <v>0.9674624142099559</v>
+        <v>0.9648358361379625</v>
       </c>
       <c r="N18">
-        <v>0.9564124380394614</v>
+        <v>0.97705705716949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9261577727402119</v>
+        <v>0.9473540079352517</v>
       </c>
       <c r="D19">
-        <v>0.9374461448766074</v>
+        <v>0.9614126753002386</v>
       </c>
       <c r="E19">
-        <v>0.9499350541644209</v>
+        <v>0.96258687826857</v>
       </c>
       <c r="F19">
-        <v>0.953986651700245</v>
+        <v>0.9512539271472508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033056952898154</v>
+        <v>1.023478377397767</v>
       </c>
       <c r="J19">
-        <v>0.9561800865506636</v>
+        <v>0.9764175669259095</v>
       </c>
       <c r="K19">
-        <v>0.9523687715311119</v>
+        <v>0.9758641348944679</v>
       </c>
       <c r="L19">
-        <v>0.9646082629388295</v>
+        <v>0.9770160419039524</v>
       </c>
       <c r="M19">
-        <v>0.9685807843050939</v>
+        <v>0.9659012980869303</v>
       </c>
       <c r="N19">
-        <v>0.9575379719489545</v>
+        <v>0.9778041918676047</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9200887784657823</v>
+        <v>0.9431101242039462</v>
       </c>
       <c r="D20">
-        <v>0.9317586190726245</v>
+        <v>0.9573349715501845</v>
       </c>
       <c r="E20">
-        <v>0.9447207556349819</v>
+        <v>0.9585554922062153</v>
       </c>
       <c r="F20">
-        <v>0.9485033566821701</v>
+        <v>0.9459839745684124</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031630520792063</v>
+        <v>1.021545804613735</v>
       </c>
       <c r="J20">
-        <v>0.9510900967301087</v>
+        <v>0.9730250051096143</v>
       </c>
       <c r="K20">
-        <v>0.947117830665456</v>
+        <v>0.9721719475324225</v>
       </c>
       <c r="L20">
-        <v>0.9598106384051102</v>
+        <v>0.9733684611076379</v>
       </c>
       <c r="M20">
-        <v>0.9635164709137154</v>
+        <v>0.9610481301134208</v>
       </c>
       <c r="N20">
-        <v>0.9524407537590245</v>
+        <v>0.9744068122243983</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8988497617048702</v>
+        <v>0.9279609413622157</v>
       </c>
       <c r="D21">
-        <v>0.9118852501956529</v>
+        <v>0.9426996320366149</v>
       </c>
       <c r="E21">
-        <v>0.9265138954187021</v>
+        <v>0.944083823770802</v>
       </c>
       <c r="F21">
-        <v>0.9293535974479284</v>
+        <v>0.9268865279223637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026614335418545</v>
+        <v>1.014364793907292</v>
       </c>
       <c r="J21">
-        <v>0.9332826670809335</v>
+        <v>0.960813073304618</v>
       </c>
       <c r="K21">
-        <v>0.9287531822296206</v>
+        <v>0.9588544529284777</v>
       </c>
       <c r="L21">
-        <v>0.9430353787860276</v>
+        <v>0.9602080639525505</v>
       </c>
       <c r="M21">
-        <v>0.9458095171835961</v>
+        <v>0.9433993772469469</v>
       </c>
       <c r="N21">
-        <v>0.9346080355172066</v>
+        <v>0.9621775380755103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.884070738942433</v>
+        <v>0.9169978451335346</v>
       </c>
       <c r="D22">
-        <v>0.8980864348412338</v>
+        <v>0.9320218777926073</v>
       </c>
       <c r="E22">
-        <v>0.9138853394329487</v>
+        <v>0.9335225895693195</v>
       </c>
       <c r="F22">
-        <v>0.9160692747462265</v>
+        <v>0.9127638614355597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023111575221749</v>
+        <v>1.008883781923704</v>
       </c>
       <c r="J22">
-        <v>0.9209009531333098</v>
+        <v>0.9518687602440332</v>
       </c>
       <c r="K22">
-        <v>0.9159886499886052</v>
+        <v>0.9490720031026699</v>
       </c>
       <c r="L22">
-        <v>0.9313802301074848</v>
+        <v>0.950536950736323</v>
       </c>
       <c r="M22">
-        <v>0.9335093500180229</v>
+        <v>0.9302870381661837</v>
       </c>
       <c r="N22">
-        <v>0.922208738115575</v>
+        <v>0.9532205230644526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8920615338994724</v>
+        <v>0.9229820709520302</v>
       </c>
       <c r="D23">
-        <v>0.9055440692722607</v>
+        <v>0.9378600995955407</v>
       </c>
       <c r="E23">
-        <v>0.9207090754839747</v>
+        <v>0.9392974331735751</v>
       </c>
       <c r="F23">
-        <v>0.9232474249045592</v>
+        <v>0.9205061974132384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025006083505353</v>
+        <v>1.0119061652131</v>
       </c>
       <c r="J23">
-        <v>0.9275943014359572</v>
+        <v>0.9567628083389068</v>
       </c>
       <c r="K23">
-        <v>0.9228885205007573</v>
+        <v>0.9544277604712651</v>
       </c>
       <c r="L23">
-        <v>0.9376798790917364</v>
+        <v>0.9558322013853928</v>
       </c>
       <c r="M23">
-        <v>0.94015729571409</v>
+        <v>0.9374818905706601</v>
       </c>
       <c r="N23">
-        <v>0.9289115917405496</v>
+        <v>0.9581215212689759</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9204246962252478</v>
+        <v>0.9433458139156782</v>
       </c>
       <c r="D24">
-        <v>0.9320733239612325</v>
+        <v>0.9575616747594602</v>
       </c>
       <c r="E24">
-        <v>0.9450092349351985</v>
+        <v>0.958779628039655</v>
       </c>
       <c r="F24">
-        <v>0.9488067332939116</v>
+        <v>0.9462775343077261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031709573980252</v>
+        <v>1.021654034026988</v>
       </c>
       <c r="J24">
-        <v>0.9513718171181812</v>
+        <v>0.9732137324742853</v>
       </c>
       <c r="K24">
-        <v>0.947408438322632</v>
+        <v>0.9723774268145311</v>
       </c>
       <c r="L24">
-        <v>0.9600761465639759</v>
+        <v>0.9735714695770575</v>
       </c>
       <c r="M24">
-        <v>0.9637967384184731</v>
+        <v>0.9613186700319293</v>
       </c>
       <c r="N24">
-        <v>0.952722874222362</v>
+        <v>0.9745958076035743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9486908770792847</v>
+        <v>0.9629037469015017</v>
       </c>
       <c r="D25">
-        <v>0.9585946435711211</v>
+        <v>0.9762785057182432</v>
       </c>
       <c r="E25">
-        <v>0.9693365429521758</v>
+        <v>0.9772815281277181</v>
       </c>
       <c r="F25">
-        <v>0.9743824862334481</v>
+        <v>0.9702841676725773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038309687742623</v>
+        <v>1.030264048659808</v>
       </c>
       <c r="J25">
-        <v>0.9750775911809084</v>
+        <v>0.9887474558507243</v>
       </c>
       <c r="K25">
-        <v>0.9718716355849587</v>
+        <v>0.9892565787634263</v>
       </c>
       <c r="L25">
-        <v>0.9824302825527668</v>
+        <v>0.9902430636563233</v>
       </c>
       <c r="M25">
-        <v>0.9873919399989483</v>
+        <v>0.983361992262254</v>
       </c>
       <c r="N25">
-        <v>0.9764623132033481</v>
+        <v>0.9901515906489506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9764729210510597</v>
+        <v>1.04244391055416</v>
       </c>
       <c r="D2">
-        <v>0.9891610181309478</v>
+        <v>1.049465110399412</v>
       </c>
       <c r="E2">
-        <v>0.9900130122081109</v>
+        <v>1.04955725944453</v>
       </c>
       <c r="F2">
-        <v>0.986546092711846</v>
+        <v>1.057911667164067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035793398352211</v>
+        <v>1.026702514380507</v>
       </c>
       <c r="J2">
-        <v>0.9993808394444974</v>
+        <v>1.047519701752911</v>
       </c>
       <c r="K2">
-        <v>1.000773451499406</v>
+        <v>1.052222093595721</v>
       </c>
       <c r="L2">
-        <v>1.001613257690906</v>
+        <v>1.05231398614712</v>
       </c>
       <c r="M2">
-        <v>0.998196099460628</v>
+        <v>1.060645340779253</v>
       </c>
       <c r="N2">
-        <v>1.000800074867093</v>
+        <v>1.049007299881589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9854773771566783</v>
+        <v>1.04390702417568</v>
       </c>
       <c r="D3">
-        <v>0.9976657019491826</v>
+        <v>1.050829055176828</v>
       </c>
       <c r="E3">
-        <v>0.9984167194399758</v>
+        <v>1.05090318040054</v>
       </c>
       <c r="F3">
-        <v>0.9971629809781339</v>
+        <v>1.059468206855279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039245857382454</v>
+        <v>1.026887458352109</v>
       </c>
       <c r="J3">
-        <v>1.006371928135429</v>
+        <v>1.048626704411167</v>
       </c>
       <c r="K3">
-        <v>1.008328537944902</v>
+        <v>1.053396865821758</v>
       </c>
       <c r="L3">
-        <v>1.009069898801931</v>
+        <v>1.053470799833194</v>
       </c>
       <c r="M3">
-        <v>1.007832291159193</v>
+        <v>1.062013926304268</v>
       </c>
       <c r="N3">
-        <v>1.007801091705855</v>
+        <v>1.050115874610596</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9909824710448638</v>
+        <v>1.04484661572813</v>
       </c>
       <c r="D4">
-        <v>1.002848023692329</v>
+        <v>1.051703532563204</v>
       </c>
       <c r="E4">
-        <v>1.003537024578775</v>
+        <v>1.051766047963862</v>
       </c>
       <c r="F4">
-        <v>1.003584400793621</v>
+        <v>1.060462160001686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041264409451779</v>
+        <v>1.026997440722205</v>
       </c>
       <c r="J4">
-        <v>1.01061969316238</v>
+        <v>1.049335499718999</v>
       </c>
       <c r="K4">
-        <v>1.01291219668261</v>
+        <v>1.054148422710619</v>
       </c>
       <c r="L4">
-        <v>1.013592947458517</v>
+        <v>1.054210785064856</v>
       </c>
       <c r="M4">
-        <v>1.013639756905862</v>
+        <v>1.062885796769004</v>
       </c>
       <c r="N4">
-        <v>1.01205488904637</v>
+        <v>1.050825676489064</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9932280715595719</v>
+        <v>1.045239930615996</v>
       </c>
       <c r="D5">
-        <v>1.004958172115143</v>
+        <v>1.052069246917554</v>
       </c>
       <c r="E5">
-        <v>1.00562181481366</v>
+        <v>1.052126893946919</v>
       </c>
       <c r="F5">
-        <v>1.006188351657074</v>
+        <v>1.060876877452781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042066515816238</v>
+        <v>1.027041363632053</v>
       </c>
       <c r="J5">
-        <v>1.012346483501338</v>
+        <v>1.049631696560357</v>
       </c>
       <c r="K5">
-        <v>1.014774014336297</v>
+        <v>1.054462337231275</v>
       </c>
       <c r="L5">
-        <v>1.015429949795421</v>
+        <v>1.054519846311849</v>
       </c>
       <c r="M5">
-        <v>1.01598991708333</v>
+        <v>1.06324907775588</v>
       </c>
       <c r="N5">
-        <v>1.013784131625675</v>
+        <v>1.051122293963911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9936012952159207</v>
+        <v>1.045305871415692</v>
       </c>
       <c r="D6">
-        <v>1.005308668727142</v>
+        <v>1.052130540173136</v>
       </c>
       <c r="E6">
-        <v>1.005968093424391</v>
+        <v>1.052187370501709</v>
       </c>
       <c r="F6">
-        <v>1.006620256350186</v>
+        <v>1.060946326944307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042198594295511</v>
+        <v>1.02704860295966</v>
       </c>
       <c r="J6">
-        <v>1.012633140794179</v>
+        <v>1.049681325370345</v>
       </c>
       <c r="K6">
-        <v>1.015083000194387</v>
+        <v>1.054514925757602</v>
       </c>
       <c r="L6">
-        <v>1.015734806141868</v>
+        <v>1.054571620617615</v>
       </c>
       <c r="M6">
-        <v>1.016379446343493</v>
+        <v>1.06330988416365</v>
       </c>
       <c r="N6">
-        <v>1.014071196004752</v>
+        <v>1.051171993252501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9910127373407634</v>
+        <v>1.044851877832406</v>
       </c>
       <c r="D7">
-        <v>1.002876479035411</v>
+        <v>1.051708426758319</v>
       </c>
       <c r="E7">
-        <v>1.003565138377292</v>
+        <v>1.051770877059166</v>
       </c>
       <c r="F7">
-        <v>1.003619556887583</v>
+        <v>1.060467713780345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041275304012226</v>
+        <v>1.026998036705878</v>
       </c>
       <c r="J7">
-        <v>1.010642990026743</v>
+        <v>1.049339464490071</v>
       </c>
       <c r="K7">
-        <v>1.012937321182278</v>
+        <v>1.054152625242893</v>
       </c>
       <c r="L7">
-        <v>1.013617737849531</v>
+        <v>1.054214922702739</v>
       </c>
       <c r="M7">
-        <v>1.013671505614</v>
+        <v>1.062890663697262</v>
       </c>
       <c r="N7">
-        <v>1.012078218994952</v>
+        <v>1.050829646890566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.979588071876783</v>
+        <v>1.042939867636183</v>
       </c>
       <c r="D8">
-        <v>0.992107216658118</v>
+        <v>1.049927748527896</v>
       </c>
       <c r="E8">
-        <v>0.9929243428997119</v>
+        <v>1.050013795259402</v>
       </c>
       <c r="F8">
-        <v>0.9902348814917893</v>
+        <v>1.058440463831191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037008215924901</v>
+        <v>1.026767026966958</v>
       </c>
       <c r="J8">
-        <v>1.001805417278711</v>
+        <v>1.047895383946798</v>
       </c>
       <c r="K8">
-        <v>1.003395172899012</v>
+        <v>1.052620905514638</v>
       </c>
       <c r="L8">
-        <v>1.00420101923354</v>
+        <v>1.05270671867564</v>
       </c>
       <c r="M8">
-        <v>1.001548772675172</v>
+        <v>1.061110712345018</v>
       </c>
       <c r="N8">
-        <v>1.003228095879935</v>
+        <v>1.049383515587283</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9565019874728821</v>
+        <v>1.039515016698616</v>
       </c>
       <c r="D9">
-        <v>0.9701721183181294</v>
+        <v>1.046727086091111</v>
       </c>
       <c r="E9">
-        <v>0.9712458785235435</v>
+        <v>1.046855128250006</v>
       </c>
       <c r="F9">
-        <v>0.9625015208736264</v>
+        <v>1.054765534017671</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027527043057569</v>
+        <v>1.026285444718819</v>
       </c>
       <c r="J9">
-        <v>0.9836901489817524</v>
+        <v>1.045292399925421</v>
       </c>
       <c r="K9">
-        <v>0.9837684094995789</v>
+        <v>1.049855063281246</v>
       </c>
       <c r="L9">
-        <v>0.984823360062097</v>
+        <v>1.049982697122426</v>
       </c>
       <c r="M9">
-        <v>0.9762337676722569</v>
+        <v>1.057868087311537</v>
       </c>
       <c r="N9">
-        <v>0.9850871018241436</v>
+        <v>1.046776835030029</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9380971414333912</v>
+        <v>1.037192959588801</v>
       </c>
       <c r="D10">
-        <v>0.952506175309348</v>
+        <v>1.044549621222681</v>
       </c>
       <c r="E10">
-        <v>0.9537811584160873</v>
+        <v>1.04470595580048</v>
       </c>
       <c r="F10">
-        <v>0.9397149613571534</v>
+        <v>1.05224459536142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019218663161757</v>
+        <v>1.025913787246073</v>
       </c>
       <c r="J10">
-        <v>0.9690019072579462</v>
+        <v>1.043516644489878</v>
       </c>
       <c r="K10">
-        <v>0.9677893717204943</v>
+        <v>1.047964948565619</v>
       </c>
       <c r="L10">
-        <v>0.9690382517537317</v>
+        <v>1.048120734699971</v>
       </c>
       <c r="M10">
-        <v>0.9552652288345412</v>
+        <v>1.055633140552771</v>
       </c>
       <c r="N10">
-        <v>0.9703780011123248</v>
+        <v>1.044998557818086</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9289938988998923</v>
+        <v>1.036177939141536</v>
       </c>
       <c r="D11">
-        <v>0.9437017506065835</v>
+        <v>1.043596053522936</v>
       </c>
       <c r="E11">
-        <v>0.9450748735774231</v>
+        <v>1.043764712841733</v>
       </c>
       <c r="F11">
-        <v>0.9282035441278765</v>
+        <v>1.051135690434684</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014868658511398</v>
+        <v>1.025740720676983</v>
       </c>
       <c r="J11">
-        <v>0.9616510112085205</v>
+        <v>1.042737841059331</v>
       </c>
       <c r="K11">
-        <v>0.9597696441689696</v>
+        <v>1.047135223795441</v>
       </c>
       <c r="L11">
-        <v>0.961112657000748</v>
+        <v>1.047303267995196</v>
       </c>
       <c r="M11">
-        <v>0.9446195422388177</v>
+        <v>1.054647575697463</v>
       </c>
       <c r="N11">
-        <v>0.9630166659473497</v>
+        <v>1.044218648397338</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9253769423999415</v>
+        <v>1.035799449524594</v>
       </c>
       <c r="D12">
-        <v>0.940189901331229</v>
+        <v>1.043240215994828</v>
       </c>
       <c r="E12">
-        <v>0.9416017176072135</v>
+        <v>1.043413464710395</v>
       </c>
       <c r="F12">
-        <v>0.9235819344327606</v>
+        <v>1.050721148065864</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013095023207316</v>
+        <v>1.025674599837404</v>
       </c>
       <c r="J12">
-        <v>0.958713394988594</v>
+        <v>1.042447046433167</v>
       </c>
       <c r="K12">
-        <v>0.9565602614960057</v>
+        <v>1.046825301161534</v>
       </c>
       <c r="L12">
-        <v>0.9579403061404151</v>
+        <v>1.046997909056421</v>
       </c>
       <c r="M12">
-        <v>0.9403358214625686</v>
+        <v>1.054278775085686</v>
       </c>
       <c r="N12">
-        <v>0.960074877975441</v>
+        <v>1.04392744080945</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9261649999818417</v>
+        <v>1.035880703667571</v>
       </c>
       <c r="D13">
-        <v>0.9409557495970868</v>
+        <v>1.043316619078783</v>
       </c>
       <c r="E13">
-        <v>0.9423591509919753</v>
+        <v>1.043488882830078</v>
       </c>
       <c r="F13">
-        <v>0.924591284765431</v>
+        <v>1.050810189254916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013483691735659</v>
+        <v>1.025688866292393</v>
       </c>
       <c r="J13">
-        <v>0.9593542856566508</v>
+        <v>1.042509491745879</v>
       </c>
       <c r="K13">
-        <v>0.9572606664349258</v>
+        <v>1.046891859206927</v>
       </c>
       <c r="L13">
-        <v>0.9586326614694077</v>
+        <v>1.047063487693505</v>
       </c>
       <c r="M13">
-        <v>0.9412718493110535</v>
+        <v>1.054358007743544</v>
       </c>
       <c r="N13">
-        <v>0.9607166787817579</v>
+        <v>1.043989974801668</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9287002630592547</v>
+        <v>1.036146683155049</v>
       </c>
       <c r="D14">
-        <v>0.9434169472054401</v>
+        <v>1.043566673521652</v>
       </c>
       <c r="E14">
-        <v>0.9447932181323522</v>
+        <v>1.043735711966107</v>
       </c>
       <c r="F14">
-        <v>0.9278293898025317</v>
+        <v>1.051101478463324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014725641848487</v>
+        <v>1.025735292644082</v>
       </c>
       <c r="J14">
-        <v>0.9614128942728997</v>
+        <v>1.042713834894804</v>
       </c>
       <c r="K14">
-        <v>0.9595095956148545</v>
+        <v>1.047109640876898</v>
       </c>
       <c r="L14">
-        <v>0.9608556229572225</v>
+        <v>1.047278062097084</v>
       </c>
       <c r="M14">
-        <v>0.9442729482962046</v>
+        <v>1.054617146213994</v>
       </c>
       <c r="N14">
-        <v>0.9627782108583675</v>
+        <v>1.044194608141303</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9302284186462321</v>
+        <v>1.036310366726508</v>
       </c>
       <c r="D15">
-        <v>0.9448985686662684</v>
+        <v>1.043720522049874</v>
       </c>
       <c r="E15">
-        <v>0.9462584442135101</v>
+        <v>1.043887574802229</v>
       </c>
       <c r="F15">
-        <v>0.9297745985343385</v>
+        <v>1.051280599443684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01546807089936</v>
+        <v>1.025763653733383</v>
       </c>
       <c r="J15">
-        <v>0.9626514138681621</v>
+        <v>1.042839536234584</v>
       </c>
       <c r="K15">
-        <v>0.9608620029364879</v>
+        <v>1.047243593749296</v>
       </c>
       <c r="L15">
-        <v>0.9621923265663987</v>
+        <v>1.047410040267731</v>
       </c>
       <c r="M15">
-        <v>0.9460744760211101</v>
+        <v>1.054776448561862</v>
       </c>
       <c r="N15">
-        <v>0.9640184892935155</v>
+        <v>1.044320487991404</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9386727091734565</v>
+        <v>1.037260119290489</v>
       </c>
       <c r="D16">
-        <v>0.953061280598276</v>
+        <v>1.044612678105178</v>
       </c>
       <c r="E16">
-        <v>0.9543300249088381</v>
+        <v>1.04476819631628</v>
       </c>
       <c r="F16">
-        <v>0.9404372099756386</v>
+        <v>1.052317821133348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019488302680795</v>
+        <v>1.025925016331327</v>
       </c>
       <c r="J16">
-        <v>0.9694647003609836</v>
+        <v>1.043568120509196</v>
       </c>
       <c r="K16">
-        <v>0.9682937497757935</v>
+        <v>1.048019774274153</v>
       </c>
       <c r="L16">
-        <v>0.9695366357269356</v>
+        <v>1.04817474833755</v>
       </c>
       <c r="M16">
-        <v>0.9559320036161947</v>
+        <v>1.055698170391344</v>
       </c>
       <c r="N16">
-        <v>0.9708414514346516</v>
+        <v>1.045050106939255</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9436310268939059</v>
+        <v>1.03785329497949</v>
       </c>
       <c r="D17">
-        <v>0.9578359744176355</v>
+        <v>1.045169415096865</v>
       </c>
       <c r="E17">
-        <v>0.9590508200723442</v>
+        <v>1.04531771802028</v>
       </c>
       <c r="F17">
-        <v>0.9466326366062151</v>
+        <v>1.052963775482509</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021784862838586</v>
+        <v>1.026022976824906</v>
       </c>
       <c r="J17">
-        <v>0.9734420651858723</v>
+        <v>1.044022476111178</v>
       </c>
       <c r="K17">
-        <v>0.9726260136525382</v>
+        <v>1.0485036082175</v>
       </c>
       <c r="L17">
-        <v>0.9738170654026589</v>
+        <v>1.048651404308034</v>
       </c>
       <c r="M17">
-        <v>0.9616458956896694</v>
+        <v>1.056271543482714</v>
       </c>
       <c r="N17">
-        <v>0.9748244645738018</v>
+        <v>1.045505107778307</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9464194228756946</v>
+        <v>1.038198364591761</v>
       </c>
       <c r="D18">
-        <v>0.960515473085792</v>
+        <v>1.045493119069565</v>
       </c>
       <c r="E18">
-        <v>0.9616998920268308</v>
+        <v>1.045637220548645</v>
       </c>
       <c r="F18">
-        <v>0.9500962645576698</v>
+        <v>1.05333888146671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023055738120406</v>
+        <v>1.026078945463664</v>
       </c>
       <c r="J18">
-        <v>0.9756714917401346</v>
+        <v>1.04428654170927</v>
       </c>
       <c r="K18">
-        <v>0.9750524402949291</v>
+        <v>1.048784732858904</v>
       </c>
       <c r="L18">
-        <v>0.9762141914969433</v>
+        <v>1.048928348693581</v>
       </c>
       <c r="M18">
-        <v>0.9648358361379625</v>
+        <v>1.056604266001339</v>
       </c>
       <c r="N18">
-        <v>0.97705705716949</v>
+        <v>1.045769548379837</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9473540079352517</v>
+        <v>1.038315869307558</v>
       </c>
       <c r="D19">
-        <v>0.9614126753002386</v>
+        <v>1.045603319742117</v>
       </c>
       <c r="E19">
-        <v>0.96258687826857</v>
+        <v>1.045745989833537</v>
       </c>
       <c r="F19">
-        <v>0.9512539271472508</v>
+        <v>1.053466501222861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023478377397767</v>
+        <v>1.026097831232171</v>
       </c>
       <c r="J19">
-        <v>0.9764175669259095</v>
+        <v>1.044376420504082</v>
       </c>
       <c r="K19">
-        <v>0.9758641348944679</v>
+        <v>1.048880405499812</v>
       </c>
       <c r="L19">
-        <v>0.9770160419039524</v>
+        <v>1.049022597074765</v>
       </c>
       <c r="M19">
-        <v>0.9659012980869303</v>
+        <v>1.056717425871827</v>
       </c>
       <c r="N19">
-        <v>0.9778041918676047</v>
+        <v>1.045859554812848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9431101242039462</v>
+        <v>1.037789748189684</v>
       </c>
       <c r="D20">
-        <v>0.9573349715501845</v>
+        <v>1.045109789376692</v>
       </c>
       <c r="E20">
-        <v>0.9585554922062153</v>
+        <v>1.045258865694314</v>
       </c>
       <c r="F20">
-        <v>0.9459839745684124</v>
+        <v>1.052894643556398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021545804613735</v>
+        <v>1.026012587705531</v>
       </c>
       <c r="J20">
-        <v>0.9730250051096143</v>
+        <v>1.043973826747977</v>
       </c>
       <c r="K20">
-        <v>0.9721719475324225</v>
+        <v>1.048451810108494</v>
       </c>
       <c r="L20">
-        <v>0.9733684611076379</v>
+        <v>1.048600375649595</v>
       </c>
       <c r="M20">
-        <v>0.9610481301134208</v>
+        <v>1.056210203791567</v>
       </c>
       <c r="N20">
-        <v>0.9744068122243983</v>
+        <v>1.04545638932743</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9279609413622157</v>
+        <v>1.036068399540243</v>
       </c>
       <c r="D21">
-        <v>0.9426996320366149</v>
+        <v>1.043493084248277</v>
       </c>
       <c r="E21">
-        <v>0.944083823770802</v>
+        <v>1.043663072146718</v>
       </c>
       <c r="F21">
-        <v>0.9268865279223637</v>
+        <v>1.051015774444674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014364793907292</v>
+        <v>1.025721672037495</v>
       </c>
       <c r="J21">
-        <v>0.960813073304618</v>
+        <v>1.042653702898652</v>
       </c>
       <c r="K21">
-        <v>0.9588544529284777</v>
+        <v>1.047045557489447</v>
       </c>
       <c r="L21">
-        <v>0.9602080639525505</v>
+        <v>1.047214922877252</v>
       </c>
       <c r="M21">
-        <v>0.9433993772469469</v>
+        <v>1.054540911761518</v>
       </c>
       <c r="N21">
-        <v>0.9621775380755103</v>
+        <v>1.044134390750819</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9169978451335346</v>
+        <v>1.034977622440786</v>
       </c>
       <c r="D22">
-        <v>0.9320218777926073</v>
+        <v>1.042467092531988</v>
       </c>
       <c r="E22">
-        <v>0.9335225895693195</v>
+        <v>1.04265029472673</v>
       </c>
       <c r="F22">
-        <v>0.9127638614355597</v>
+        <v>1.049819124577815</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008883781923704</v>
+        <v>1.025528130931748</v>
       </c>
       <c r="J22">
-        <v>0.9518687602440332</v>
+        <v>1.041814924520298</v>
       </c>
       <c r="K22">
-        <v>0.9490720031026699</v>
+        <v>1.046151389481651</v>
       </c>
       <c r="L22">
-        <v>0.950536950736323</v>
+        <v>1.046333893485316</v>
       </c>
       <c r="M22">
-        <v>0.9302870381661837</v>
+        <v>1.053475614568149</v>
       </c>
       <c r="N22">
-        <v>0.9532205230644526</v>
+        <v>1.043294421210959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9229820709520302</v>
+        <v>1.035556679932524</v>
       </c>
       <c r="D23">
-        <v>0.9378600995955407</v>
+        <v>1.043011901800644</v>
       </c>
       <c r="E23">
-        <v>0.9392974331735751</v>
+        <v>1.043188092443821</v>
       </c>
       <c r="F23">
-        <v>0.9205061974132384</v>
+        <v>1.050454959483391</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0119061652131</v>
+        <v>1.025631742986492</v>
       </c>
       <c r="J23">
-        <v>0.9567628083389068</v>
+        <v>1.042260416752527</v>
       </c>
       <c r="K23">
-        <v>0.9544277604712651</v>
+        <v>1.046626363030159</v>
       </c>
       <c r="L23">
-        <v>0.9558322013853928</v>
+        <v>1.046801896127908</v>
       </c>
       <c r="M23">
-        <v>0.9374818905706601</v>
+        <v>1.054041855650669</v>
       </c>
       <c r="N23">
-        <v>0.9581215212689759</v>
+        <v>1.043740546093257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9433458139156782</v>
+        <v>1.037818465089422</v>
       </c>
       <c r="D24">
-        <v>0.9575616747594602</v>
+        <v>1.045136734858522</v>
       </c>
       <c r="E24">
-        <v>0.958779628039655</v>
+        <v>1.045285461690633</v>
       </c>
       <c r="F24">
-        <v>0.9462775343077261</v>
+        <v>1.052925886451072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021654034026988</v>
+        <v>1.026017285716356</v>
       </c>
       <c r="J24">
-        <v>0.9732137324742853</v>
+        <v>1.043995812242738</v>
       </c>
       <c r="K24">
-        <v>0.9723774268145311</v>
+        <v>1.048475218803507</v>
       </c>
       <c r="L24">
-        <v>0.9735714695770575</v>
+        <v>1.048623436642837</v>
       </c>
       <c r="M24">
-        <v>0.9613186700319293</v>
+        <v>1.056237925859222</v>
       </c>
       <c r="N24">
-        <v>0.9745958076035743</v>
+        <v>1.045478406044116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9629037469015017</v>
+        <v>1.040407157614159</v>
       </c>
       <c r="D25">
-        <v>0.9762785057182432</v>
+        <v>1.047562126109793</v>
       </c>
       <c r="E25">
-        <v>0.9772815281277181</v>
+        <v>1.047679260581157</v>
       </c>
       <c r="F25">
-        <v>0.9702841676725773</v>
+        <v>1.055727951611693</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030264048659808</v>
+        <v>1.026418823642792</v>
       </c>
       <c r="J25">
-        <v>0.9887474558507243</v>
+        <v>1.045972366797057</v>
       </c>
       <c r="K25">
-        <v>0.9892565787634263</v>
+        <v>1.05057814345933</v>
       </c>
       <c r="L25">
-        <v>0.9902430636563233</v>
+        <v>1.05069491882206</v>
       </c>
       <c r="M25">
-        <v>0.983361992262254</v>
+        <v>1.058719142409143</v>
       </c>
       <c r="N25">
-        <v>0.9901515906489506</v>
+        <v>1.047457767532616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04244391055416</v>
+        <v>0.9764729210510578</v>
       </c>
       <c r="D2">
-        <v>1.049465110399412</v>
+        <v>0.9891610181309459</v>
       </c>
       <c r="E2">
-        <v>1.04955725944453</v>
+        <v>0.9900130122081089</v>
       </c>
       <c r="F2">
-        <v>1.057911667164067</v>
+        <v>0.9865460927118442</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026702514380507</v>
+        <v>1.035793398352211</v>
       </c>
       <c r="J2">
-        <v>1.047519701752911</v>
+        <v>0.9993808394444957</v>
       </c>
       <c r="K2">
-        <v>1.052222093595721</v>
+        <v>1.000773451499405</v>
       </c>
       <c r="L2">
-        <v>1.05231398614712</v>
+        <v>1.001613257690904</v>
       </c>
       <c r="M2">
-        <v>1.060645340779253</v>
+        <v>0.9981960994606262</v>
       </c>
       <c r="N2">
-        <v>1.049007299881589</v>
+        <v>1.000800074867091</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04390702417568</v>
+        <v>0.9854773771566775</v>
       </c>
       <c r="D3">
-        <v>1.050829055176828</v>
+        <v>0.997665701949182</v>
       </c>
       <c r="E3">
-        <v>1.05090318040054</v>
+        <v>0.9984167194399751</v>
       </c>
       <c r="F3">
-        <v>1.059468206855279</v>
+        <v>0.9971629809781335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026887458352109</v>
+        <v>1.039245857382454</v>
       </c>
       <c r="J3">
-        <v>1.048626704411167</v>
+        <v>1.006371928135428</v>
       </c>
       <c r="K3">
-        <v>1.053396865821758</v>
+        <v>1.008328537944901</v>
       </c>
       <c r="L3">
-        <v>1.053470799833194</v>
+        <v>1.00906989880193</v>
       </c>
       <c r="M3">
-        <v>1.062013926304268</v>
+        <v>1.007832291159193</v>
       </c>
       <c r="N3">
-        <v>1.050115874610596</v>
+        <v>1.007801091705854</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04484661572813</v>
+        <v>0.9909824710448629</v>
       </c>
       <c r="D4">
-        <v>1.051703532563204</v>
+        <v>1.002848023692328</v>
       </c>
       <c r="E4">
-        <v>1.051766047963862</v>
+        <v>1.003537024578774</v>
       </c>
       <c r="F4">
-        <v>1.060462160001686</v>
+        <v>1.00358440079362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026997440722205</v>
+        <v>1.041264409451779</v>
       </c>
       <c r="J4">
-        <v>1.049335499718999</v>
+        <v>1.010619693162379</v>
       </c>
       <c r="K4">
-        <v>1.054148422710619</v>
+        <v>1.012912196682609</v>
       </c>
       <c r="L4">
-        <v>1.054210785064856</v>
+        <v>1.013592947458516</v>
       </c>
       <c r="M4">
-        <v>1.062885796769004</v>
+        <v>1.013639756905861</v>
       </c>
       <c r="N4">
-        <v>1.050825676489064</v>
+        <v>1.012054889046369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045239930615996</v>
+        <v>0.993228071559571</v>
       </c>
       <c r="D5">
-        <v>1.052069246917554</v>
+        <v>1.004958172115142</v>
       </c>
       <c r="E5">
-        <v>1.052126893946919</v>
+        <v>1.005621814813658</v>
       </c>
       <c r="F5">
-        <v>1.060876877452781</v>
+        <v>1.006188351657072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027041363632053</v>
+        <v>1.042066515816238</v>
       </c>
       <c r="J5">
-        <v>1.049631696560357</v>
+        <v>1.012346483501337</v>
       </c>
       <c r="K5">
-        <v>1.054462337231275</v>
+        <v>1.014774014336296</v>
       </c>
       <c r="L5">
-        <v>1.054519846311849</v>
+        <v>1.01542994979542</v>
       </c>
       <c r="M5">
-        <v>1.06324907775588</v>
+        <v>1.015989917083329</v>
       </c>
       <c r="N5">
-        <v>1.051122293963911</v>
+        <v>1.013784131625674</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045305871415692</v>
+        <v>0.9936012952159207</v>
       </c>
       <c r="D6">
-        <v>1.052130540173136</v>
+        <v>1.005308668727142</v>
       </c>
       <c r="E6">
-        <v>1.052187370501709</v>
+        <v>1.005968093424391</v>
       </c>
       <c r="F6">
-        <v>1.060946326944307</v>
+        <v>1.006620256350186</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02704860295966</v>
+        <v>1.042198594295511</v>
       </c>
       <c r="J6">
-        <v>1.049681325370345</v>
+        <v>1.012633140794179</v>
       </c>
       <c r="K6">
-        <v>1.054514925757602</v>
+        <v>1.015083000194387</v>
       </c>
       <c r="L6">
-        <v>1.054571620617615</v>
+        <v>1.015734806141868</v>
       </c>
       <c r="M6">
-        <v>1.06330988416365</v>
+        <v>1.016379446343493</v>
       </c>
       <c r="N6">
-        <v>1.051171993252501</v>
+        <v>1.014071196004752</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044851877832406</v>
+        <v>0.991012737340764</v>
       </c>
       <c r="D7">
-        <v>1.051708426758319</v>
+        <v>1.002876479035412</v>
       </c>
       <c r="E7">
-        <v>1.051770877059166</v>
+        <v>1.003565138377293</v>
       </c>
       <c r="F7">
-        <v>1.060467713780345</v>
+        <v>1.003619556887584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026998036705878</v>
+        <v>1.041275304012226</v>
       </c>
       <c r="J7">
-        <v>1.049339464490071</v>
+        <v>1.010642990026743</v>
       </c>
       <c r="K7">
-        <v>1.054152625242893</v>
+        <v>1.012937321182278</v>
       </c>
       <c r="L7">
-        <v>1.054214922702739</v>
+        <v>1.013617737849531</v>
       </c>
       <c r="M7">
-        <v>1.062890663697262</v>
+        <v>1.013671505614</v>
       </c>
       <c r="N7">
-        <v>1.050829646890566</v>
+        <v>1.012078218994952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042939867636183</v>
+        <v>0.9795880718767825</v>
       </c>
       <c r="D8">
-        <v>1.049927748527896</v>
+        <v>0.9921072166581179</v>
       </c>
       <c r="E8">
-        <v>1.050013795259402</v>
+        <v>0.9929243428997114</v>
       </c>
       <c r="F8">
-        <v>1.058440463831191</v>
+        <v>0.9902348814917893</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026767026966958</v>
+        <v>1.037008215924901</v>
       </c>
       <c r="J8">
-        <v>1.047895383946798</v>
+        <v>1.001805417278711</v>
       </c>
       <c r="K8">
-        <v>1.052620905514638</v>
+        <v>1.003395172899012</v>
       </c>
       <c r="L8">
-        <v>1.05270671867564</v>
+        <v>1.004201019233539</v>
       </c>
       <c r="M8">
-        <v>1.061110712345018</v>
+        <v>1.001548772675172</v>
       </c>
       <c r="N8">
-        <v>1.049383515587283</v>
+        <v>1.003228095879934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039515016698616</v>
+        <v>0.9565019874728833</v>
       </c>
       <c r="D9">
-        <v>1.046727086091111</v>
+        <v>0.970172118318131</v>
       </c>
       <c r="E9">
-        <v>1.046855128250006</v>
+        <v>0.9712458785235447</v>
       </c>
       <c r="F9">
-        <v>1.054765534017671</v>
+        <v>0.9625015208736279</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026285444718819</v>
+        <v>1.02752704305757</v>
       </c>
       <c r="J9">
-        <v>1.045292399925421</v>
+        <v>0.9836901489817538</v>
       </c>
       <c r="K9">
-        <v>1.049855063281246</v>
+        <v>0.9837684094995803</v>
       </c>
       <c r="L9">
-        <v>1.049982697122426</v>
+        <v>0.9848233600620983</v>
       </c>
       <c r="M9">
-        <v>1.057868087311537</v>
+        <v>0.9762337676722583</v>
       </c>
       <c r="N9">
-        <v>1.046776835030029</v>
+        <v>0.9850871018241447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037192959588801</v>
+        <v>0.9380971414333907</v>
       </c>
       <c r="D10">
-        <v>1.044549621222681</v>
+        <v>0.9525061753093477</v>
       </c>
       <c r="E10">
-        <v>1.04470595580048</v>
+        <v>0.953781158416087</v>
       </c>
       <c r="F10">
-        <v>1.05224459536142</v>
+        <v>0.9397149613571532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025913787246073</v>
+        <v>1.019218663161758</v>
       </c>
       <c r="J10">
-        <v>1.043516644489878</v>
+        <v>0.9690019072579457</v>
       </c>
       <c r="K10">
-        <v>1.047964948565619</v>
+        <v>0.9677893717204938</v>
       </c>
       <c r="L10">
-        <v>1.048120734699971</v>
+        <v>0.9690382517537314</v>
       </c>
       <c r="M10">
-        <v>1.055633140552771</v>
+        <v>0.9552652288345409</v>
       </c>
       <c r="N10">
-        <v>1.044998557818086</v>
+        <v>0.9703780011123242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036177939141536</v>
+        <v>0.9289938988998919</v>
       </c>
       <c r="D11">
-        <v>1.043596053522936</v>
+        <v>0.9437017506065831</v>
       </c>
       <c r="E11">
-        <v>1.043764712841733</v>
+        <v>0.9450748735774228</v>
       </c>
       <c r="F11">
-        <v>1.051135690434684</v>
+        <v>0.928203544127876</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025740720676983</v>
+        <v>1.014868658511398</v>
       </c>
       <c r="J11">
-        <v>1.042737841059331</v>
+        <v>0.9616510112085203</v>
       </c>
       <c r="K11">
-        <v>1.047135223795441</v>
+        <v>0.9597696441689691</v>
       </c>
       <c r="L11">
-        <v>1.047303267995196</v>
+        <v>0.9611126570007477</v>
       </c>
       <c r="M11">
-        <v>1.054647575697463</v>
+        <v>0.9446195422388172</v>
       </c>
       <c r="N11">
-        <v>1.044218648397338</v>
+        <v>0.963016665947349</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035799449524594</v>
+        <v>0.9253769423999431</v>
       </c>
       <c r="D12">
-        <v>1.043240215994828</v>
+        <v>0.9401899013312304</v>
       </c>
       <c r="E12">
-        <v>1.043413464710395</v>
+        <v>0.9416017176072148</v>
       </c>
       <c r="F12">
-        <v>1.050721148065864</v>
+        <v>0.9235819344327619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025674599837404</v>
+        <v>1.013095023207317</v>
       </c>
       <c r="J12">
-        <v>1.042447046433167</v>
+        <v>0.9587133949885953</v>
       </c>
       <c r="K12">
-        <v>1.046825301161534</v>
+        <v>0.9565602614960071</v>
       </c>
       <c r="L12">
-        <v>1.046997909056421</v>
+        <v>0.9579403061404164</v>
       </c>
       <c r="M12">
-        <v>1.054278775085686</v>
+        <v>0.9403358214625699</v>
       </c>
       <c r="N12">
-        <v>1.04392744080945</v>
+        <v>0.9600748779754426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035880703667571</v>
+        <v>0.9261649999818413</v>
       </c>
       <c r="D13">
-        <v>1.043316619078783</v>
+        <v>0.9409557495970867</v>
       </c>
       <c r="E13">
-        <v>1.043488882830078</v>
+        <v>0.9423591509919749</v>
       </c>
       <c r="F13">
-        <v>1.050810189254916</v>
+        <v>0.9245912847654306</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025688866292393</v>
+        <v>1.013483691735659</v>
       </c>
       <c r="J13">
-        <v>1.042509491745879</v>
+        <v>0.9593542856566506</v>
       </c>
       <c r="K13">
-        <v>1.046891859206927</v>
+        <v>0.9572606664349257</v>
       </c>
       <c r="L13">
-        <v>1.047063487693505</v>
+        <v>0.9586326614694074</v>
       </c>
       <c r="M13">
-        <v>1.054358007743544</v>
+        <v>0.9412718493110531</v>
       </c>
       <c r="N13">
-        <v>1.043989974801668</v>
+        <v>0.9607166787817579</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036146683155049</v>
+        <v>0.9287002630592556</v>
       </c>
       <c r="D14">
-        <v>1.043566673521652</v>
+        <v>0.9434169472054407</v>
       </c>
       <c r="E14">
-        <v>1.043735711966107</v>
+        <v>0.9447932181323528</v>
       </c>
       <c r="F14">
-        <v>1.051101478463324</v>
+        <v>0.9278293898025322</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025735292644082</v>
+        <v>1.014725641848487</v>
       </c>
       <c r="J14">
-        <v>1.042713834894804</v>
+        <v>0.9614128942729003</v>
       </c>
       <c r="K14">
-        <v>1.047109640876898</v>
+        <v>0.959509595614855</v>
       </c>
       <c r="L14">
-        <v>1.047278062097084</v>
+        <v>0.9608556229572233</v>
       </c>
       <c r="M14">
-        <v>1.054617146213994</v>
+        <v>0.9442729482962052</v>
       </c>
       <c r="N14">
-        <v>1.044194608141303</v>
+        <v>0.9627782108583679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036310366726508</v>
+        <v>0.930228418646232</v>
       </c>
       <c r="D15">
-        <v>1.043720522049874</v>
+        <v>0.9448985686662683</v>
       </c>
       <c r="E15">
-        <v>1.043887574802229</v>
+        <v>0.9462584442135098</v>
       </c>
       <c r="F15">
-        <v>1.051280599443684</v>
+        <v>0.9297745985343384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025763653733383</v>
+        <v>1.015468070899361</v>
       </c>
       <c r="J15">
-        <v>1.042839536234584</v>
+        <v>0.9626514138681622</v>
       </c>
       <c r="K15">
-        <v>1.047243593749296</v>
+        <v>0.9608620029364879</v>
       </c>
       <c r="L15">
-        <v>1.047410040267731</v>
+        <v>0.9621923265663985</v>
       </c>
       <c r="M15">
-        <v>1.054776448561862</v>
+        <v>0.9460744760211099</v>
       </c>
       <c r="N15">
-        <v>1.044320487991404</v>
+        <v>0.9640184892935153</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037260119290489</v>
+        <v>0.9386727091734566</v>
       </c>
       <c r="D16">
-        <v>1.044612678105178</v>
+        <v>0.9530612805982764</v>
       </c>
       <c r="E16">
-        <v>1.04476819631628</v>
+        <v>0.9543300249088384</v>
       </c>
       <c r="F16">
-        <v>1.052317821133348</v>
+        <v>0.9404372099756391</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025925016331327</v>
+        <v>1.019488302680795</v>
       </c>
       <c r="J16">
-        <v>1.043568120509196</v>
+        <v>0.9694647003609839</v>
       </c>
       <c r="K16">
-        <v>1.048019774274153</v>
+        <v>0.968293749775794</v>
       </c>
       <c r="L16">
-        <v>1.04817474833755</v>
+        <v>0.9695366357269358</v>
       </c>
       <c r="M16">
-        <v>1.055698170391344</v>
+        <v>0.955932003616195</v>
       </c>
       <c r="N16">
-        <v>1.045050106939255</v>
+        <v>0.9708414514346516</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03785329497949</v>
+        <v>0.9436310268939053</v>
       </c>
       <c r="D17">
-        <v>1.045169415096865</v>
+        <v>0.9578359744176351</v>
       </c>
       <c r="E17">
-        <v>1.04531771802028</v>
+        <v>0.9590508200723437</v>
       </c>
       <c r="F17">
-        <v>1.052963775482509</v>
+        <v>0.9466326366062147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026022976824906</v>
+        <v>1.021784862838586</v>
       </c>
       <c r="J17">
-        <v>1.044022476111178</v>
+        <v>0.973442065185872</v>
       </c>
       <c r="K17">
-        <v>1.0485036082175</v>
+        <v>0.972626013652538</v>
       </c>
       <c r="L17">
-        <v>1.048651404308034</v>
+        <v>0.9738170654026586</v>
       </c>
       <c r="M17">
-        <v>1.056271543482714</v>
+        <v>0.961645895689669</v>
       </c>
       <c r="N17">
-        <v>1.045505107778307</v>
+        <v>0.9748244645738012</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038198364591761</v>
+        <v>0.9464194228756947</v>
       </c>
       <c r="D18">
-        <v>1.045493119069565</v>
+        <v>0.9605154730857922</v>
       </c>
       <c r="E18">
-        <v>1.045637220548645</v>
+        <v>0.9616998920268313</v>
       </c>
       <c r="F18">
-        <v>1.05333888146671</v>
+        <v>0.9500962645576704</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026078945463664</v>
+        <v>1.023055738120406</v>
       </c>
       <c r="J18">
-        <v>1.04428654170927</v>
+        <v>0.9756714917401349</v>
       </c>
       <c r="K18">
-        <v>1.048784732858904</v>
+        <v>0.9750524402949293</v>
       </c>
       <c r="L18">
-        <v>1.048928348693581</v>
+        <v>0.9762141914969438</v>
       </c>
       <c r="M18">
-        <v>1.056604266001339</v>
+        <v>0.9648358361379626</v>
       </c>
       <c r="N18">
-        <v>1.045769548379837</v>
+        <v>0.9770570571694902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038315869307558</v>
+        <v>0.9473540079352512</v>
       </c>
       <c r="D19">
-        <v>1.045603319742117</v>
+        <v>0.9614126753002379</v>
       </c>
       <c r="E19">
-        <v>1.045745989833537</v>
+        <v>0.9625868782685691</v>
       </c>
       <c r="F19">
-        <v>1.053466501222861</v>
+        <v>0.9512539271472497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026097831232171</v>
+        <v>1.023478377397767</v>
       </c>
       <c r="J19">
-        <v>1.044376420504082</v>
+        <v>0.9764175669259091</v>
       </c>
       <c r="K19">
-        <v>1.048880405499812</v>
+        <v>0.9758641348944671</v>
       </c>
       <c r="L19">
-        <v>1.049022597074765</v>
+        <v>0.9770160419039516</v>
       </c>
       <c r="M19">
-        <v>1.056717425871827</v>
+        <v>0.9659012980869294</v>
       </c>
       <c r="N19">
-        <v>1.045859554812848</v>
+        <v>0.9778041918676043</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037789748189684</v>
+        <v>0.9431101242039474</v>
       </c>
       <c r="D20">
-        <v>1.045109789376692</v>
+        <v>0.9573349715501854</v>
       </c>
       <c r="E20">
-        <v>1.045258865694314</v>
+        <v>0.9585554922062159</v>
       </c>
       <c r="F20">
-        <v>1.052894643556398</v>
+        <v>0.9459839745684134</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026012587705531</v>
+        <v>1.021545804613735</v>
       </c>
       <c r="J20">
-        <v>1.043973826747977</v>
+        <v>0.9730250051096154</v>
       </c>
       <c r="K20">
-        <v>1.048451810108494</v>
+        <v>0.9721719475324235</v>
       </c>
       <c r="L20">
-        <v>1.048600375649595</v>
+        <v>0.9733684611076385</v>
       </c>
       <c r="M20">
-        <v>1.056210203791567</v>
+        <v>0.9610481301134217</v>
       </c>
       <c r="N20">
-        <v>1.04545638932743</v>
+        <v>0.9744068122243993</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036068399540243</v>
+        <v>0.9279609413622156</v>
       </c>
       <c r="D21">
-        <v>1.043493084248277</v>
+        <v>0.9426996320366149</v>
       </c>
       <c r="E21">
-        <v>1.043663072146718</v>
+        <v>0.9440838237708018</v>
       </c>
       <c r="F21">
-        <v>1.051015774444674</v>
+        <v>0.9268865279223631</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025721672037495</v>
+        <v>1.014364793907292</v>
       </c>
       <c r="J21">
-        <v>1.042653702898652</v>
+        <v>0.9608130733046178</v>
       </c>
       <c r="K21">
-        <v>1.047045557489447</v>
+        <v>0.9588544529284776</v>
       </c>
       <c r="L21">
-        <v>1.047214922877252</v>
+        <v>0.9602080639525503</v>
       </c>
       <c r="M21">
-        <v>1.054540911761518</v>
+        <v>0.9433993772469467</v>
       </c>
       <c r="N21">
-        <v>1.044134390750819</v>
+        <v>0.9621775380755103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034977622440786</v>
+        <v>0.9169978451335327</v>
       </c>
       <c r="D22">
-        <v>1.042467092531988</v>
+        <v>0.9320218777926055</v>
       </c>
       <c r="E22">
-        <v>1.04265029472673</v>
+        <v>0.9335225895693178</v>
       </c>
       <c r="F22">
-        <v>1.049819124577815</v>
+        <v>0.912763861435558</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025528130931748</v>
+        <v>1.008883781923704</v>
       </c>
       <c r="J22">
-        <v>1.041814924520298</v>
+        <v>0.9518687602440316</v>
       </c>
       <c r="K22">
-        <v>1.046151389481651</v>
+        <v>0.9490720031026685</v>
       </c>
       <c r="L22">
-        <v>1.046333893485316</v>
+        <v>0.9505369507363214</v>
       </c>
       <c r="M22">
-        <v>1.053475614568149</v>
+        <v>0.9302870381661823</v>
       </c>
       <c r="N22">
-        <v>1.043294421210959</v>
+        <v>0.9532205230644507</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035556679932524</v>
+        <v>0.9229820709520296</v>
       </c>
       <c r="D23">
-        <v>1.043011901800644</v>
+        <v>0.9378600995955403</v>
       </c>
       <c r="E23">
-        <v>1.043188092443821</v>
+        <v>0.9392974331735742</v>
       </c>
       <c r="F23">
-        <v>1.050454959483391</v>
+        <v>0.9205061974132375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025631742986492</v>
+        <v>1.0119061652131</v>
       </c>
       <c r="J23">
-        <v>1.042260416752527</v>
+        <v>0.9567628083389063</v>
       </c>
       <c r="K23">
-        <v>1.046626363030159</v>
+        <v>0.9544277604712645</v>
       </c>
       <c r="L23">
-        <v>1.046801896127908</v>
+        <v>0.955832201385392</v>
       </c>
       <c r="M23">
-        <v>1.054041855650669</v>
+        <v>0.9374818905706591</v>
       </c>
       <c r="N23">
-        <v>1.043740546093257</v>
+        <v>0.9581215212689753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037818465089422</v>
+        <v>0.9433458139156784</v>
       </c>
       <c r="D24">
-        <v>1.045136734858522</v>
+        <v>0.9575616747594606</v>
       </c>
       <c r="E24">
-        <v>1.045285461690633</v>
+        <v>0.958779628039655</v>
       </c>
       <c r="F24">
-        <v>1.052925886451072</v>
+        <v>0.9462775343077261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026017285716356</v>
+        <v>1.021654034026988</v>
       </c>
       <c r="J24">
-        <v>1.043995812242738</v>
+        <v>0.9732137324742856</v>
       </c>
       <c r="K24">
-        <v>1.048475218803507</v>
+        <v>0.9723774268145314</v>
       </c>
       <c r="L24">
-        <v>1.048623436642837</v>
+        <v>0.9735714695770575</v>
       </c>
       <c r="M24">
-        <v>1.056237925859222</v>
+        <v>0.9613186700319291</v>
       </c>
       <c r="N24">
-        <v>1.045478406044116</v>
+        <v>0.9745958076035744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040407157614159</v>
+        <v>0.9629037469015018</v>
       </c>
       <c r="D25">
-        <v>1.047562126109793</v>
+        <v>0.9762785057182435</v>
       </c>
       <c r="E25">
-        <v>1.047679260581157</v>
+        <v>0.9772815281277183</v>
       </c>
       <c r="F25">
-        <v>1.055727951611693</v>
+        <v>0.9702841676725776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026418823642792</v>
+        <v>1.030264048659808</v>
       </c>
       <c r="J25">
-        <v>1.045972366797057</v>
+        <v>0.9887474558507247</v>
       </c>
       <c r="K25">
-        <v>1.05057814345933</v>
+        <v>0.9892565787634267</v>
       </c>
       <c r="L25">
-        <v>1.05069491882206</v>
+        <v>0.9902430636563235</v>
       </c>
       <c r="M25">
-        <v>1.058719142409143</v>
+        <v>0.9833619922622543</v>
       </c>
       <c r="N25">
-        <v>1.047457767532616</v>
+        <v>0.990151590648951</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9764729210510578</v>
+        <v>1.007651536586376</v>
       </c>
       <c r="D2">
-        <v>0.9891610181309459</v>
+        <v>1.019058980694204</v>
       </c>
       <c r="E2">
-        <v>0.9900130122081089</v>
+        <v>1.022796192044668</v>
       </c>
       <c r="F2">
-        <v>0.9865460927118442</v>
+        <v>1.033059721455607</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035793398352211</v>
+        <v>1.052148433392418</v>
       </c>
       <c r="J2">
-        <v>0.9993808394444957</v>
+        <v>1.029605775426244</v>
       </c>
       <c r="K2">
-        <v>1.000773451499405</v>
+        <v>1.030259028767601</v>
       </c>
       <c r="L2">
-        <v>1.001613257690904</v>
+        <v>1.033946818623029</v>
       </c>
       <c r="M2">
-        <v>0.9981960994606262</v>
+        <v>1.044076921798204</v>
       </c>
       <c r="N2">
-        <v>1.000800074867091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013806437262829</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043456311612699</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032465935125826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9854773771566775</v>
+        <v>1.011122013380972</v>
       </c>
       <c r="D3">
-        <v>0.997665701949182</v>
+        <v>1.021560319055634</v>
       </c>
       <c r="E3">
-        <v>0.9984167194399751</v>
+        <v>1.025485017248942</v>
       </c>
       <c r="F3">
-        <v>0.9971629809781335</v>
+        <v>1.035705570483958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039245857382454</v>
+        <v>1.052878448895983</v>
       </c>
       <c r="J3">
-        <v>1.006371928135428</v>
+        <v>1.031314005611475</v>
       </c>
       <c r="K3">
-        <v>1.008328537944901</v>
+        <v>1.031924568055444</v>
       </c>
       <c r="L3">
-        <v>1.00906989880193</v>
+        <v>1.035801874845593</v>
       </c>
       <c r="M3">
-        <v>1.007832291159193</v>
+        <v>1.045901099630021</v>
       </c>
       <c r="N3">
-        <v>1.007801091705854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01437651739898</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044900018741597</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03364094931913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9909824710448629</v>
+        <v>1.013329007352569</v>
       </c>
       <c r="D4">
-        <v>1.002848023692328</v>
+        <v>1.023157450496932</v>
       </c>
       <c r="E4">
-        <v>1.003537024578774</v>
+        <v>1.027200578481729</v>
       </c>
       <c r="F4">
-        <v>1.00358440079362</v>
+        <v>1.037394004639773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041264409451779</v>
+        <v>1.053327698250227</v>
       </c>
       <c r="J4">
-        <v>1.010619693162379</v>
+        <v>1.03239779381787</v>
       </c>
       <c r="K4">
-        <v>1.012912196682609</v>
+        <v>1.032984193950773</v>
       </c>
       <c r="L4">
-        <v>1.013592947458516</v>
+        <v>1.036981436710003</v>
       </c>
       <c r="M4">
-        <v>1.013639756905861</v>
+        <v>1.047061129950227</v>
       </c>
       <c r="N4">
-        <v>1.012054889046369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014738268353766</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045818098827818</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034391110554292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.993228071559571</v>
+        <v>1.01425101666068</v>
       </c>
       <c r="D5">
-        <v>1.004958172115142</v>
+        <v>1.023829046456761</v>
       </c>
       <c r="E5">
-        <v>1.005621814813658</v>
+        <v>1.02791875378206</v>
       </c>
       <c r="F5">
-        <v>1.006188351657072</v>
+        <v>1.038100331886693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042066515816238</v>
+        <v>1.053512419267811</v>
       </c>
       <c r="J5">
-        <v>1.012346483501337</v>
+        <v>1.032851479751792</v>
       </c>
       <c r="K5">
-        <v>1.014774014336296</v>
+        <v>1.03343052698692</v>
       </c>
       <c r="L5">
-        <v>1.01542994979542</v>
+        <v>1.037475053082979</v>
       </c>
       <c r="M5">
-        <v>1.015989917083329</v>
+        <v>1.047546045064381</v>
       </c>
       <c r="N5">
-        <v>1.013784131625674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014889967527487</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046201873723577</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034713932360917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9936012952159207</v>
+        <v>1.014409192964181</v>
       </c>
       <c r="D6">
-        <v>1.005308668727142</v>
+        <v>1.023947799885237</v>
       </c>
       <c r="E6">
-        <v>1.005968093424391</v>
+        <v>1.028042211269237</v>
       </c>
       <c r="F6">
-        <v>1.006620256350186</v>
+        <v>1.038221078777507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042198594295511</v>
+        <v>1.053544742061262</v>
       </c>
       <c r="J6">
-        <v>1.012633140794179</v>
+        <v>1.032931157849244</v>
       </c>
       <c r="K6">
-        <v>1.015083000194387</v>
+        <v>1.033511432465635</v>
       </c>
       <c r="L6">
-        <v>1.015734806141868</v>
+        <v>1.037560817411669</v>
       </c>
       <c r="M6">
-        <v>1.016379446343493</v>
+        <v>1.047629632680088</v>
       </c>
       <c r="N6">
-        <v>1.014071196004752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014916915991474</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04626802719613</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034779946818767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.991012737340764</v>
+        <v>1.013351831635019</v>
       </c>
       <c r="D7">
-        <v>1.002876479035412</v>
+        <v>1.023183299319275</v>
       </c>
       <c r="E7">
-        <v>1.003565138377293</v>
+        <v>1.027218819848215</v>
       </c>
       <c r="F7">
-        <v>1.003619556887584</v>
+        <v>1.037410119137582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041275304012226</v>
+        <v>1.053334565360551</v>
       </c>
       <c r="J7">
-        <v>1.010642990026743</v>
+        <v>1.032414086680495</v>
       </c>
       <c r="K7">
-        <v>1.012937321182278</v>
+        <v>1.033006837674745</v>
       </c>
       <c r="L7">
-        <v>1.013617737849531</v>
+        <v>1.036996577033909</v>
       </c>
       <c r="M7">
-        <v>1.013671505614</v>
+        <v>1.047074209684385</v>
       </c>
       <c r="N7">
-        <v>1.012078218994952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014744546007598</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045828450484718</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034427379234217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9795880718767825</v>
+        <v>1.008845688623861</v>
       </c>
       <c r="D8">
-        <v>0.9921072166581179</v>
+        <v>1.019929754774572</v>
       </c>
       <c r="E8">
-        <v>0.9929243428997114</v>
+        <v>1.023720833811873</v>
       </c>
       <c r="F8">
-        <v>0.9902348814917893</v>
+        <v>1.033967217369516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037008215924901</v>
+        <v>1.052405441361774</v>
       </c>
       <c r="J8">
-        <v>1.001805417278711</v>
+        <v>1.030200371317969</v>
       </c>
       <c r="K8">
-        <v>1.003395172899012</v>
+        <v>1.030846365890249</v>
       </c>
       <c r="L8">
-        <v>1.004201019233539</v>
+        <v>1.03458879887693</v>
       </c>
       <c r="M8">
-        <v>1.001548772675172</v>
+        <v>1.044705928438178</v>
       </c>
       <c r="N8">
-        <v>1.003228095879934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014005935610447</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043954125993772</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032904327450511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9565019874728833</v>
+        <v>1.000580975641755</v>
       </c>
       <c r="D9">
-        <v>0.970172118318131</v>
+        <v>1.013999897445918</v>
       </c>
       <c r="E9">
-        <v>0.9712458785235447</v>
+        <v>1.017350514823689</v>
       </c>
       <c r="F9">
-        <v>0.9625015208736279</v>
+        <v>1.027702717661274</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02752704305757</v>
+        <v>1.050581489774929</v>
       </c>
       <c r="J9">
-        <v>0.9836901489817538</v>
+        <v>1.026113234829038</v>
       </c>
       <c r="K9">
-        <v>0.9837684094995803</v>
+        <v>1.02686984741109</v>
       </c>
       <c r="L9">
-        <v>0.9848233600620983</v>
+        <v>1.030168227183951</v>
       </c>
       <c r="M9">
-        <v>0.9762337676722583</v>
+        <v>1.040361776431851</v>
       </c>
       <c r="N9">
-        <v>0.9850871018241447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012641392904547</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040516029189168</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030089414604447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380971414333907</v>
+        <v>0.994894610287797</v>
       </c>
       <c r="D10">
-        <v>0.9525061753093477</v>
+        <v>1.0099654788108</v>
       </c>
       <c r="E10">
-        <v>0.953781158416087</v>
+        <v>1.013032896652136</v>
       </c>
       <c r="F10">
-        <v>0.9397149613571532</v>
+        <v>1.023507635651876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019218663161758</v>
+        <v>1.049266678985776</v>
       </c>
       <c r="J10">
-        <v>0.9690019072579457</v>
+        <v>1.02331226176743</v>
       </c>
       <c r="K10">
-        <v>0.9677893717204938</v>
+        <v>1.024157104800367</v>
       </c>
       <c r="L10">
-        <v>0.9690382517537314</v>
+        <v>1.027170758792315</v>
       </c>
       <c r="M10">
-        <v>0.9552652288345409</v>
+        <v>1.037465039336654</v>
       </c>
       <c r="N10">
-        <v>0.9703780011123242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011710725158453</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038274903475999</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028188269639756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9289938988998919</v>
+        <v>0.9927329346686129</v>
       </c>
       <c r="D11">
-        <v>0.9437017506065831</v>
+        <v>1.008495391966441</v>
       </c>
       <c r="E11">
-        <v>0.9450748735774228</v>
+        <v>1.011653999200367</v>
       </c>
       <c r="F11">
-        <v>0.928203544127876</v>
+        <v>1.022563332002129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014868658511398</v>
+        <v>1.048864896911231</v>
       </c>
       <c r="J11">
-        <v>0.9616510112085203</v>
+        <v>1.02241118848333</v>
       </c>
       <c r="K11">
-        <v>0.9597696441689691</v>
+        <v>1.023258856466687</v>
       </c>
       <c r="L11">
-        <v>0.9611126570007477</v>
+        <v>1.026359434567075</v>
       </c>
       <c r="M11">
-        <v>0.9446195422388172</v>
+        <v>1.037071922564075</v>
       </c>
       <c r="N11">
-        <v>0.963016665947349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011443912003269</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038400043386144</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027586326233223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9253769423999431</v>
+        <v>0.9920354591410818</v>
       </c>
       <c r="D12">
-        <v>0.9401899013312304</v>
+        <v>1.008034827549043</v>
       </c>
       <c r="E12">
-        <v>0.9416017176072148</v>
+        <v>1.011311708895722</v>
       </c>
       <c r="F12">
-        <v>0.9235819344327619</v>
+        <v>1.022524753343518</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013095023207317</v>
+        <v>1.048775808110681</v>
       </c>
       <c r="J12">
-        <v>0.9587133949885953</v>
+        <v>1.022180759823618</v>
       </c>
       <c r="K12">
-        <v>0.9565602614960071</v>
+        <v>1.023009695073883</v>
       </c>
       <c r="L12">
-        <v>0.9579403061404164</v>
+        <v>1.02622535643884</v>
       </c>
       <c r="M12">
-        <v>0.9403358214625699</v>
+        <v>1.037232774175026</v>
       </c>
       <c r="N12">
-        <v>0.9600748779754426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011392418436069</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03885363898414</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027410157731549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9261649999818413</v>
+        <v>0.9924345065958254</v>
       </c>
       <c r="D13">
-        <v>0.9409557495970867</v>
+        <v>1.00834129283389</v>
       </c>
       <c r="E13">
-        <v>0.9423591509919749</v>
+        <v>1.011759291935481</v>
       </c>
       <c r="F13">
-        <v>0.9245912847654306</v>
+        <v>1.02320321385371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013483691735659</v>
+        <v>1.048934901233535</v>
       </c>
       <c r="J13">
-        <v>0.9593542856566506</v>
+        <v>1.022468732849398</v>
       </c>
       <c r="K13">
-        <v>0.9572606664349257</v>
+        <v>1.023266909603706</v>
       </c>
       <c r="L13">
-        <v>0.9586326614694074</v>
+        <v>1.026621328266108</v>
       </c>
       <c r="M13">
-        <v>0.9412718493110531</v>
+        <v>1.037856392238069</v>
       </c>
       <c r="N13">
-        <v>0.9607166787817579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011510257791479</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03962332990889</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027589502392958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287002630592556</v>
+        <v>0.9932115581978429</v>
       </c>
       <c r="D14">
-        <v>0.9434169472054407</v>
+        <v>1.008905873165194</v>
       </c>
       <c r="E14">
-        <v>0.9447932181323528</v>
+        <v>1.012429737714623</v>
       </c>
       <c r="F14">
-        <v>0.9278293898025322</v>
+        <v>1.024001742347393</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014725641848487</v>
+        <v>1.049158422696684</v>
       </c>
       <c r="J14">
-        <v>0.9614128942729003</v>
+        <v>1.022905558806111</v>
       </c>
       <c r="K14">
-        <v>0.959509595614855</v>
+        <v>1.023678520837823</v>
       </c>
       <c r="L14">
-        <v>0.9608556229572233</v>
+        <v>1.027137660109114</v>
       </c>
       <c r="M14">
-        <v>0.9442729482962052</v>
+        <v>1.038501179409538</v>
       </c>
       <c r="N14">
-        <v>0.9627782108583679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011669632427572</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040306281645506</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027881969496602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.930228418646232</v>
+        <v>0.9936453748532272</v>
       </c>
       <c r="D15">
-        <v>0.9448985686662683</v>
+        <v>1.00921842099024</v>
       </c>
       <c r="E15">
-        <v>0.9462584442135098</v>
+        <v>1.012774705585918</v>
       </c>
       <c r="F15">
-        <v>0.9297745985343384</v>
+        <v>1.024368545630915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015468070899361</v>
+        <v>1.049270592944513</v>
       </c>
       <c r="J15">
-        <v>0.9626514138681622</v>
+        <v>1.023132219103838</v>
       </c>
       <c r="K15">
-        <v>0.9608620029364879</v>
+        <v>1.023897586826967</v>
       </c>
       <c r="L15">
-        <v>0.9621923265663985</v>
+        <v>1.027389052582687</v>
       </c>
       <c r="M15">
-        <v>0.9460744760211099</v>
+        <v>1.038775628404828</v>
       </c>
       <c r="N15">
-        <v>0.9640184892935153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01174817352079</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040560726890126</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02804278855843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9386727091734566</v>
+        <v>0.9959802994951775</v>
       </c>
       <c r="D16">
-        <v>0.9530612805982764</v>
+        <v>1.010869893800257</v>
       </c>
       <c r="E16">
-        <v>0.9543300249088384</v>
+        <v>1.014525120444464</v>
       </c>
       <c r="F16">
-        <v>0.9404372099756391</v>
+        <v>1.026050011095385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019488302680795</v>
+        <v>1.049819824548623</v>
       </c>
       <c r="J16">
-        <v>0.9694647003609839</v>
+        <v>1.024277014718737</v>
       </c>
       <c r="K16">
-        <v>0.968293749775794</v>
+        <v>1.025009514189427</v>
       </c>
       <c r="L16">
-        <v>0.9695366357269358</v>
+        <v>1.028601057456649</v>
       </c>
       <c r="M16">
-        <v>0.955932003616195</v>
+        <v>1.039928986662899</v>
       </c>
       <c r="N16">
-        <v>0.9708414514346516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.0121247698589</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041433641110801</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028832171989345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9436310268939053</v>
+        <v>0.9973663853936335</v>
       </c>
       <c r="D17">
-        <v>0.9578359744176351</v>
+        <v>1.011844240897854</v>
       </c>
       <c r="E17">
-        <v>0.9590508200723437</v>
+        <v>1.015518187910569</v>
       </c>
       <c r="F17">
-        <v>0.9466326366062147</v>
+        <v>1.026917310311125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021784862838586</v>
+        <v>1.050120368627593</v>
       </c>
       <c r="J17">
-        <v>0.973442065185872</v>
+        <v>1.024926147084537</v>
       </c>
       <c r="K17">
-        <v>0.972626013652538</v>
+        <v>1.025647736550173</v>
       </c>
       <c r="L17">
-        <v>0.9738170654026586</v>
+        <v>1.029259490097588</v>
       </c>
       <c r="M17">
-        <v>0.961645895689669</v>
+        <v>1.040469286789589</v>
       </c>
       <c r="N17">
-        <v>0.9748244645738012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012330041186071</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041731746053085</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029286038507644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9464194228756947</v>
+        <v>0.9980533220190061</v>
       </c>
       <c r="D18">
-        <v>0.9605154730857922</v>
+        <v>1.012306701017292</v>
       </c>
       <c r="E18">
-        <v>0.9616998920268313</v>
+        <v>1.015923632478858</v>
       </c>
       <c r="F18">
-        <v>0.9500962645576704</v>
+        <v>1.027114845408923</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023055738120406</v>
+        <v>1.050228106850837</v>
       </c>
       <c r="J18">
-        <v>0.9756714917401349</v>
+        <v>1.025190074766373</v>
       </c>
       <c r="K18">
-        <v>0.9750524402949293</v>
+        <v>1.025916333034433</v>
       </c>
       <c r="L18">
-        <v>0.9762141914969438</v>
+        <v>1.029473049802259</v>
       </c>
       <c r="M18">
-        <v>0.9648358361379626</v>
+        <v>1.040481398399459</v>
       </c>
       <c r="N18">
-        <v>0.9770570571694902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012399179432682</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041503782363153</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029464202576503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9473540079352512</v>
+        <v>0.9981125534560903</v>
       </c>
       <c r="D19">
-        <v>0.9614126753002379</v>
+        <v>1.012322365692336</v>
       </c>
       <c r="E19">
-        <v>0.9625868782685691</v>
+        <v>1.015794606410569</v>
       </c>
       <c r="F19">
-        <v>0.9512539271472497</v>
+        <v>1.026699121323723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023478377397767</v>
+        <v>1.050165113584711</v>
       </c>
       <c r="J19">
-        <v>0.9764175669259091</v>
+        <v>1.025112010904812</v>
       </c>
       <c r="K19">
-        <v>0.9758641348944671</v>
+        <v>1.025868314426222</v>
       </c>
       <c r="L19">
-        <v>0.9770160419039516</v>
+        <v>1.029283050111899</v>
       </c>
       <c r="M19">
-        <v>0.9659012980869294</v>
+        <v>1.040010215044771</v>
       </c>
       <c r="N19">
-        <v>0.9778041918676043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012349668846848</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040805917594575</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029436705323547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9431101242039474</v>
+        <v>0.996395607058569</v>
       </c>
       <c r="D20">
-        <v>0.9573349715501854</v>
+        <v>1.011051016883356</v>
       </c>
       <c r="E20">
-        <v>0.9585554922062159</v>
+        <v>1.014173357698169</v>
       </c>
       <c r="F20">
-        <v>0.9459839745684134</v>
+        <v>1.02461353968446</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021545804613735</v>
+        <v>1.049624755115339</v>
       </c>
       <c r="J20">
-        <v>0.9730250051096154</v>
+        <v>1.024066182579894</v>
       </c>
       <c r="K20">
-        <v>0.9721719475324235</v>
+        <v>1.024902291501045</v>
       </c>
       <c r="L20">
-        <v>0.9733684611076385</v>
+        <v>1.02797148139745</v>
       </c>
       <c r="M20">
-        <v>0.9610481301134217</v>
+        <v>1.038236969813117</v>
       </c>
       <c r="N20">
-        <v>0.9744068122243993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011963785485381</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038875253580628</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028757634536306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9279609413622156</v>
+        <v>0.9920584534808111</v>
       </c>
       <c r="D21">
-        <v>0.9426996320366149</v>
+        <v>1.007972540855554</v>
       </c>
       <c r="E21">
-        <v>0.9440838237708018</v>
+        <v>1.010842390022885</v>
       </c>
       <c r="F21">
-        <v>0.9268865279223631</v>
+        <v>1.021301693284785</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014364793907292</v>
+        <v>1.048573558821335</v>
       </c>
       <c r="J21">
-        <v>0.9608130733046178</v>
+        <v>1.02189200127834</v>
       </c>
       <c r="K21">
-        <v>0.9588544529284776</v>
+        <v>1.022804428992307</v>
       </c>
       <c r="L21">
-        <v>0.9602080639525503</v>
+        <v>1.025621220867948</v>
       </c>
       <c r="M21">
-        <v>0.9433993772469467</v>
+        <v>1.035890432647167</v>
       </c>
       <c r="N21">
-        <v>0.9621775380755103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011235268536358</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036977251733371</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027277601527305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9169978451335327</v>
+        <v>0.9892900554389692</v>
       </c>
       <c r="D22">
-        <v>0.9320218777926055</v>
+        <v>1.006009743202376</v>
       </c>
       <c r="E22">
-        <v>0.9335225895693178</v>
+        <v>1.008739388283058</v>
       </c>
       <c r="F22">
-        <v>0.912763861435558</v>
+        <v>1.019237991323239</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008883781923704</v>
+        <v>1.047893094619202</v>
       </c>
       <c r="J22">
-        <v>0.9518687602440316</v>
+        <v>1.020507623743006</v>
       </c>
       <c r="K22">
-        <v>0.9490720031026685</v>
+        <v>1.021463078673893</v>
       </c>
       <c r="L22">
-        <v>0.9505369507363214</v>
+        <v>1.024139681742796</v>
       </c>
       <c r="M22">
-        <v>0.9302870381661823</v>
+        <v>1.034437736587001</v>
       </c>
       <c r="N22">
-        <v>0.9532205230644507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010772352843443</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035827533616832</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026315546633608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9229820709520296</v>
+        <v>0.9907527010675775</v>
       </c>
       <c r="D23">
-        <v>0.9378600995955403</v>
+        <v>1.007037728706229</v>
       </c>
       <c r="E23">
-        <v>0.9392974331735742</v>
+        <v>1.009849096175786</v>
       </c>
       <c r="F23">
-        <v>0.9205061974132375</v>
+        <v>1.020328650532687</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0119061652131</v>
+        <v>1.048252313981086</v>
       </c>
       <c r="J23">
-        <v>0.9567628083389063</v>
+        <v>1.021234619399267</v>
       </c>
       <c r="K23">
-        <v>0.9544277604712645</v>
+        <v>1.022161432440077</v>
       </c>
       <c r="L23">
-        <v>0.955832201385392</v>
+        <v>1.024919581553052</v>
       </c>
       <c r="M23">
-        <v>0.9374818905706591</v>
+        <v>1.035204126800822</v>
       </c>
       <c r="N23">
-        <v>0.9581215212689753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011014549919987</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036434083792274</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026799586229689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9433458139156784</v>
+        <v>0.9964167901747785</v>
       </c>
       <c r="D24">
-        <v>0.9575616747594606</v>
+        <v>1.011048417967481</v>
       </c>
       <c r="E24">
-        <v>0.958779628039655</v>
+        <v>1.01416332758353</v>
       </c>
       <c r="F24">
-        <v>0.9462775343077261</v>
+        <v>1.024567220506038</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021654034026988</v>
+        <v>1.049615807302196</v>
       </c>
       <c r="J24">
-        <v>0.9732137324742856</v>
+        <v>1.024053473963364</v>
       </c>
       <c r="K24">
-        <v>0.9723774268145314</v>
+        <v>1.024884249804205</v>
       </c>
       <c r="L24">
-        <v>0.9735714695770575</v>
+        <v>1.027946202269214</v>
       </c>
       <c r="M24">
-        <v>0.9613186700319291</v>
+        <v>1.038176219711869</v>
       </c>
       <c r="N24">
-        <v>0.9745958076035744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011955283171343</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038786305541417</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028717208783036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9629037469015018</v>
+        <v>1.002772638792392</v>
       </c>
       <c r="D25">
-        <v>0.9762785057182435</v>
+        <v>1.015580466821445</v>
       </c>
       <c r="E25">
-        <v>0.9772815281277183</v>
+        <v>1.019035103557543</v>
       </c>
       <c r="F25">
-        <v>0.9702841676725776</v>
+        <v>1.029356039824079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030264048659808</v>
+        <v>1.051081722578305</v>
       </c>
       <c r="J25">
-        <v>0.9887474558507247</v>
+        <v>1.027207051516948</v>
       </c>
       <c r="K25">
-        <v>0.9892565787634267</v>
+        <v>1.027941636638976</v>
       </c>
       <c r="L25">
-        <v>0.9902430636563235</v>
+        <v>1.031344939519961</v>
       </c>
       <c r="M25">
-        <v>0.9833619922622543</v>
+        <v>1.041515113561257</v>
       </c>
       <c r="N25">
-        <v>0.990151590648951</v>
+        <v>1.013007940250563</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041428817600499</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030876087118133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007651536586376</v>
+        <v>1.00776668375998</v>
       </c>
       <c r="D2">
-        <v>1.019058980694204</v>
+        <v>1.018920285727787</v>
       </c>
       <c r="E2">
-        <v>1.022796192044668</v>
+        <v>1.022893301050653</v>
       </c>
       <c r="F2">
-        <v>1.033059721455607</v>
+        <v>1.033133551129351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052148433392418</v>
+        <v>1.05219631437342</v>
       </c>
       <c r="J2">
-        <v>1.029605775426244</v>
+        <v>1.029717550480619</v>
       </c>
       <c r="K2">
-        <v>1.030259028767601</v>
+        <v>1.030122176682916</v>
       </c>
       <c r="L2">
-        <v>1.033946818623029</v>
+        <v>1.034042649479209</v>
       </c>
       <c r="M2">
-        <v>1.044076921798204</v>
+        <v>1.044149803691372</v>
       </c>
       <c r="N2">
-        <v>1.013806437262829</v>
+        <v>1.015110484979747</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043456311612699</v>
+        <v>1.043513992506972</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032465935125826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0323780125991</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020103315756683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011122013380972</v>
+        <v>1.011095193728662</v>
       </c>
       <c r="D3">
-        <v>1.021560319055634</v>
+        <v>1.021199738767055</v>
       </c>
       <c r="E3">
-        <v>1.025485017248942</v>
+        <v>1.025468020946638</v>
       </c>
       <c r="F3">
-        <v>1.035705570483958</v>
+        <v>1.035690114040491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052878448895983</v>
+        <v>1.052867130909134</v>
       </c>
       <c r="J3">
-        <v>1.031314005611475</v>
+        <v>1.031287895454986</v>
       </c>
       <c r="K3">
-        <v>1.031924568055444</v>
+        <v>1.0315683645336</v>
       </c>
       <c r="L3">
-        <v>1.035801874845593</v>
+        <v>1.035785082806021</v>
       </c>
       <c r="M3">
-        <v>1.045901099630021</v>
+        <v>1.045885824432807</v>
       </c>
       <c r="N3">
-        <v>1.01437651739898</v>
+        <v>1.015526298732841</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044900018741597</v>
+        <v>1.044887929520285</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03364094931913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033397644906321</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020392426469734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013329007352569</v>
+        <v>1.013212723551471</v>
       </c>
       <c r="D4">
-        <v>1.023157450496932</v>
+        <v>1.022656210404675</v>
       </c>
       <c r="E4">
-        <v>1.027200578481729</v>
+        <v>1.027111577820244</v>
       </c>
       <c r="F4">
-        <v>1.037394004639773</v>
+        <v>1.037322241405146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053327698250227</v>
+        <v>1.053278917676939</v>
       </c>
       <c r="J4">
-        <v>1.03239779381787</v>
+        <v>1.032284380579937</v>
       </c>
       <c r="K4">
-        <v>1.032984193950773</v>
+        <v>1.032488673588458</v>
       </c>
       <c r="L4">
-        <v>1.036981436710003</v>
+        <v>1.036893441319876</v>
       </c>
       <c r="M4">
-        <v>1.047061129950227</v>
+        <v>1.046990157809442</v>
       </c>
       <c r="N4">
-        <v>1.014738268353766</v>
+        <v>1.015790240522884</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045818098827818</v>
+        <v>1.045761929545222</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034391110554292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034049376593071</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020574184165278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01425101666068</v>
+        <v>1.014097456827093</v>
       </c>
       <c r="D5">
-        <v>1.023829046456761</v>
+        <v>1.023269083429479</v>
       </c>
       <c r="E5">
-        <v>1.02791875378206</v>
+        <v>1.027799725550613</v>
       </c>
       <c r="F5">
-        <v>1.038100331886693</v>
+        <v>1.038005096274909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053512419267811</v>
+        <v>1.053447993308573</v>
       </c>
       <c r="J5">
-        <v>1.032851479751792</v>
+        <v>1.032701598729773</v>
       </c>
       <c r="K5">
-        <v>1.03343052698692</v>
+        <v>1.032876784751375</v>
       </c>
       <c r="L5">
-        <v>1.037475053082979</v>
+        <v>1.037357333579698</v>
       </c>
       <c r="M5">
-        <v>1.047546045064381</v>
+        <v>1.047451831526717</v>
       </c>
       <c r="N5">
-        <v>1.014889967527487</v>
+        <v>1.015900959589298</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046201873723577</v>
+        <v>1.046127310605332</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034713932360917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03433174158802</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020650835085872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014409192964181</v>
+        <v>1.014249143228677</v>
       </c>
       <c r="D6">
-        <v>1.023947799885237</v>
+        <v>1.023377693024859</v>
       </c>
       <c r="E6">
-        <v>1.028042211269237</v>
+        <v>1.027917947167984</v>
       </c>
       <c r="F6">
-        <v>1.038221078777507</v>
+        <v>1.038121752311815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053544742061262</v>
+        <v>1.053477590063573</v>
       </c>
       <c r="J6">
-        <v>1.032931157849244</v>
+        <v>1.032774922911143</v>
       </c>
       <c r="K6">
-        <v>1.033511432465635</v>
+        <v>1.032947630227851</v>
       </c>
       <c r="L6">
-        <v>1.037560817411669</v>
+        <v>1.037437913367151</v>
       </c>
       <c r="M6">
-        <v>1.047629632680088</v>
+        <v>1.04753136734453</v>
       </c>
       <c r="N6">
-        <v>1.014916915991474</v>
+        <v>1.015920649668416</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04626802719613</v>
+        <v>1.046190257383281</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034779946818767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034391512772604</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020665450287697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013351831635019</v>
+        <v>1.013240612203439</v>
       </c>
       <c r="D7">
-        <v>1.023183299319275</v>
+        <v>1.022685353584641</v>
       </c>
       <c r="E7">
-        <v>1.027218819848215</v>
+        <v>1.027133980202863</v>
       </c>
       <c r="F7">
-        <v>1.037410119137582</v>
+        <v>1.0373415648561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053334565360551</v>
+        <v>1.053287900185572</v>
       </c>
       <c r="J7">
-        <v>1.032414086680495</v>
+        <v>1.032305611607478</v>
       </c>
       <c r="K7">
-        <v>1.033006837674745</v>
+        <v>1.032514571802675</v>
       </c>
       <c r="L7">
-        <v>1.036996577033909</v>
+        <v>1.036912695294352</v>
       </c>
       <c r="M7">
-        <v>1.047074209684385</v>
+        <v>1.047006410839118</v>
       </c>
       <c r="N7">
-        <v>1.014744546007598</v>
+        <v>1.015822280816227</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045828450484718</v>
+        <v>1.045774792635354</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034427379234217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034089948161278</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020581642687484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008845688623861</v>
+        <v>1.008930625024624</v>
       </c>
       <c r="D8">
-        <v>1.019929754774572</v>
+        <v>1.019729500258544</v>
       </c>
       <c r="E8">
-        <v>1.023720833811873</v>
+        <v>1.02379401066574</v>
       </c>
       <c r="F8">
-        <v>1.033967217369516</v>
+        <v>1.034022146633257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052405441361774</v>
+        <v>1.052440750303658</v>
       </c>
       <c r="J8">
-        <v>1.030200371317969</v>
+        <v>1.030282902876965</v>
       </c>
       <c r="K8">
-        <v>1.030846365890249</v>
+        <v>1.030648693563876</v>
       </c>
       <c r="L8">
-        <v>1.03458879887693</v>
+        <v>1.034661041174687</v>
       </c>
       <c r="M8">
-        <v>1.044705928438178</v>
+        <v>1.044760173393351</v>
       </c>
       <c r="N8">
-        <v>1.014005935610447</v>
+        <v>1.015339336146775</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043954125993772</v>
+        <v>1.043997057033069</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032904327450511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032775666863578</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020212989949677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000580975641755</v>
+        <v>1.001012193692606</v>
       </c>
       <c r="D9">
-        <v>1.013999897445918</v>
+        <v>1.014333231981642</v>
       </c>
       <c r="E9">
-        <v>1.017350514823689</v>
+        <v>1.017701400467191</v>
       </c>
       <c r="F9">
-        <v>1.027702717661274</v>
+        <v>1.027975154023411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050581489774929</v>
+        <v>1.050760156512133</v>
       </c>
       <c r="J9">
-        <v>1.026113234829038</v>
+        <v>1.026529259353899</v>
       </c>
       <c r="K9">
-        <v>1.02686984741109</v>
+        <v>1.027197965345255</v>
       </c>
       <c r="L9">
-        <v>1.030168227183951</v>
+        <v>1.030513667785686</v>
       </c>
       <c r="M9">
-        <v>1.040361776431851</v>
+        <v>1.040630092520371</v>
       </c>
       <c r="N9">
-        <v>1.012641392904547</v>
+        <v>1.014354599142163</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040516029189168</v>
+        <v>1.040728383347167</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030089414604447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030332257604094</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019509015689057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.994894610287797</v>
+        <v>0.9955948844679368</v>
       </c>
       <c r="D10">
-        <v>1.0099654788108</v>
+        <v>1.010688250159032</v>
       </c>
       <c r="E10">
-        <v>1.013032896652136</v>
+        <v>1.013599038571214</v>
       </c>
       <c r="F10">
-        <v>1.023507635651876</v>
+        <v>1.023948680058441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049266678985776</v>
+        <v>1.049555650651498</v>
       </c>
       <c r="J10">
-        <v>1.02331226176743</v>
+        <v>1.023984374380969</v>
       </c>
       <c r="K10">
-        <v>1.024157104800367</v>
+        <v>1.024867169761924</v>
       </c>
       <c r="L10">
-        <v>1.027170758792315</v>
+        <v>1.027727023778228</v>
       </c>
       <c r="M10">
-        <v>1.037465039336654</v>
+        <v>1.037898590016086</v>
       </c>
       <c r="N10">
-        <v>1.011710725158453</v>
+        <v>1.013800467980257</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038274903475999</v>
+        <v>1.038618009359085</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028188269639756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028702861859441</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019028850943881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9927329346686129</v>
+        <v>0.9935626428030018</v>
       </c>
       <c r="D11">
-        <v>1.008495391966441</v>
+        <v>1.009381979094083</v>
       </c>
       <c r="E11">
-        <v>1.011653999200367</v>
+        <v>1.012321899454199</v>
       </c>
       <c r="F11">
-        <v>1.022563332002129</v>
+        <v>1.023083926070861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048864896911231</v>
+        <v>1.049206631168802</v>
       </c>
       <c r="J11">
-        <v>1.02241118848333</v>
+        <v>1.023205697329324</v>
       </c>
       <c r="K11">
-        <v>1.023258856466687</v>
+        <v>1.024129107670173</v>
       </c>
       <c r="L11">
-        <v>1.026359434567075</v>
+        <v>1.027015124705707</v>
       </c>
       <c r="M11">
-        <v>1.037071922564075</v>
+        <v>1.037583259371759</v>
       </c>
       <c r="N11">
-        <v>1.011443912003269</v>
+        <v>1.013845187075381</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038400043386144</v>
+        <v>1.038804504660574</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027586326233223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02821739193551</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018908737711019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9920354591410818</v>
+        <v>0.992905036963916</v>
       </c>
       <c r="D12">
-        <v>1.008034827549043</v>
+        <v>1.008970478505403</v>
       </c>
       <c r="E12">
-        <v>1.011311708895722</v>
+        <v>1.012009595116684</v>
       </c>
       <c r="F12">
-        <v>1.022524753343518</v>
+        <v>1.023068943268868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048775808110681</v>
+        <v>1.049133719261973</v>
       </c>
       <c r="J12">
-        <v>1.022180759823618</v>
+        <v>1.023012733504066</v>
       </c>
       <c r="K12">
-        <v>1.023009695073883</v>
+        <v>1.023927812881724</v>
       </c>
       <c r="L12">
-        <v>1.02622535643884</v>
+        <v>1.026910271265303</v>
       </c>
       <c r="M12">
-        <v>1.037232774175026</v>
+        <v>1.037767133747261</v>
       </c>
       <c r="N12">
-        <v>1.011392418436069</v>
+        <v>1.013912410966242</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03885363898414</v>
+        <v>1.039276167995993</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027410157731549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028075070581176</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01888901055672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924345065958254</v>
+        <v>0.9932682630741689</v>
       </c>
       <c r="D13">
-        <v>1.00834129283389</v>
+        <v>1.009233108273676</v>
       </c>
       <c r="E13">
-        <v>1.011759291935481</v>
+        <v>1.012426656783259</v>
       </c>
       <c r="F13">
-        <v>1.02320321385371</v>
+        <v>1.023723916267765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048934901233535</v>
+        <v>1.049278144423569</v>
       </c>
       <c r="J13">
-        <v>1.022468732849398</v>
+        <v>1.023266605757919</v>
       </c>
       <c r="K13">
-        <v>1.023266909603706</v>
+        <v>1.024142081618179</v>
       </c>
       <c r="L13">
-        <v>1.026621328266108</v>
+        <v>1.027276344325265</v>
       </c>
       <c r="M13">
-        <v>1.037856392238069</v>
+        <v>1.038367735850094</v>
       </c>
       <c r="N13">
-        <v>1.011510257791479</v>
+        <v>1.013971494577845</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03962332990889</v>
+        <v>1.040027558191643</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027589502392958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028223805200486</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018951051421126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9932115581978429</v>
+        <v>0.9939864637900543</v>
       </c>
       <c r="D14">
-        <v>1.008905873165194</v>
+        <v>1.009725366775662</v>
       </c>
       <c r="E14">
-        <v>1.012429737714623</v>
+        <v>1.013048925958877</v>
       </c>
       <c r="F14">
-        <v>1.024001742347393</v>
+        <v>1.024485117799181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049158422696684</v>
+        <v>1.049477618025058</v>
       </c>
       <c r="J14">
-        <v>1.022905558806111</v>
+        <v>1.023647585560292</v>
       </c>
       <c r="K14">
-        <v>1.023678520837823</v>
+        <v>1.024482909707508</v>
       </c>
       <c r="L14">
-        <v>1.027137660109114</v>
+        <v>1.027745535836538</v>
       </c>
       <c r="M14">
-        <v>1.038501179409538</v>
+        <v>1.038975979148464</v>
       </c>
       <c r="N14">
-        <v>1.011669632427572</v>
+        <v>1.014010562703839</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040306281645506</v>
+        <v>1.040681570572643</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027881969496602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02846635813965</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019032372729224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9936453748532272</v>
+        <v>0.9943897250374224</v>
       </c>
       <c r="D15">
-        <v>1.00921842099024</v>
+        <v>1.010000002619666</v>
       </c>
       <c r="E15">
-        <v>1.012774705585918</v>
+        <v>1.013369258040192</v>
       </c>
       <c r="F15">
-        <v>1.024368545630915</v>
+        <v>1.024832762259786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049270592944513</v>
+        <v>1.049577301860594</v>
       </c>
       <c r="J15">
-        <v>1.023132219103838</v>
+        <v>1.023845260858769</v>
       </c>
       <c r="K15">
-        <v>1.023897586826967</v>
+        <v>1.024664871961134</v>
       </c>
       <c r="L15">
-        <v>1.027389052582687</v>
+        <v>1.027972826119332</v>
       </c>
       <c r="M15">
-        <v>1.038775628404828</v>
+        <v>1.039231672754657</v>
       </c>
       <c r="N15">
-        <v>1.01174817352079</v>
+        <v>1.0140233442711</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040560726890126</v>
+        <v>1.040921181794794</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02804278855843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028601510254893</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019072597560563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9959802994951775</v>
+        <v>0.9965767916609811</v>
       </c>
       <c r="D16">
-        <v>1.010869893800257</v>
+        <v>1.011462852999448</v>
       </c>
       <c r="E16">
-        <v>1.014525120444464</v>
+        <v>1.015001955304442</v>
       </c>
       <c r="F16">
-        <v>1.026050011095385</v>
+        <v>1.026422297035845</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049819824548623</v>
+        <v>1.050066048803943</v>
       </c>
       <c r="J16">
-        <v>1.024277014718737</v>
+        <v>1.024849666083343</v>
       </c>
       <c r="K16">
-        <v>1.025009514189427</v>
+        <v>1.02559210201466</v>
       </c>
       <c r="L16">
-        <v>1.028601057456649</v>
+        <v>1.029069628396519</v>
       </c>
       <c r="M16">
-        <v>1.039928986662899</v>
+        <v>1.040295005307416</v>
       </c>
       <c r="N16">
-        <v>1.0121247698589</v>
+        <v>1.014080081927705</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041433641110801</v>
+        <v>1.041722948456379</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028832171989345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029260598864613</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019260829325175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9973663853936335</v>
+        <v>0.9978868909048463</v>
       </c>
       <c r="D17">
-        <v>1.011844240897854</v>
+        <v>1.012335405447838</v>
       </c>
       <c r="E17">
-        <v>1.015518187910569</v>
+        <v>1.015935031732615</v>
       </c>
       <c r="F17">
-        <v>1.026917310311125</v>
+        <v>1.027242580155488</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050120368627593</v>
+        <v>1.050335455597373</v>
       </c>
       <c r="J17">
-        <v>1.024926147084537</v>
+        <v>1.025426515670544</v>
       </c>
       <c r="K17">
-        <v>1.025647736550173</v>
+        <v>1.026130552799878</v>
       </c>
       <c r="L17">
-        <v>1.029259490097588</v>
+        <v>1.029669314130114</v>
       </c>
       <c r="M17">
-        <v>1.040469286789589</v>
+        <v>1.040789233554472</v>
       </c>
       <c r="N17">
-        <v>1.012330041186071</v>
+        <v>1.014131418140771</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041731746053085</v>
+        <v>1.041984662573064</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029286038507644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02964416683983</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019363631642569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C18">
-        <v>0.9980533220190061</v>
+        <v>0.9985450904503835</v>
       </c>
       <c r="D18">
-        <v>1.012306701017292</v>
+        <v>1.012756268540682</v>
       </c>
       <c r="E18">
-        <v>1.015923632478858</v>
+        <v>1.016318619812905</v>
       </c>
       <c r="F18">
-        <v>1.027114845408923</v>
+        <v>1.027422787948493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050228106850837</v>
+        <v>1.050431434799762</v>
       </c>
       <c r="J18">
-        <v>1.025190074766373</v>
+        <v>1.025663175419351</v>
       </c>
       <c r="K18">
-        <v>1.025916333034433</v>
+        <v>1.026358385994679</v>
       </c>
       <c r="L18">
-        <v>1.029473049802259</v>
+        <v>1.029861494798125</v>
       </c>
       <c r="M18">
-        <v>1.040481398399459</v>
+        <v>1.040784381421535</v>
       </c>
       <c r="N18">
-        <v>1.012399179432682</v>
+        <v>1.014140239893862</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041503782363153</v>
+        <v>1.041743338979676</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029464202576503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029792374029932</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019394662712166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9981125534560903</v>
+        <v>0.9986124657028079</v>
       </c>
       <c r="D19">
-        <v>1.012322365692336</v>
+        <v>1.012780168142742</v>
       </c>
       <c r="E19">
-        <v>1.015794606410569</v>
+        <v>1.01619750633198</v>
       </c>
       <c r="F19">
-        <v>1.026699121323723</v>
+        <v>1.027012975212919</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050165113584711</v>
+        <v>1.050371837811683</v>
       </c>
       <c r="J19">
-        <v>1.025112010904812</v>
+        <v>1.025593060634634</v>
       </c>
       <c r="K19">
-        <v>1.025868314426222</v>
+        <v>1.02631850598558</v>
       </c>
       <c r="L19">
-        <v>1.029283050111899</v>
+        <v>1.029679310196162</v>
       </c>
       <c r="M19">
-        <v>1.040010215044771</v>
+        <v>1.0403190359531</v>
       </c>
       <c r="N19">
-        <v>1.012349668846848</v>
+        <v>1.014093933708897</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040805917594575</v>
+        <v>1.04105016967786</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029436705323547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029771254319122</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01936625461417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.996395607058569</v>
+        <v>0.9970062146986555</v>
       </c>
       <c r="D20">
-        <v>1.011051016883356</v>
+        <v>1.011656262680254</v>
       </c>
       <c r="E20">
-        <v>1.014173357698169</v>
+        <v>1.014667339577792</v>
       </c>
       <c r="F20">
-        <v>1.02461353968446</v>
+        <v>1.024998255183619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049624755115339</v>
+        <v>1.049876999381476</v>
       </c>
       <c r="J20">
-        <v>1.024066182579894</v>
+        <v>1.024653031550051</v>
       </c>
       <c r="K20">
-        <v>1.024902291501045</v>
+        <v>1.025497201220636</v>
       </c>
       <c r="L20">
-        <v>1.02797148139745</v>
+        <v>1.028457093010208</v>
       </c>
       <c r="M20">
-        <v>1.038236969813117</v>
+        <v>1.038615335417721</v>
       </c>
       <c r="N20">
-        <v>1.011963785485381</v>
+        <v>1.013880555593755</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038875253580628</v>
+        <v>1.039174690369078</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028757634536306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029194897404007</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019162361891943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9920584534808111</v>
+        <v>0.9929622870519488</v>
       </c>
       <c r="D21">
-        <v>1.007972540855554</v>
+        <v>1.00894499509736</v>
       </c>
       <c r="E21">
-        <v>1.010842390022885</v>
+        <v>1.011573063086385</v>
       </c>
       <c r="F21">
-        <v>1.021301693284785</v>
+        <v>1.021870844768102</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048573558821335</v>
+        <v>1.048945722402202</v>
       </c>
       <c r="J21">
-        <v>1.02189200127834</v>
+        <v>1.022757227801745</v>
       </c>
       <c r="K21">
-        <v>1.022804428992307</v>
+        <v>1.023758860581562</v>
       </c>
       <c r="L21">
-        <v>1.025621220867948</v>
+        <v>1.026338448008772</v>
       </c>
       <c r="M21">
-        <v>1.035890432647167</v>
+        <v>1.036449385145465</v>
       </c>
       <c r="N21">
-        <v>1.011235268536358</v>
+        <v>1.01379253978927</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036977251733371</v>
+        <v>1.037419627197627</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027277601527305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027969397954042</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018802024191818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9892900554389692</v>
+        <v>0.9903796653791571</v>
       </c>
       <c r="D22">
-        <v>1.006009743202376</v>
+        <v>1.007214959522737</v>
       </c>
       <c r="E22">
-        <v>1.008739388283058</v>
+        <v>1.009619831566265</v>
       </c>
       <c r="F22">
-        <v>1.019237991323239</v>
+        <v>1.019923805076609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047893094619202</v>
+        <v>1.048340809933687</v>
       </c>
       <c r="J22">
-        <v>1.020507623743006</v>
+        <v>1.021547989860384</v>
       </c>
       <c r="K22">
-        <v>1.021463078673893</v>
+        <v>1.022644828956515</v>
       </c>
       <c r="L22">
-        <v>1.024139681742796</v>
+        <v>1.025003096546924</v>
       </c>
       <c r="M22">
-        <v>1.034437736587001</v>
+        <v>1.035110637317545</v>
       </c>
       <c r="N22">
-        <v>1.010772352843443</v>
+        <v>1.013728624460881</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035827533616832</v>
+        <v>1.03636009271021</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026315546633608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0271667776582</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018569131674913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9907527010675775</v>
+        <v>0.9917346520735503</v>
       </c>
       <c r="D23">
-        <v>1.007037728706229</v>
+        <v>1.008112478925856</v>
       </c>
       <c r="E23">
-        <v>1.009849096175786</v>
+        <v>1.010642592090232</v>
       </c>
       <c r="F23">
-        <v>1.020328650532687</v>
+        <v>1.020946839228104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048252313981086</v>
+        <v>1.048656254220703</v>
       </c>
       <c r="J23">
-        <v>1.021234619399267</v>
+        <v>1.022173489316316</v>
       </c>
       <c r="K23">
-        <v>1.022161432440077</v>
+        <v>1.023215792139858</v>
       </c>
       <c r="L23">
-        <v>1.024919581553052</v>
+        <v>1.025698126810298</v>
       </c>
       <c r="M23">
-        <v>1.035204126800822</v>
+        <v>1.03581097475952</v>
       </c>
       <c r="N23">
-        <v>1.011014549919987</v>
+        <v>1.013718383503028</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036434083792274</v>
+        <v>1.036914365830692</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026799586229689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027559802470756</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01868616093761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9964167901747785</v>
+        <v>0.9970279759545229</v>
       </c>
       <c r="D24">
-        <v>1.011048417967481</v>
+        <v>1.011654018048028</v>
       </c>
       <c r="E24">
-        <v>1.01416332758353</v>
+        <v>1.014658004241992</v>
       </c>
       <c r="F24">
-        <v>1.024567220506038</v>
+        <v>1.02495245055256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049615807302196</v>
+        <v>1.049868304836827</v>
       </c>
       <c r="J24">
-        <v>1.024053473963364</v>
+        <v>1.024640913455659</v>
       </c>
       <c r="K24">
-        <v>1.024884249804205</v>
+        <v>1.0254795209845</v>
       </c>
       <c r="L24">
-        <v>1.027946202269214</v>
+        <v>1.028432507444457</v>
       </c>
       <c r="M24">
-        <v>1.038176219711869</v>
+        <v>1.038555098776116</v>
       </c>
       <c r="N24">
-        <v>1.011955283171343</v>
+        <v>1.013870383406204</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038786305541417</v>
+        <v>1.039086163570065</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028717208783036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02915205868472</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019153485064474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002772638792392</v>
+        <v>1.003102939417452</v>
       </c>
       <c r="D25">
-        <v>1.015580466821445</v>
+        <v>1.015765332361021</v>
       </c>
       <c r="E25">
-        <v>1.019035103557543</v>
+        <v>1.019304978497201</v>
       </c>
       <c r="F25">
-        <v>1.029356039824079</v>
+        <v>1.02956507040942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051081722578305</v>
+        <v>1.051218770627079</v>
       </c>
       <c r="J25">
-        <v>1.027207051516948</v>
+        <v>1.027526326620229</v>
       </c>
       <c r="K25">
-        <v>1.027941636638976</v>
+        <v>1.028123743939716</v>
       </c>
       <c r="L25">
-        <v>1.031344939519961</v>
+        <v>1.031610822896337</v>
       </c>
       <c r="M25">
-        <v>1.041515113561257</v>
+        <v>1.041721130316035</v>
       </c>
       <c r="N25">
-        <v>1.013007940250563</v>
+        <v>1.014586858861793</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041428817600499</v>
+        <v>1.04159186582076</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030876087118133</v>
+        <v>1.031018489663152</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019701908171016</v>
       </c>
     </row>
   </sheetData>
